--- a/all_performance_dict.xlsx
+++ b/all_performance_dict.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I25"/>
+  <dimension ref="A1:J24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -441,35 +441,40 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>День и время:</t>
+          <t>Дата:</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>Время:</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>Жанр:</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>Рейтинг:</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>Цена:</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>Театр:</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>Описание:</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>URL спектакля:</t>
         </is>
@@ -486,33 +491,38 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>1 апреля в 19:00</t>
+          <t>1 апреля</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Драматический</t>
-        </is>
-      </c>
-      <c r="E2" t="n">
+          <t>19:00</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>Драма</t>
+        </is>
+      </c>
+      <c r="F2" t="n">
         <v>7.4</v>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="G2" t="inlineStr">
         <is>
           <t>От 1000 ₽</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
+      <c r="H2" t="inlineStr">
         <is>
           <t>ДК им. Ленсовета</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
+      <c r="I2" t="inlineStr">
         <is>
           <t>Виктор Сухоруков в трогательной комедии Вампилова</t>
         </is>
       </c>
-      <c r="I2" t="inlineStr">
+      <c r="J2" t="inlineStr">
         <is>
           <t>https://www.afisha.ru/performance/90900/</t>
         </is>
@@ -529,33 +539,38 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>10 апреля в 18:00</t>
+          <t>10 апреля</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
+          <t>18:00</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
           <t>Перформанс</t>
         </is>
       </c>
-      <c r="E3" t="n">
+      <c r="F3" t="n">
         <v>7.8</v>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="G3" t="inlineStr">
         <is>
           <t>От 900 ₽</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr">
+      <c r="H3" t="inlineStr">
         <is>
           <t>Скороход</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
+      <c r="I3" t="inlineStr">
         <is>
           <t>Щекотливый спектакль без актеров и декораций</t>
         </is>
       </c>
-      <c r="I3" t="inlineStr">
+      <c r="J3" t="inlineStr">
         <is>
           <t>https://www.afisha.ru/performance/118145/</t>
         </is>
@@ -567,40 +582,45 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Враки, или Завещание барона Мюнхгаузена</t>
+          <t>Смешанные чувства</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>25 марта в 19:00</t>
+          <t>24 марта</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Премьеры</t>
-        </is>
-      </c>
-      <c r="E4" t="n">
-        <v>6.3</v>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>От 6500 ₽</t>
-        </is>
+          <t>19:00</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Комедия</t>
+        </is>
+      </c>
+      <c r="F4" t="n">
+        <v>7.1</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Александринский театр</t>
+          <t>От 400 ₽</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>Константин Хабенский в роли легендарного барона</t>
+          <t>Театр им. Ленсовета</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>https://www.afisha.ru/performance/245895/</t>
+          <t>Михаил Боярский в геронтофильской комедии в компании супруги</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>https://www.afisha.ru/performance/79983/</t>
         </is>
       </c>
     </row>
@@ -610,40 +630,45 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Иисус Христос — суперзвезда</t>
+          <t>Враки, или Завещание барона Мюнхгаузена</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>24 апреля в 19:00</t>
+          <t>25 марта</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Музыкальный</t>
-        </is>
-      </c>
-      <c r="E5" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>От 1000 ₽</t>
-        </is>
+          <t>19:00</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Премьеры</t>
+        </is>
+      </c>
+      <c r="F5" t="n">
+        <v>6.3</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>ДК им. Ленсовета</t>
+          <t>От 6500 ₽</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>Постановка питерского театра «Рок-опера»</t>
+          <t>Александринский театр</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>https://www.afisha.ru/performance/66149/</t>
+          <t>Константин Хабенский в роли легендарного барона</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>https://www.afisha.ru/performance/245895/</t>
         </is>
       </c>
     </row>
@@ -653,40 +678,45 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Город. Женитьба. Гоголь</t>
+          <t>Иисус Христос — суперзвезда</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>29 апреля в 19:00</t>
+          <t>24 апреля</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Драматический</t>
-        </is>
-      </c>
-      <c r="E6" t="n">
-        <v>8.199999999999999</v>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>От 600 ₽</t>
-        </is>
+          <t>19:00</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Музыкальный</t>
+        </is>
+      </c>
+      <c r="F6" t="n">
+        <v>8.5</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Театр им. Ленсовета</t>
+          <t>От 1000 ₽</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>Герои Гоголя растворяются в современном Петербурге</t>
+          <t>ДК им. Ленсовета</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>https://www.afisha.ru/performance/103390/</t>
+          <t>Постановка питерского театра «Рок-опера»</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>https://www.afisha.ru/performance/66149/</t>
         </is>
       </c>
     </row>
@@ -696,40 +726,45 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Смешанные чувства</t>
+          <t>Валентинов день</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>24 марта в 19:00</t>
+          <t>3 апреля</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Комедия</t>
-        </is>
-      </c>
-      <c r="E7" t="n">
-        <v>7.1</v>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>От 600 ₽</t>
-        </is>
+          <t>19:00</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Драма</t>
+        </is>
+      </c>
+      <c r="F7" t="n">
+        <v>7.4</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Театр им. Ленсовета</t>
+          <t>От 700 ₽</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>Михаил Боярский в геронтофильской комедии в компании супруги</t>
+          <t>ДК им. Ленсовета</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>https://www.afisha.ru/performance/79983/</t>
+          <t>Иван Вырыпаев в антрепризе</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>https://www.afisha.ru/performance/88299/</t>
         </is>
       </c>
     </row>
@@ -739,40 +774,45 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Валентинов день</t>
+          <t>Город. Женитьба. Гоголь</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>3 апреля в 19:00</t>
+          <t>29 апреля</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Драматический</t>
-        </is>
-      </c>
-      <c r="E8" t="n">
-        <v>7.4</v>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>От 700 ₽</t>
-        </is>
+          <t>19:00</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Драма</t>
+        </is>
+      </c>
+      <c r="F8" t="n">
+        <v>8.199999999999999</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>ДК им. Ленсовета</t>
+          <t>От 600 ₽</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>Иван Вырыпаев в антрепризе</t>
+          <t>Театр им. Ленсовета</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>https://www.afisha.ru/performance/88299/</t>
+          <t>Герои Гоголя растворяются в современном Петербурге</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>https://www.afisha.ru/performance/103390/</t>
         </is>
       </c>
     </row>
@@ -782,40 +822,45 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Все мы прекрасные люди</t>
+          <t>Ревизор</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>19 апреля в 19:00</t>
+          <t>27 марта</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
+          <t>19:00</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
           <t>Комедия</t>
         </is>
       </c>
-      <c r="E9" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="F9" t="inlineStr">
+      <c r="F9" t="n">
+        <v>8.1</v>
+      </c>
+      <c r="G9" t="inlineStr">
         <is>
           <t>От 400 ₽</t>
         </is>
       </c>
-      <c r="G9" t="inlineStr">
+      <c r="H9" t="inlineStr">
         <is>
           <t>Театр им. Ленсовета</t>
         </is>
       </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>Внезапная страсть героини Анны Ковальчук сокрушает ее саму и все вокруг</t>
-        </is>
-      </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>https://www.afisha.ru/performance/96366/</t>
+          <t>Презабавный утренник по пьесе Гоголя, который отчего-то играют вечером</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>https://www.afisha.ru/performance/78711/</t>
         </is>
       </c>
     </row>
@@ -825,40 +870,45 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>С Чарльзом Буковски за барной стойкой</t>
+          <t>Все мы прекрасные люди</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Завтра в 19:00</t>
+          <t>19 апреля</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Перформанс</t>
-        </is>
-      </c>
-      <c r="E10" t="n">
-        <v>5.2</v>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>От 900 ₽</t>
-        </is>
+          <t>19:00</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Комедия</t>
+        </is>
+      </c>
+      <c r="F10" t="n">
+        <v>4.5</v>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Fiddler's Green</t>
+          <t>От 400 ₽</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>Спектакль для одного зрителя в наушниках за барной стойкой</t>
+          <t>Театр им. Ленсовета</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>https://www.afisha.ru/performance/191308/</t>
+          <t>Внезапная страсть героини Анны Ковальчук сокрушает ее саму и все вокруг</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>https://www.afisha.ru/performance/96366/</t>
         </is>
       </c>
     </row>
@@ -868,40 +918,45 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Топливо</t>
+          <t>Гроза</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>31 марта в 20:00</t>
+          <t>Сегодня</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Драматический</t>
-        </is>
-      </c>
-      <c r="E11" t="n">
-        <v>8.4</v>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>От 1000 ₽</t>
-        </is>
+          <t>18:00</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Драма</t>
+        </is>
+      </c>
+      <c r="F11" t="n">
+        <v>8</v>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Скороход</t>
+          <t>От 300 ₽</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>Увлекательный байопик про российского физика</t>
+          <t>БДТ</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>https://www.afisha.ru/performance/104731/</t>
+          <t>Большое шаманство Андрея Могучего по Островскому</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>https://www.afisha.ru/performance/117877/</t>
         </is>
       </c>
     </row>
@@ -911,40 +966,45 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Ревизор</t>
+          <t>Топливо</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>27 марта в 19:00</t>
+          <t>31 марта</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Комедия</t>
-        </is>
-      </c>
-      <c r="E12" t="n">
-        <v>8.1</v>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>От 400 ₽</t>
-        </is>
+          <t>20:00</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Драма</t>
+        </is>
+      </c>
+      <c r="F12" t="n">
+        <v>8.4</v>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Театр им. Ленсовета</t>
+          <t>От 1000 ₽</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>Презабавный утренник по пьесе Гоголя, который отчего-то играют вечером</t>
+          <t>Скороход</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>https://www.afisha.ru/performance/78711/</t>
+          <t>Увлекательный байопик про российского физика</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>https://www.afisha.ru/performance/104731/</t>
         </is>
       </c>
     </row>
@@ -954,40 +1014,45 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Когда я снова стану маленьким</t>
+          <t>Записки юного врача</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>3 апреля в 13:00</t>
+          <t>2 апреля</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Кукольный</t>
-        </is>
-      </c>
-      <c r="E13" t="n">
-        <v>8.300000000000001</v>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>Билеты</t>
-        </is>
+          <t>19:00</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Драма</t>
+        </is>
+      </c>
+      <c r="F13" t="n">
+        <v>7.7</v>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>БДТ</t>
+          <t>От 700 ₽</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>Энциклопедия подростковых грез и слез, упакованная в 15 чемоданов</t>
+          <t>Мастерская</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>https://www.afisha.ru/performance/97786/</t>
+          <t>Моноспектакль по ранним рассказам Булгакова</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>https://www.afisha.ru/performance/117716/</t>
         </is>
       </c>
     </row>
@@ -997,40 +1062,45 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Гроза</t>
+          <t>С Чарльзом Буковски за барной стойкой</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>20 марта в 18:00</t>
+          <t>Сегодня</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Драматический</t>
-        </is>
-      </c>
-      <c r="E14" t="n">
-        <v>8</v>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>От 300 ₽</t>
-        </is>
+          <t>19:00</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Перформанс</t>
+        </is>
+      </c>
+      <c r="F14" t="n">
+        <v>5.2</v>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>БДТ</t>
+          <t>От 900 ₽</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>Большое шаманство Андрея Могучего по Островскому</t>
+          <t>Fiddler's Green</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>https://www.afisha.ru/performance/117877/</t>
+          <t>Спектакль для одного зрителя в наушниках за барной стойкой</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>https://www.afisha.ru/performance/191308/</t>
         </is>
       </c>
     </row>
@@ -1040,40 +1110,45 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Скамейка</t>
+          <t>Преступление и наказание</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>6 апреля в 19:00</t>
+          <t>24 марта</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Драматический</t>
-        </is>
-      </c>
-      <c r="E15" t="n">
-        <v>7.6</v>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>От 500 ₽</t>
-        </is>
+          <t>19:00</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Драма</t>
+        </is>
+      </c>
+      <c r="F15" t="n">
+        <v>8.699999999999999</v>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Концертный зал в здании Екатерининского собрания</t>
+          <t>От 1000 ₽</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>Не самая банальная советская мелодрама, сыгранная как французский шансон</t>
+          <t>Небольшой драматический театр</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>https://www.afisha.ru/performance/77005/</t>
+          <t>Витальное прочтение студентами Льва Эренбурга одного из самых идейных текстов Достоевского</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>https://www.afisha.ru/performance/90576/</t>
         </is>
       </c>
     </row>
@@ -1083,40 +1158,45 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Буря</t>
+          <t>Безымянная звезда</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>3 апреля в 19:00</t>
+          <t>Сегодня</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Драматический</t>
-        </is>
-      </c>
-      <c r="E16" t="n">
-        <v>7.2</v>
-      </c>
-      <c r="F16" t="inlineStr">
+          <t>19:00</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>Драма</t>
+        </is>
+      </c>
+      <c r="F16" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="G16" t="inlineStr">
         <is>
           <t>От 300 ₽</t>
         </is>
       </c>
-      <c r="G16" t="inlineStr">
+      <c r="H16" t="inlineStr">
         <is>
           <t>Театр им. Комиссаржевской</t>
         </is>
       </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>Умный трагифарс от режиссера Морфова, фокусы с пространством от художника Капелюша</t>
-        </is>
-      </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>https://www.afisha.ru/performance/65972/</t>
+          <t>Первая любовь гения как неисчерпаемый источник поэзии</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>https://www.afisha.ru/performance/67513/</t>
         </is>
       </c>
     </row>
@@ -1126,40 +1206,45 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Преступление и наказание</t>
+          <t>Дети солнца</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>24 марта в 19:00</t>
+          <t>23 апреля</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Драматический</t>
-        </is>
-      </c>
-      <c r="E17" t="n">
-        <v>8.699999999999999</v>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>От 1000 ₽</t>
-        </is>
+          <t>19:00</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>Драма</t>
+        </is>
+      </c>
+      <c r="F17" t="n">
+        <v>6.6</v>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Небольшой драматический театр</t>
+          <t>От 300 ₽</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>Витальное прочтение студентами Льва Эренбурга одного из самых идейных текстов Достоевского</t>
+          <t>Александринский театр</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>https://www.afisha.ru/performance/90576/</t>
+          <t>Размышления об идеальном человеке</t>
+        </is>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>https://www.afisha.ru/performance/233405/</t>
         </is>
       </c>
     </row>
@@ -1169,40 +1254,45 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Сон об осени</t>
+          <t>Когда я снова стану маленьким</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Завтра в 19:00</t>
+          <t>8 апреля</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Драматический</t>
-        </is>
-      </c>
-      <c r="E18" t="n">
-        <v>7.2</v>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>От 300 ₽</t>
-        </is>
+          <t>19:00</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>Кукольный спектакль</t>
+        </is>
+      </c>
+      <c r="F18" t="n">
+        <v>8.300000000000001</v>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>Театр им. Ленсовета</t>
+          <t>От 2000 ₽</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>Современная норвежская пьеса про жизнь как ожидание чуда</t>
+          <t>БДТ</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>https://www.afisha.ru/performance/115932/</t>
+          <t>Энциклопедия подростковых грез и слез, упакованная в 15 чемоданов</t>
+        </is>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>https://www.afisha.ru/performance/97786/</t>
         </is>
       </c>
     </row>
@@ -1212,40 +1302,45 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Безымянная звезда</t>
+          <t>Что делать</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>20 марта в 19:00</t>
+          <t>29 марта</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Драматический</t>
-        </is>
-      </c>
-      <c r="E19" t="n">
-        <v>8.199999999999999</v>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>От 300 ₽</t>
-        </is>
+          <t>19:00</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>Драма</t>
+        </is>
+      </c>
+      <c r="F19" t="n">
+        <v>6.2</v>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Театр им. Комиссаржевской</t>
+          <t>От 500 ₽</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>Первая любовь гения как неисчерпаемый источник поэзии</t>
+          <t>БДТ</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>https://www.afisha.ru/performance/67513/</t>
+          <t>Разговорная антиутопия Андрея Могучего по Чернышевскому</t>
+        </is>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>https://www.afisha.ru/performance/101454/</t>
         </is>
       </c>
     </row>
@@ -1260,33 +1355,38 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>9 апреля в 19:00</t>
+          <t>9 апреля</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Драматический</t>
-        </is>
-      </c>
-      <c r="E20" t="n">
+          <t>19:00</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>Драма</t>
+        </is>
+      </c>
+      <c r="F20" t="n">
         <v>8.6</v>
       </c>
-      <c r="F20" t="inlineStr">
+      <c r="G20" t="inlineStr">
         <is>
           <t>От 500 ₽</t>
         </is>
       </c>
-      <c r="G20" t="inlineStr">
+      <c r="H20" t="inlineStr">
         <is>
           <t>БДТ</t>
         </is>
       </c>
-      <c r="H20" t="inlineStr">
+      <c r="I20" t="inlineStr">
         <is>
           <t>Зрелищный спектакль Андрея Могучего про механику тоталитаризма</t>
         </is>
       </c>
-      <c r="I20" t="inlineStr">
+      <c r="J20" t="inlineStr">
         <is>
           <t>https://www.afisha.ru/performance/190192/</t>
         </is>
@@ -1298,40 +1398,45 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Что делать</t>
+          <t>Дон Жуан</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>29 марта в 19:00</t>
+          <t>17 апреля</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Драматический</t>
-        </is>
-      </c>
-      <c r="E21" t="n">
-        <v>6.2</v>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>От 500 ₽</t>
-        </is>
+          <t>19:00</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>Драма</t>
+        </is>
+      </c>
+      <c r="F21" t="n">
+        <v>6.9</v>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>БДТ</t>
+          <t>От 300 ₽</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>Разговорная антиутопия Андрея Могучего по Чернышевскому</t>
+          <t>Театр им. Комиссаржевской</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>https://www.afisha.ru/performance/101454/</t>
+          <t>История про «эпикурейскую свинью», которой, однако, есть, что сказать и донне Анне и Создателю</t>
+        </is>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>https://www.afisha.ru/performance/67156/</t>
         </is>
       </c>
     </row>
@@ -1346,33 +1451,38 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>20 марта в 14:00</t>
+          <t>Сегодня</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Драматический</t>
-        </is>
-      </c>
-      <c r="E22" t="n">
+          <t>14:00</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>Драма</t>
+        </is>
+      </c>
+      <c r="F22" t="n">
         <v>8.5</v>
       </c>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>От 2500 ₽</t>
-        </is>
-      </c>
       <c r="G22" t="inlineStr">
         <is>
+          <t>От 1000 ₽</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
           <t>Мастерская</t>
         </is>
       </c>
-      <c r="H22" t="inlineStr">
+      <c r="I22" t="inlineStr">
         <is>
           <t>Восьмичасовой спектакль о казаках</t>
         </is>
       </c>
-      <c r="I22" t="inlineStr">
+      <c r="J22" t="inlineStr">
         <is>
           <t>https://www.afisha.ru/performance/94169/</t>
         </is>
@@ -1389,33 +1499,38 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>18 марта в 19:00</t>
+          <t>30 апреля</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Драматический</t>
-        </is>
-      </c>
-      <c r="E23" t="n">
+          <t>19:00</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>Драма</t>
+        </is>
+      </c>
+      <c r="F23" t="n">
         <v>7.7</v>
       </c>
-      <c r="F23" t="inlineStr">
-        <is>
-          <t>От 1900 ₽</t>
-        </is>
-      </c>
       <c r="G23" t="inlineStr">
         <is>
+          <t>От 700 ₽</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
           <t>Мастерская</t>
         </is>
       </c>
-      <c r="H23" t="inlineStr">
+      <c r="I23" t="inlineStr">
         <is>
           <t>Обаятельный иллюстративный спектакль по пьесе Вампилова</t>
         </is>
       </c>
-      <c r="I23" t="inlineStr">
+      <c r="J23" t="inlineStr">
         <is>
           <t>https://www.afisha.ru/performance/83020/</t>
         </is>
@@ -1427,81 +1542,43 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Дон Жуан</t>
+          <t>Трамвай «Желание»</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>19 марта в 19:00</t>
+          <t>7 апреля</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Драматический</t>
-        </is>
-      </c>
-      <c r="E24" t="n">
-        <v>6.9</v>
-      </c>
-      <c r="F24" t="inlineStr">
-        <is>
-          <t>От 300 ₽</t>
-        </is>
+          <t>19:00</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>Драма</t>
+        </is>
+      </c>
+      <c r="F24" t="n">
+        <v>7.3</v>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>Театр им. Комиссаржевской</t>
+          <t>От 1000 ₽</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>История про «эпикурейскую свинью», которой, однако, есть, что сказать и донне Анне и Создателю</t>
+          <t>Приют комедианта</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>https://www.afisha.ru/performance/67156/</t>
-        </is>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="1" t="n">
-        <v>23</v>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>Трамвай «Желание»</t>
-        </is>
-      </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>7 апреля в 19:00</t>
-        </is>
-      </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>Драматический</t>
-        </is>
-      </c>
-      <c r="E25" t="n">
-        <v>7.3</v>
-      </c>
-      <c r="F25" t="inlineStr">
-        <is>
-          <t>От 1000 ₽</t>
-        </is>
-      </c>
-      <c r="G25" t="inlineStr">
-        <is>
-          <t>Приют комедианта</t>
-        </is>
-      </c>
-      <c r="H25" t="inlineStr">
-        <is>
           <t>Жестокая мелодрама с хорошими актерами</t>
         </is>
       </c>
-      <c r="I25" t="inlineStr">
+      <c r="J24" t="inlineStr">
         <is>
           <t>https://www.afisha.ru/performance/68360/</t>
         </is>

--- a/all_performance_dict.xlsx
+++ b/all_performance_dict.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J24"/>
+  <dimension ref="A1:K23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,47 +436,52 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Название спектакля:</t>
+          <t>Название спектакля</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Дата:</t>
+          <t>Дата</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Время:</t>
+          <t>Время</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Жанр:</t>
+          <t>Жанр</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>Рейтинг:</t>
+          <t>Возраст</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>Цена:</t>
+          <t>Рейтинг</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>Театр:</t>
+          <t>Цена</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>Описание:</t>
+          <t>Театр</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>URL спектакля:</t>
+          <t>Описание</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>URL спектакля</t>
         </is>
       </c>
     </row>
@@ -504,25 +509,30 @@
           <t>Драма</t>
         </is>
       </c>
-      <c r="F2" t="n">
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>16+</t>
+        </is>
+      </c>
+      <c r="G2" t="n">
         <v>7.4</v>
       </c>
-      <c r="G2" t="inlineStr">
+      <c r="H2" t="inlineStr">
         <is>
           <t>От 1000 ₽</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
+      <c r="I2" t="inlineStr">
         <is>
           <t>ДК им. Ленсовета</t>
         </is>
       </c>
-      <c r="I2" t="inlineStr">
+      <c r="J2" t="inlineStr">
         <is>
           <t>Виктор Сухоруков в трогательной комедии Вампилова</t>
         </is>
       </c>
-      <c r="J2" t="inlineStr">
+      <c r="K2" t="inlineStr">
         <is>
           <t>https://www.afisha.ru/performance/90900/</t>
         </is>
@@ -552,25 +562,30 @@
           <t>Перформанс</t>
         </is>
       </c>
-      <c r="F3" t="n">
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>18+</t>
+        </is>
+      </c>
+      <c r="G3" t="n">
         <v>7.8</v>
       </c>
-      <c r="G3" t="inlineStr">
+      <c r="H3" t="inlineStr">
         <is>
           <t>От 900 ₽</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
+      <c r="I3" t="inlineStr">
         <is>
           <t>Скороход</t>
         </is>
       </c>
-      <c r="I3" t="inlineStr">
+      <c r="J3" t="inlineStr">
         <is>
           <t>Щекотливый спектакль без актеров и декораций</t>
         </is>
       </c>
-      <c r="J3" t="inlineStr">
+      <c r="K3" t="inlineStr">
         <is>
           <t>https://www.afisha.ru/performance/118145/</t>
         </is>
@@ -587,7 +602,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>24 марта</t>
+          <t>21 апреля</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -600,25 +615,30 @@
           <t>Комедия</t>
         </is>
       </c>
-      <c r="F4" t="n">
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>16+</t>
+        </is>
+      </c>
+      <c r="G4" t="n">
         <v>7.1</v>
       </c>
-      <c r="G4" t="inlineStr">
+      <c r="H4" t="inlineStr">
         <is>
           <t>От 400 ₽</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
+      <c r="I4" t="inlineStr">
         <is>
           <t>Театр им. Ленсовета</t>
         </is>
       </c>
-      <c r="I4" t="inlineStr">
+      <c r="J4" t="inlineStr">
         <is>
           <t>Михаил Боярский в геронтофильской комедии в компании супруги</t>
         </is>
       </c>
-      <c r="J4" t="inlineStr">
+      <c r="K4" t="inlineStr">
         <is>
           <t>https://www.afisha.ru/performance/79983/</t>
         </is>
@@ -648,25 +668,30 @@
           <t>Премьеры</t>
         </is>
       </c>
-      <c r="F5" t="n">
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>18+</t>
+        </is>
+      </c>
+      <c r="G5" t="n">
         <v>6.3</v>
       </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>От 6500 ₽</t>
-        </is>
-      </c>
       <c r="H5" t="inlineStr">
         <is>
+          <t>От 9000 ₽</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
           <t>Александринский театр</t>
         </is>
       </c>
-      <c r="I5" t="inlineStr">
+      <c r="J5" t="inlineStr">
         <is>
           <t>Константин Хабенский в роли легендарного барона</t>
         </is>
       </c>
-      <c r="J5" t="inlineStr">
+      <c r="K5" t="inlineStr">
         <is>
           <t>https://www.afisha.ru/performance/245895/</t>
         </is>
@@ -678,12 +703,12 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Иисус Христос — суперзвезда</t>
+          <t>Валентинов день</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>24 апреля</t>
+          <t>3 апреля</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -693,30 +718,35 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Музыкальный</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>От 1000 ₽</t>
-        </is>
+          <t>Драма</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>12+</t>
+        </is>
+      </c>
+      <c r="G6" t="n">
+        <v>7.4</v>
       </c>
       <c r="H6" t="inlineStr">
         <is>
+          <t>От 700 ₽</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
           <t>ДК им. Ленсовета</t>
         </is>
       </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>Постановка питерского театра «Рок-опера»</t>
-        </is>
-      </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>https://www.afisha.ru/performance/66149/</t>
+          <t>Иван Вырыпаев в антрепризе</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>https://www.afisha.ru/performance/88299/</t>
         </is>
       </c>
     </row>
@@ -726,12 +756,12 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Валентинов день</t>
+          <t>Иисус Христос — суперзвезда</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>3 апреля</t>
+          <t>24 апреля</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -741,30 +771,35 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Драма</t>
-        </is>
-      </c>
-      <c r="F7" t="n">
-        <v>7.4</v>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>От 700 ₽</t>
-        </is>
+          <t>Музыкальный</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>12+</t>
+        </is>
+      </c>
+      <c r="G7" t="n">
+        <v>8.5</v>
       </c>
       <c r="H7" t="inlineStr">
         <is>
+          <t>От 1000 ₽</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
           <t>ДК им. Ленсовета</t>
         </is>
       </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>Иван Вырыпаев в антрепризе</t>
-        </is>
-      </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>https://www.afisha.ru/performance/88299/</t>
+          <t>Постановка питерского театра «Рок-опера»</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>https://www.afisha.ru/performance/66149/</t>
         </is>
       </c>
     </row>
@@ -774,12 +809,12 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Город. Женитьба. Гоголь</t>
+          <t>Записки юного врача</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>29 апреля</t>
+          <t>2 апреля</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -792,27 +827,32 @@
           <t>Драма</t>
         </is>
       </c>
-      <c r="F8" t="n">
-        <v>8.199999999999999</v>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>От 600 ₽</t>
-        </is>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>16+</t>
+        </is>
+      </c>
+      <c r="G8" t="n">
+        <v>7.7</v>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>Театр им. Ленсовета</t>
+          <t>От 1200 ₽</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>Герои Гоголя растворяются в современном Петербурге</t>
+          <t>Мастерская</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>https://www.afisha.ru/performance/103390/</t>
+          <t>Моноспектакль по ранним рассказам Булгакова</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>https://www.afisha.ru/performance/117716/</t>
         </is>
       </c>
     </row>
@@ -822,45 +862,50 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Ревизор</t>
+          <t>Топливо</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>27 марта</t>
+          <t>31 марта</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>19:00</t>
+          <t>20:00</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Комедия</t>
-        </is>
-      </c>
-      <c r="F9" t="n">
-        <v>8.1</v>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>От 400 ₽</t>
-        </is>
+          <t>Драма</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>12+</t>
+        </is>
+      </c>
+      <c r="G9" t="n">
+        <v>8.4</v>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>Театр им. Ленсовета</t>
+          <t>От 1000 ₽</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>Презабавный утренник по пьесе Гоголя, который отчего-то играют вечером</t>
+          <t>Скороход</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>https://www.afisha.ru/performance/78711/</t>
+          <t>Увлекательный байопик про российского физика</t>
+        </is>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>https://www.afisha.ru/performance/104731/</t>
         </is>
       </c>
     </row>
@@ -870,12 +915,12 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Все мы прекрасные люди</t>
+          <t>Гроза</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>19 апреля</t>
+          <t>28 апреля</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -885,30 +930,35 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Комедия</t>
-        </is>
-      </c>
-      <c r="F10" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>От 400 ₽</t>
-        </is>
+          <t>Драма</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>16+</t>
+        </is>
+      </c>
+      <c r="G10" t="n">
+        <v>8</v>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>Театр им. Ленсовета</t>
+          <t>От 300 ₽</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>Внезапная страсть героини Анны Ковальчук сокрушает ее саму и все вокруг</t>
+          <t>БДТ</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>https://www.afisha.ru/performance/96366/</t>
+          <t>Большое шаманство Андрея Могучего по Островскому</t>
+        </is>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>https://www.afisha.ru/performance/117877/</t>
         </is>
       </c>
     </row>
@@ -918,45 +968,50 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Гроза</t>
+          <t>Ревизор</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Сегодня</t>
+          <t>26 июня</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>18:00</t>
+          <t>12:00</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Драма</t>
-        </is>
-      </c>
-      <c r="F11" t="n">
-        <v>8</v>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>От 300 ₽</t>
-        </is>
+          <t>Комедия</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>12+</t>
+        </is>
+      </c>
+      <c r="G11" t="n">
+        <v>8.1</v>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>БДТ</t>
+          <t>От 400 ₽</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>Большое шаманство Андрея Могучего по Островскому</t>
+          <t>Театр им. Ленсовета</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>https://www.afisha.ru/performance/117877/</t>
+          <t>Презабавный утренник по пьесе Гоголя, который отчего-то играют вечером</t>
+        </is>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>https://www.afisha.ru/performance/78711/</t>
         </is>
       </c>
     </row>
@@ -966,45 +1021,50 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Топливо</t>
+          <t>С Чарльзом Буковски за барной стойкой</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>31 марта</t>
+          <t>Сегодня</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>20:00</t>
+          <t>19:00</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Драма</t>
-        </is>
-      </c>
-      <c r="F12" t="n">
-        <v>8.4</v>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>От 1000 ₽</t>
-        </is>
+          <t>Перформанс</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>18+</t>
+        </is>
+      </c>
+      <c r="G12" t="n">
+        <v>5.2</v>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>Скороход</t>
+          <t>От 900 ₽</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>Увлекательный байопик про российского физика</t>
+          <t>Fiddler's Green</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>https://www.afisha.ru/performance/104731/</t>
+          <t>Спектакль для одного зрителя в наушниках за барной стойкой</t>
+        </is>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>https://www.afisha.ru/performance/191308/</t>
         </is>
       </c>
     </row>
@@ -1014,12 +1074,12 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Записки юного врача</t>
+          <t>Безымянная звезда</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>2 апреля</t>
+          <t>7 апреля</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -1032,27 +1092,32 @@
           <t>Драма</t>
         </is>
       </c>
-      <c r="F13" t="n">
-        <v>7.7</v>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>От 700 ₽</t>
-        </is>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>14+</t>
+        </is>
+      </c>
+      <c r="G13" t="n">
+        <v>8.199999999999999</v>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>Мастерская</t>
+          <t>От 300 ₽</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>Моноспектакль по ранним рассказам Булгакова</t>
+          <t>Театр им. Комиссаржевской</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>https://www.afisha.ru/performance/117716/</t>
+          <t>Первая любовь гения как неисчерпаемый источник поэзии</t>
+        </is>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>https://www.afisha.ru/performance/67513/</t>
         </is>
       </c>
     </row>
@@ -1062,12 +1127,12 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>С Чарльзом Буковски за барной стойкой</t>
+          <t>Город. Женитьба. Гоголь</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Сегодня</t>
+          <t>29 апреля</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -1077,30 +1142,35 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Перформанс</t>
-        </is>
-      </c>
-      <c r="F14" t="n">
-        <v>5.2</v>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>От 900 ₽</t>
-        </is>
+          <t>Драма</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>12+</t>
+        </is>
+      </c>
+      <c r="G14" t="n">
+        <v>8.199999999999999</v>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>Fiddler's Green</t>
+          <t>От 600 ₽</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>Спектакль для одного зрителя в наушниках за барной стойкой</t>
+          <t>Театр им. Ленсовета</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>https://www.afisha.ru/performance/191308/</t>
+          <t>Герои Гоголя растворяются в современном Петербурге</t>
+        </is>
+      </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>https://www.afisha.ru/performance/103390/</t>
         </is>
       </c>
     </row>
@@ -1110,12 +1180,12 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Преступление и наказание</t>
+          <t>Лето одного года</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>24 марта</t>
+          <t>8 апреля</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -1128,27 +1198,32 @@
           <t>Драма</t>
         </is>
       </c>
-      <c r="F15" t="n">
-        <v>8.699999999999999</v>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>От 1000 ₽</t>
-        </is>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>12+</t>
+        </is>
+      </c>
+      <c r="G15" t="n">
+        <v>8.9</v>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>Небольшой драматический театр</t>
+          <t>От 4000 ₽</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>Витальное прочтение студентами Льва Эренбурга одного из самых идейных текстов Достоевского</t>
+          <t>БДТ</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>https://www.afisha.ru/performance/90576/</t>
+          <t>Алиса Фрейндлих и Олег Басилашвили с блеском и мужеством играют трагикомедию о старости и об уходе вообще</t>
+        </is>
+      </c>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>https://www.afisha.ru/performance/82546/</t>
         </is>
       </c>
     </row>
@@ -1158,12 +1233,12 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Безымянная звезда</t>
+          <t>Дети солнца</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Сегодня</t>
+          <t>23 апреля</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -1176,27 +1251,32 @@
           <t>Драма</t>
         </is>
       </c>
-      <c r="F16" t="n">
-        <v>8.199999999999999</v>
-      </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>От 300 ₽</t>
-        </is>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>16+</t>
+        </is>
+      </c>
+      <c r="G16" t="n">
+        <v>5</v>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>Театр им. Комиссаржевской</t>
+          <t>От 4000 ₽</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>Первая любовь гения как неисчерпаемый источник поэзии</t>
+          <t>Александринский театр</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>https://www.afisha.ru/performance/67513/</t>
+          <t>Размышления об идеальном человеке</t>
+        </is>
+      </c>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>https://www.afisha.ru/performance/233405/</t>
         </is>
       </c>
     </row>
@@ -1206,12 +1286,12 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Дети солнца</t>
+          <t>Преступление и наказание</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>23 апреля</t>
+          <t>29 апреля</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -1224,27 +1304,32 @@
           <t>Драма</t>
         </is>
       </c>
-      <c r="F17" t="n">
-        <v>6.6</v>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>От 300 ₽</t>
-        </is>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>16+</t>
+        </is>
+      </c>
+      <c r="G17" t="n">
+        <v>8.699999999999999</v>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>Александринский театр</t>
+          <t>От 1000 ₽</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>Размышления об идеальном человеке</t>
+          <t>Небольшой драматический театр</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>https://www.afisha.ru/performance/233405/</t>
+          <t>Витальное прочтение студентами Льва Эренбурга одного из самых идейных текстов Достоевского</t>
+        </is>
+      </c>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>https://www.afisha.ru/performance/90576/</t>
         </is>
       </c>
     </row>
@@ -1259,12 +1344,12 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>8 апреля</t>
+          <t>24 апреля</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>19:00</t>
+          <t>13:00</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
@@ -1272,25 +1357,30 @@
           <t>Кукольный спектакль</t>
         </is>
       </c>
-      <c r="F18" t="n">
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>6+</t>
+        </is>
+      </c>
+      <c r="G18" t="n">
         <v>8.300000000000001</v>
       </c>
-      <c r="G18" t="inlineStr">
-        <is>
-          <t>От 2000 ₽</t>
-        </is>
-      </c>
       <c r="H18" t="inlineStr">
         <is>
+          <t>Билеты</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
           <t>БДТ</t>
         </is>
       </c>
-      <c r="I18" t="inlineStr">
+      <c r="J18" t="inlineStr">
         <is>
           <t>Энциклопедия подростковых грез и слез, упакованная в 15 чемоданов</t>
         </is>
       </c>
-      <c r="J18" t="inlineStr">
+      <c r="K18" t="inlineStr">
         <is>
           <t>https://www.afisha.ru/performance/97786/</t>
         </is>
@@ -1320,25 +1410,30 @@
           <t>Драма</t>
         </is>
       </c>
-      <c r="F19" t="n">
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>16+</t>
+        </is>
+      </c>
+      <c r="G19" t="n">
         <v>6.2</v>
       </c>
-      <c r="G19" t="inlineStr">
+      <c r="H19" t="inlineStr">
         <is>
           <t>От 500 ₽</t>
         </is>
       </c>
-      <c r="H19" t="inlineStr">
+      <c r="I19" t="inlineStr">
         <is>
           <t>БДТ</t>
         </is>
       </c>
-      <c r="I19" t="inlineStr">
+      <c r="J19" t="inlineStr">
         <is>
           <t>Разговорная антиутопия Андрея Могучего по Чернышевскому</t>
         </is>
       </c>
-      <c r="J19" t="inlineStr">
+      <c r="K19" t="inlineStr">
         <is>
           <t>https://www.afisha.ru/performance/101454/</t>
         </is>
@@ -1350,12 +1445,12 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Губернатор</t>
+          <t>Все мы прекрасные люди</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>9 апреля</t>
+          <t>19 апреля</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -1365,30 +1460,35 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Драма</t>
-        </is>
-      </c>
-      <c r="F20" t="n">
-        <v>8.6</v>
-      </c>
-      <c r="G20" t="inlineStr">
-        <is>
-          <t>От 500 ₽</t>
-        </is>
+          <t>Комедия</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>16+</t>
+        </is>
+      </c>
+      <c r="G20" t="n">
+        <v>4.5</v>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>БДТ</t>
+          <t>От 600 ₽</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>Зрелищный спектакль Андрея Могучего про механику тоталитаризма</t>
+          <t>Театр им. Ленсовета</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>https://www.afisha.ru/performance/190192/</t>
+          <t>Внезапная страсть героини Анны Ковальчук сокрушает ее саму и все вокруг</t>
+        </is>
+      </c>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>https://www.afisha.ru/performance/96366/</t>
         </is>
       </c>
     </row>
@@ -1398,12 +1498,12 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Дон Жуан</t>
+          <t>Губернатор</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>17 апреля</t>
+          <t>9 апреля</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -1416,27 +1516,32 @@
           <t>Драма</t>
         </is>
       </c>
-      <c r="F21" t="n">
-        <v>6.9</v>
-      </c>
-      <c r="G21" t="inlineStr">
-        <is>
-          <t>От 300 ₽</t>
-        </is>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>18+</t>
+        </is>
+      </c>
+      <c r="G21" t="n">
+        <v>8.6</v>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>Театр им. Комиссаржевской</t>
+          <t>От 500 ₽</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>История про «эпикурейскую свинью», которой, однако, есть, что сказать и донне Анне и Создателю</t>
+          <t>БДТ</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>https://www.afisha.ru/performance/67156/</t>
+          <t>Зрелищный спектакль Андрея Могучего про механику тоталитаризма</t>
+        </is>
+      </c>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>https://www.afisha.ru/performance/190192/</t>
         </is>
       </c>
     </row>
@@ -1446,17 +1551,17 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Тихий Дон. Истоки. Берега</t>
+          <t>Билли Миллиган</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Сегодня</t>
+          <t>18 апреля</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>14:00</t>
+          <t>19:00</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
@@ -1464,27 +1569,32 @@
           <t>Драма</t>
         </is>
       </c>
-      <c r="F22" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="G22" t="inlineStr">
-        <is>
-          <t>От 1000 ₽</t>
-        </is>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>18+</t>
+        </is>
+      </c>
+      <c r="G22" t="n">
+        <v>5.2</v>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>Мастерская</t>
+          <t>От 1200 ₽</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>Восьмичасовой спектакль о казаках</t>
+          <t>Скороход</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>https://www.afisha.ru/performance/94169/</t>
+          <t>Триллер про самого известного психа в истории</t>
+        </is>
+      </c>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>https://www.afisha.ru/performance/118241/</t>
         </is>
       </c>
     </row>
@@ -1494,12 +1604,12 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Старший сын</t>
+          <t>Трамвай «Желание»</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>30 апреля</t>
+          <t>7 апреля</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -1512,73 +1622,30 @@
           <t>Драма</t>
         </is>
       </c>
-      <c r="F23" t="n">
-        <v>7.7</v>
-      </c>
-      <c r="G23" t="inlineStr">
-        <is>
-          <t>От 700 ₽</t>
-        </is>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>16+</t>
+        </is>
+      </c>
+      <c r="G23" t="n">
+        <v>7.3</v>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>Мастерская</t>
+          <t>От 1000 ₽</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>Обаятельный иллюстративный спектакль по пьесе Вампилова</t>
+          <t>Приют комедианта</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>https://www.afisha.ru/performance/83020/</t>
-        </is>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="1" t="n">
-        <v>22</v>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>Трамвай «Желание»</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>7 апреля</t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>19:00</t>
-        </is>
-      </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>Драма</t>
-        </is>
-      </c>
-      <c r="F24" t="n">
-        <v>7.3</v>
-      </c>
-      <c r="G24" t="inlineStr">
-        <is>
-          <t>От 1000 ₽</t>
-        </is>
-      </c>
-      <c r="H24" t="inlineStr">
-        <is>
-          <t>Приют комедианта</t>
-        </is>
-      </c>
-      <c r="I24" t="inlineStr">
-        <is>
           <t>Жестокая мелодрама с хорошими актерами</t>
         </is>
       </c>
-      <c r="J24" t="inlineStr">
+      <c r="K23" t="inlineStr">
         <is>
           <t>https://www.afisha.ru/performance/68360/</t>
         </is>

--- a/all_performance_dict.xlsx
+++ b/all_performance_dict.xlsx
@@ -621,7 +621,7 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>7.1</v>
+        <v>7.2</v>
       </c>
       <c r="H4" t="inlineStr">
         <is>
@@ -678,7 +678,7 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>От 9000 ₽</t>
+          <t>От 400 ₽</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
@@ -862,22 +862,22 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Топливо</t>
+          <t>Ревизор</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>31 марта</t>
+          <t>26 июня</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>20:00</t>
+          <t>12:00</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Драма</t>
+          <t>Комедия</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
@@ -886,26 +886,26 @@
         </is>
       </c>
       <c r="G9" t="n">
-        <v>8.4</v>
+        <v>8.1</v>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>От 1000 ₽</t>
+          <t>От 400 ₽</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>Скороход</t>
+          <t>Театр им. Ленсовета</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>Увлекательный байопик про российского физика</t>
+          <t>Презабавный утренник по пьесе Гоголя, который отчего-то играют вечером</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>https://www.afisha.ru/performance/104731/</t>
+          <t>https://www.afisha.ru/performance/78711/</t>
         </is>
       </c>
     </row>
@@ -915,12 +915,12 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Гроза</t>
+          <t>Лето одного года</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>28 апреля</t>
+          <t>8 апреля</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -935,15 +935,15 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>16+</t>
+          <t>12+</t>
         </is>
       </c>
       <c r="G10" t="n">
-        <v>8</v>
+        <v>8.9</v>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>От 300 ₽</t>
+          <t>От 4000 ₽</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
@@ -953,12 +953,12 @@
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>Большое шаманство Андрея Могучего по Островскому</t>
+          <t>Алиса Фрейндлих и Олег Басилашвили с блеском и мужеством играют трагикомедию о старости и об уходе вообще</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>https://www.afisha.ru/performance/117877/</t>
+          <t>https://www.afisha.ru/performance/82546/</t>
         </is>
       </c>
     </row>
@@ -968,22 +968,22 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Ревизор</t>
+          <t>Топливо</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>26 июня</t>
+          <t>31 марта</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>12:00</t>
+          <t>20:00</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Комедия</t>
+          <t>Драма</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
@@ -992,26 +992,26 @@
         </is>
       </c>
       <c r="G11" t="n">
-        <v>8.1</v>
+        <v>8.4</v>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>От 400 ₽</t>
+          <t>От 1000 ₽</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>Театр им. Ленсовета</t>
+          <t>Скороход</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>Презабавный утренник по пьесе Гоголя, который отчего-то играют вечером</t>
+          <t>Увлекательный байопик про российского физика</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>https://www.afisha.ru/performance/78711/</t>
+          <t>https://www.afisha.ru/performance/104731/</t>
         </is>
       </c>
     </row>
@@ -1021,12 +1021,12 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>С Чарльзом Буковски за барной стойкой</t>
+          <t>Гроза</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Сегодня</t>
+          <t>28 апреля</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -1036,35 +1036,35 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Перформанс</t>
+          <t>Драма</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>18+</t>
+          <t>16+</t>
         </is>
       </c>
       <c r="G12" t="n">
-        <v>5.2</v>
+        <v>8</v>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>От 900 ₽</t>
+          <t>От 300 ₽</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>Fiddler's Green</t>
+          <t>БДТ</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>Спектакль для одного зрителя в наушниках за барной стойкой</t>
+          <t>Большое шаманство Андрея Могучего по Островскому</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>https://www.afisha.ru/performance/191308/</t>
+          <t>https://www.afisha.ru/performance/117877/</t>
         </is>
       </c>
     </row>
@@ -1074,12 +1074,12 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Безымянная звезда</t>
+          <t>С Чарльзом Буковски за барной стойкой</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>7 апреля</t>
+          <t>Сегодня</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -1089,35 +1089,35 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Драма</t>
+          <t>Перформанс</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>14+</t>
+          <t>18+</t>
         </is>
       </c>
       <c r="G13" t="n">
-        <v>8.199999999999999</v>
+        <v>5.2</v>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>От 300 ₽</t>
+          <t>От 900 ₽</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>Театр им. Комиссаржевской</t>
+          <t>Fiddler's Green</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>Первая любовь гения как неисчерпаемый источник поэзии</t>
+          <t>Спектакль для одного зрителя в наушниках за барной стойкой</t>
         </is>
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>https://www.afisha.ru/performance/67513/</t>
+          <t>https://www.afisha.ru/performance/191308/</t>
         </is>
       </c>
     </row>
@@ -1127,12 +1127,12 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Город. Женитьба. Гоголь</t>
+          <t>Безымянная звезда</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>29 апреля</t>
+          <t>7 апреля</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -1147,7 +1147,7 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>12+</t>
+          <t>14+</t>
         </is>
       </c>
       <c r="G14" t="n">
@@ -1155,22 +1155,22 @@
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>От 600 ₽</t>
+          <t>От 300 ₽</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>Театр им. Ленсовета</t>
+          <t>Театр им. Комиссаржевской</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>Герои Гоголя растворяются в современном Петербурге</t>
+          <t>Первая любовь гения как неисчерпаемый источник поэзии</t>
         </is>
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>https://www.afisha.ru/performance/103390/</t>
+          <t>https://www.afisha.ru/performance/67513/</t>
         </is>
       </c>
     </row>
@@ -1180,12 +1180,12 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Лето одного года</t>
+          <t>Дети солнца</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>8 апреля</t>
+          <t>23 апреля</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -1200,30 +1200,30 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>12+</t>
+          <t>16+</t>
         </is>
       </c>
       <c r="G15" t="n">
-        <v>8.9</v>
+        <v>5</v>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>От 4000 ₽</t>
+          <t>От 300 ₽</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>БДТ</t>
+          <t>Александринский театр</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>Алиса Фрейндлих и Олег Басилашвили с блеском и мужеством играют трагикомедию о старости и об уходе вообще</t>
+          <t>Размышления об идеальном человеке</t>
         </is>
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>https://www.afisha.ru/performance/82546/</t>
+          <t>https://www.afisha.ru/performance/233405/</t>
         </is>
       </c>
     </row>
@@ -1233,12 +1233,12 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Дети солнца</t>
+          <t>Что делать</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>23 апреля</t>
+          <t>29 марта</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -1257,26 +1257,26 @@
         </is>
       </c>
       <c r="G16" t="n">
-        <v>5</v>
+        <v>6.2</v>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>От 4000 ₽</t>
+          <t>От 500 ₽</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>Александринский театр</t>
+          <t>БДТ</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>Размышления об идеальном человеке</t>
+          <t>Разговорная антиутопия Андрея Могучего по Чернышевскому</t>
         </is>
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>https://www.afisha.ru/performance/233405/</t>
+          <t>https://www.afisha.ru/performance/101454/</t>
         </is>
       </c>
     </row>
@@ -1339,50 +1339,50 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Когда я снова стану маленьким</t>
+          <t>Город. Женитьба. Гоголь</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>24 апреля</t>
+          <t>29 апреля</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>13:00</t>
+          <t>19:00</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Кукольный спектакль</t>
+          <t>Драма</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>6+</t>
+          <t>12+</t>
         </is>
       </c>
       <c r="G18" t="n">
-        <v>8.300000000000001</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>Билеты</t>
+          <t>От 600 ₽</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>БДТ</t>
+          <t>Театр им. Ленсовета</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>Энциклопедия подростковых грез и слез, упакованная в 15 чемоданов</t>
+          <t>Герои Гоголя растворяются в современном Петербурге</t>
         </is>
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>https://www.afisha.ru/performance/97786/</t>
+          <t>https://www.afisha.ru/performance/103390/</t>
         </is>
       </c>
     </row>
@@ -1392,35 +1392,35 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Что делать</t>
+          <t>Когда я снова стану маленьким</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>29 марта</t>
+          <t>24 апреля</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>19:00</t>
+          <t>13:00</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Драма</t>
+          <t>Кукольный спектакль</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>16+</t>
+          <t>6+</t>
         </is>
       </c>
       <c r="G19" t="n">
-        <v>6.2</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>От 500 ₽</t>
+          <t>Билеты</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
@@ -1430,12 +1430,12 @@
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>Разговорная антиутопия Андрея Могучего по Чернышевскому</t>
+          <t>Энциклопедия подростковых грез и слез, упакованная в 15 чемоданов</t>
         </is>
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>https://www.afisha.ru/performance/101454/</t>
+          <t>https://www.afisha.ru/performance/97786/</t>
         </is>
       </c>
     </row>
@@ -1445,12 +1445,12 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Все мы прекрасные люди</t>
+          <t>Губернатор</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>19 апреля</t>
+          <t>9 апреля</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -1460,35 +1460,35 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Комедия</t>
+          <t>Драма</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>16+</t>
+          <t>18+</t>
         </is>
       </c>
       <c r="G20" t="n">
-        <v>4.5</v>
+        <v>8.6</v>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>От 600 ₽</t>
+          <t>От 500 ₽</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>Театр им. Ленсовета</t>
+          <t>БДТ</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>Внезапная страсть героини Анны Ковальчук сокрушает ее саму и все вокруг</t>
+          <t>Зрелищный спектакль Андрея Могучего про механику тоталитаризма</t>
         </is>
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>https://www.afisha.ru/performance/96366/</t>
+          <t>https://www.afisha.ru/performance/190192/</t>
         </is>
       </c>
     </row>
@@ -1498,12 +1498,12 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Губернатор</t>
+          <t>Все мы прекрасные люди</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>9 апреля</t>
+          <t>19 апреля</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -1513,35 +1513,35 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Драма</t>
+          <t>Комедия</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>18+</t>
+          <t>16+</t>
         </is>
       </c>
       <c r="G21" t="n">
-        <v>8.6</v>
+        <v>4.5</v>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>От 500 ₽</t>
+          <t>От 600 ₽</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>БДТ</t>
+          <t>Театр им. Ленсовета</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>Зрелищный спектакль Андрея Могучего про механику тоталитаризма</t>
+          <t>Внезапная страсть героини Анны Ковальчук сокрушает ее саму и все вокруг</t>
         </is>
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>https://www.afisha.ru/performance/190192/</t>
+          <t>https://www.afisha.ru/performance/96366/</t>
         </is>
       </c>
     </row>
@@ -1604,12 +1604,12 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Трамвай «Желание»</t>
+          <t>Подыскиваю жену, недорого!</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>7 апреля</t>
+          <t>16 апреля</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -1619,7 +1619,7 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>Драма</t>
+          <t>Комедия</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
@@ -1628,26 +1628,26 @@
         </is>
       </c>
       <c r="G23" t="n">
-        <v>7.3</v>
+        <v>5.8</v>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>От 1000 ₽</t>
+          <t>От 1200 ₽</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>Приют комедианта</t>
+          <t>ДК им. Ленсовета</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>Жестокая мелодрама с хорошими актерами</t>
+          <t>Антрепризный спектакль о превратностях любви</t>
         </is>
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>https://www.afisha.ru/performance/68360/</t>
+          <t>https://www.afisha.ru/performance/85589/</t>
         </is>
       </c>
     </row>

--- a/all_performance_dict.xlsx
+++ b/all_performance_dict.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K23"/>
+  <dimension ref="A1:M23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,52 +436,62 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Название спектакля</t>
+          <t>Название</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Дата</t>
+          <t>Описание</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Время</t>
+          <t>Цена от</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
+          <t>Время начала</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Дата словами</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
           <t>Жанр</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>Возраст</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>Рейтинг</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>Цена</t>
-        </is>
-      </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
+          <t>Ссылка</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
           <t>Театр</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>Описание</t>
-        </is>
-      </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>URL спектакля</t>
+          <t>Возрастное ограничение</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Адрес театра</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>Продолжительность</t>
         </is>
       </c>
     </row>
@@ -496,45 +506,51 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
+          <t>Виктор Сухоруков в трогательной комедии Вампилова</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>1000</v>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>19:00</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
           <t>1 апреля</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>19:00</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
+      <c r="G2" t="inlineStr">
         <is>
           <t>Драма</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="H2" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>https://www.afisha.ru/performance/90900/</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>ДК им. Ленсовета</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
         <is>
           <t>16+</t>
         </is>
       </c>
-      <c r="G2" t="n">
-        <v>7.4</v>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>От 1000 ₽</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>ДК им. Ленсовета</t>
-        </is>
-      </c>
-      <c r="J2" t="inlineStr">
-        <is>
-          <t>Виктор Сухоруков в трогательной комедии Вампилова</t>
-        </is>
-      </c>
-      <c r="K2" t="inlineStr">
-        <is>
-          <t>https://www.afisha.ru/performance/90900/</t>
+      <c r="L2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>2 часа 40 минут, 1 антракт</t>
         </is>
       </c>
     </row>
@@ -549,46 +565,50 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
+          <t>Щекотливый спектакль без актеров и декораций</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>900</v>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>18:00</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
           <t>10 апреля</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>18:00</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
+      <c r="G3" t="inlineStr">
         <is>
           <t>Перформанс</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="H3" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>https://www.afisha.ru/performance/118145/</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>Скороход</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr">
         <is>
           <t>18+</t>
         </is>
       </c>
-      <c r="G3" t="n">
-        <v>7.8</v>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>От 900 ₽</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>Скороход</t>
-        </is>
-      </c>
-      <c r="J3" t="inlineStr">
-        <is>
-          <t>Щекотливый спектакль без актеров и декораций</t>
-        </is>
-      </c>
-      <c r="K3" t="inlineStr">
-        <is>
-          <t>https://www.afisha.ru/performance/118145/</t>
-        </is>
+      <c r="L3" t="n">
+        <v>-1</v>
+      </c>
+      <c r="M3" t="n">
+        <v>-1</v>
       </c>
     </row>
     <row r="4">
@@ -597,50 +617,56 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Смешанные чувства</t>
+          <t>Враки, или Завещание барона Мюнхгаузена</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>21 апреля</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
+          <t>Константин Хабенский в роли легендарного барона</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>900</v>
+      </c>
+      <c r="E4" t="inlineStr">
         <is>
           <t>19:00</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>Комедия</t>
-        </is>
-      </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>16+</t>
-        </is>
-      </c>
-      <c r="G4" t="n">
-        <v>7.2</v>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>От 400 ₽</t>
-        </is>
+          <t>Завтра</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>Премьеры</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6.3</v>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>Театр им. Ленсовета</t>
+          <t>https://www.afisha.ru/performance/245895/</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>Михаил Боярский в геронтофильской комедии в компании супруги</t>
+          <t>Александринский театр</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>https://www.afisha.ru/performance/79983/</t>
+          <t>18+</t>
+        </is>
+      </c>
+      <c r="L4" t="n">
+        <v>-1</v>
+      </c>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>3 часа 30 минут, 1 антракт</t>
         </is>
       </c>
     </row>
@@ -650,50 +676,58 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Враки, или Завещание барона Мюнхгаузена</t>
+          <t>Смешанные чувства</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>25 марта</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
+          <t>Михаил Боярский в геронтофильской комедии в компании супруги</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>400</v>
+      </c>
+      <c r="E5" t="inlineStr">
         <is>
           <t>19:00</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>Премьеры</t>
-        </is>
-      </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>18+</t>
-        </is>
-      </c>
-      <c r="G5" t="n">
-        <v>6.3</v>
-      </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>От 400 ₽</t>
-        </is>
+          <t>21 апреля</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>Комедия</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>7.2</v>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>Александринский театр</t>
+          <t>https://www.afisha.ru/performance/79983/</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>Константин Хабенский в роли легендарного барона</t>
+          <t>Театр им. Ленсовета</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>https://www.afisha.ru/performance/245895/</t>
+          <t>16+</t>
+        </is>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>Владимирский просп., 12</t>
+        </is>
+      </c>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>2 часа 30 минут, 1 антракт</t>
         </is>
       </c>
     </row>
@@ -703,50 +737,56 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Валентинов день</t>
+          <t>Дети солнца</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>3 апреля</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
+          <t>Размышления об идеальном человеке</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>400</v>
+      </c>
+      <c r="E6" t="inlineStr">
         <is>
           <t>19:00</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>23 апреля</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
         <is>
           <t>Драма</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>12+</t>
-        </is>
-      </c>
-      <c r="G6" t="n">
-        <v>7.4</v>
-      </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>От 700 ₽</t>
-        </is>
+      <c r="H6" t="n">
+        <v>5</v>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>ДК им. Ленсовета</t>
+          <t>https://www.afisha.ru/performance/233405/</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>Иван Вырыпаев в антрепризе</t>
+          <t>Александринский театр</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>https://www.afisha.ru/performance/88299/</t>
+          <t>16+</t>
+        </is>
+      </c>
+      <c r="L6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>2 часа, без антракта</t>
         </is>
       </c>
     </row>
@@ -756,51 +796,55 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Иисус Христос — суперзвезда</t>
+          <t>Валентинов день</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>24 апреля</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
+          <t>Иван Вырыпаев в антрепризе</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>700</v>
+      </c>
+      <c r="E7" t="inlineStr">
         <is>
           <t>19:00</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>Музыкальный</t>
-        </is>
-      </c>
       <c r="F7" t="inlineStr">
         <is>
+          <t>3 апреля</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>Драма</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>https://www.afisha.ru/performance/88299/</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>ДК им. Ленсовета</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
           <t>12+</t>
         </is>
       </c>
-      <c r="G7" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>От 1000 ₽</t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>ДК им. Ленсовета</t>
-        </is>
-      </c>
-      <c r="J7" t="inlineStr">
-        <is>
-          <t>Постановка питерского театра «Рок-опера»</t>
-        </is>
-      </c>
-      <c r="K7" t="inlineStr">
-        <is>
-          <t>https://www.afisha.ru/performance/66149/</t>
-        </is>
+      <c r="L7" t="n">
+        <v>-1</v>
+      </c>
+      <c r="M7" t="n">
+        <v>-1</v>
       </c>
     </row>
     <row r="8">
@@ -809,51 +853,57 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Записки юного врача</t>
+          <t>Иисус Христос — суперзвезда</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>2 апреля</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
+          <t>Постановка питерского театра «Рок-о</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>1000</v>
+      </c>
+      <c r="E8" t="inlineStr">
         <is>
           <t>19:00</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>Драма</t>
-        </is>
-      </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>16+</t>
-        </is>
-      </c>
-      <c r="G8" t="n">
-        <v>7.7</v>
-      </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>От 1200 ₽</t>
-        </is>
+          <t>24 апреля</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>Музыкальный</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>8.5</v>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>Мастерская</t>
+          <t>https://www.afisha.ru/performance/66149/</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>Моноспектакль по ранним рассказам Булгакова</t>
+          <t>ДК им. Ленсовета</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>https://www.afisha.ru/performance/117716/</t>
-        </is>
+          <t>12+</t>
+        </is>
+      </c>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>Каменноостровский просп., 42</t>
+        </is>
+      </c>
+      <c r="M8" t="n">
+        <v>-1</v>
       </c>
     </row>
     <row r="9">
@@ -862,51 +912,57 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Ревизор</t>
+          <t>Записки юного врача</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>26 июня</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>12:00</t>
-        </is>
+          <t>Моноспектакль по ранним рассказам Булгакова</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>700</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Комедия</t>
+          <t>19:00</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>12+</t>
-        </is>
-      </c>
-      <c r="G9" t="n">
-        <v>8.1</v>
-      </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>От 400 ₽</t>
-        </is>
+          <t>2 апреля</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>Драма</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>7.7</v>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>Театр им. Ленсовета</t>
+          <t>https://www.afisha.ru/performance/117716/</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>Презабавный утренник по пьесе Гоголя, который отчего-то играют вечером</t>
+          <t>Мастерская</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>https://www.afisha.ru/performance/78711/</t>
-        </is>
+          <t>16+</t>
+        </is>
+      </c>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>Народная, 1</t>
+        </is>
+      </c>
+      <c r="M9" t="n">
+        <v>-1</v>
       </c>
     </row>
     <row r="10">
@@ -920,45 +976,53 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
+          <t>Алиса Фрейндлих и Олег Басилашвили с блеском и мужеством играют трагикомедию о старости и об уходе вообще</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>4000</v>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>19:00</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
           <t>8 апреля</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>19:00</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
+      <c r="G10" t="inlineStr">
         <is>
           <t>Драма</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
+      <c r="H10" t="n">
+        <v>8.9</v>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>https://www.afisha.ru/performance/82546/</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>БДТ</t>
+        </is>
+      </c>
+      <c r="K10" t="inlineStr">
         <is>
           <t>12+</t>
         </is>
       </c>
-      <c r="G10" t="n">
-        <v>8.9</v>
-      </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>От 4000 ₽</t>
-        </is>
-      </c>
-      <c r="I10" t="inlineStr">
-        <is>
-          <t>БДТ</t>
-        </is>
-      </c>
-      <c r="J10" t="inlineStr">
-        <is>
-          <t>Алиса Фрейндлих и Олег Басилашвили с блеском и мужеством играют трагикомедию о старости и об уходе вообще</t>
-        </is>
-      </c>
-      <c r="K10" t="inlineStr">
-        <is>
-          <t>https://www.afisha.ru/performance/82546/</t>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>наб. реки Фонтанки, 65</t>
+        </is>
+      </c>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>3 часа, 1 антракт</t>
         </is>
       </c>
     </row>
@@ -968,50 +1032,58 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Топливо</t>
+          <t>Все мы прекрасные люди</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>31 марта</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>20:00</t>
-        </is>
+          <t>Внезапная страсть героини Анны Ковальчук сокрушает ее саму и все вокруг</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>600</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Драма</t>
+          <t>19:00</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>12+</t>
-        </is>
-      </c>
-      <c r="G11" t="n">
-        <v>8.4</v>
-      </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>От 1000 ₽</t>
-        </is>
+          <t>19 апреля</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>Комедия</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>4.5</v>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>Скороход</t>
+          <t>https://www.afisha.ru/performance/96366/</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>Увлекательный байопик про российского физика</t>
+          <t>Театр им. Ленсовета</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>https://www.afisha.ru/performance/104731/</t>
+          <t>16+</t>
+        </is>
+      </c>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>Владимирский просп., 12</t>
+        </is>
+      </c>
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>3 часа 20 минут, 1 антракт</t>
         </is>
       </c>
     </row>
@@ -1021,50 +1093,58 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Гроза</t>
+          <t>Ревизор</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>28 апреля</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>19:00</t>
-        </is>
+          <t>Презабавный утренник по пьесе Гоголя, который отчего-то играют вечером</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>400</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Драма</t>
+          <t>12:00</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>16+</t>
-        </is>
-      </c>
-      <c r="G12" t="n">
-        <v>8</v>
-      </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>От 300 ₽</t>
-        </is>
+          <t>26 июня</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>Комедия</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>8.1</v>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>БДТ</t>
+          <t>https://www.afisha.ru/performance/78711/</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>Большое шаманство Андрея Могучего по Островскому</t>
+          <t>Театр им. Ленсовета</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>https://www.afisha.ru/performance/117877/</t>
+          <t>12+</t>
+        </is>
+      </c>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>Владимирский просп., 12</t>
+        </is>
+      </c>
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>3 часа 30 минут, 1 антракт</t>
         </is>
       </c>
     </row>
@@ -1074,50 +1154,58 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>С Чарльзом Буковски за барной стойкой</t>
+          <t>Трамвай «Желание»</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Сегодня</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
+          <t>Жестокая мелодрама с хорошими актерами</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>1000</v>
+      </c>
+      <c r="E13" t="inlineStr">
         <is>
           <t>19:00</t>
         </is>
       </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>Перформанс</t>
-        </is>
-      </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>18+</t>
-        </is>
-      </c>
-      <c r="G13" t="n">
-        <v>5.2</v>
-      </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>От 900 ₽</t>
-        </is>
+          <t>7 апреля</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>Драма</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>7.3</v>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>Fiddler's Green</t>
+          <t>https://www.afisha.ru/performance/68360/</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>Спектакль для одного зрителя в наушниках за барной стойкой</t>
+          <t>Приют комедианта</t>
         </is>
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>https://www.afisha.ru/performance/191308/</t>
+          <t>16+</t>
+        </is>
+      </c>
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>Садовая, 27/9</t>
+        </is>
+      </c>
+      <c r="M13" t="inlineStr">
+        <is>
+          <t>3 часа 20 минут, 1 антракт</t>
         </is>
       </c>
     </row>
@@ -1132,46 +1220,52 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
+          <t>Первая любовь гения как неисчерпаемый источник поэзии</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>300</v>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>19:00</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
           <t>7 апреля</t>
         </is>
       </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>19:00</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
+      <c r="G14" t="inlineStr">
         <is>
           <t>Драма</t>
         </is>
       </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>14+</t>
-        </is>
-      </c>
-      <c r="G14" t="n">
+      <c r="H14" t="n">
         <v>8.199999999999999</v>
       </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>От 300 ₽</t>
-        </is>
-      </c>
       <c r="I14" t="inlineStr">
         <is>
+          <t>https://www.afisha.ru/performance/67513/</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
           <t>Театр им. Комиссаржевской</t>
         </is>
       </c>
-      <c r="J14" t="inlineStr">
-        <is>
-          <t>Первая любовь гения как неисчерпаемый источник поэзии</t>
-        </is>
-      </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>https://www.afisha.ru/performance/67513/</t>
-        </is>
+          <t>16+</t>
+        </is>
+      </c>
+      <c r="L14" t="inlineStr">
+        <is>
+          <t>Итальянская, 19</t>
+        </is>
+      </c>
+      <c r="M14" t="n">
+        <v>-1</v>
       </c>
     </row>
     <row r="15">
@@ -1180,51 +1274,55 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Дети солнца</t>
+          <t>Топливо</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>23 апреля</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>19:00</t>
-        </is>
+          <t>Увлекательный байопик про российского физика</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>1000</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
+          <t>20:00</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>31 марта</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
           <t>Драма</t>
         </is>
       </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>16+</t>
-        </is>
-      </c>
-      <c r="G15" t="n">
-        <v>5</v>
-      </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>От 300 ₽</t>
-        </is>
+      <c r="H15" t="n">
+        <v>8.4</v>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>Александринский театр</t>
+          <t>https://www.afisha.ru/performance/104731/</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>Размышления об идеальном человеке</t>
+          <t>Скороход</t>
         </is>
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>https://www.afisha.ru/performance/233405/</t>
-        </is>
+          <t>12+</t>
+        </is>
+      </c>
+      <c r="L15" t="n">
+        <v>-1</v>
+      </c>
+      <c r="M15" t="n">
+        <v>-1</v>
       </c>
     </row>
     <row r="16">
@@ -1233,51 +1331,57 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Что делать</t>
+          <t>С Чарльзом Буковски за барной стойкой</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>29 марта</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
+          <t>Спектакль для одного зрителя в наушниках за барной стойкой</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>900</v>
+      </c>
+      <c r="E16" t="inlineStr">
         <is>
           <t>19:00</t>
         </is>
       </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>Драма</t>
-        </is>
-      </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>16+</t>
-        </is>
-      </c>
-      <c r="G16" t="n">
-        <v>6.2</v>
-      </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>От 500 ₽</t>
-        </is>
+          <t>Завтра</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>Перформанс</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>5.2</v>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>БДТ</t>
+          <t>https://www.afisha.ru/performance/191308/</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>Разговорная антиутопия Андрея Могучего по Чернышевскому</t>
+          <t>Fiddler's Green</t>
         </is>
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>https://www.afisha.ru/performance/101454/</t>
-        </is>
+          <t>18+</t>
+        </is>
+      </c>
+      <c r="L16" t="inlineStr">
+        <is>
+          <t>Рубинштейна, 5</t>
+        </is>
+      </c>
+      <c r="M16" t="n">
+        <v>-1</v>
       </c>
     </row>
     <row r="17">
@@ -1286,50 +1390,58 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Преступление и наказание</t>
+          <t>Город. Женитьба. Гоголь</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
+          <t>Герои Гоголя растворяются в современном Петербурге</t>
+        </is>
+      </c>
+      <c r="D17" t="n">
+        <v>600</v>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>19:00</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
           <t>29 апреля</t>
         </is>
       </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>19:00</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
+      <c r="G17" t="inlineStr">
         <is>
           <t>Драма</t>
         </is>
       </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>16+</t>
-        </is>
-      </c>
-      <c r="G17" t="n">
-        <v>8.699999999999999</v>
-      </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>От 1000 ₽</t>
-        </is>
+      <c r="H17" t="n">
+        <v>8.199999999999999</v>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>Небольшой драматический театр</t>
+          <t>https://www.afisha.ru/performance/103390/</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>Витальное прочтение студентами Льва Эренбурга одного из самых идейных текстов Достоевского</t>
+          <t>Театр им. Ленсовета</t>
         </is>
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>https://www.afisha.ru/performance/90576/</t>
+          <t>12+</t>
+        </is>
+      </c>
+      <c r="L17" t="inlineStr">
+        <is>
+          <t>Владимирский просп., 12</t>
+        </is>
+      </c>
+      <c r="M17" t="inlineStr">
+        <is>
+          <t>3 часа 30 минут, 1 антракт</t>
         </is>
       </c>
     </row>
@@ -1339,50 +1451,58 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Город. Женитьба. Гоголь</t>
+          <t>Что делать</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>29 апреля</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
+          <t>Разговорная антиутопия Андрея Могучего по Чернышевскому</t>
+        </is>
+      </c>
+      <c r="D18" t="n">
+        <v>500</v>
+      </c>
+      <c r="E18" t="inlineStr">
         <is>
           <t>19:00</t>
         </is>
       </c>
-      <c r="E18" t="inlineStr">
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>29 марта</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
         <is>
           <t>Драма</t>
         </is>
       </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>12+</t>
-        </is>
-      </c>
-      <c r="G18" t="n">
-        <v>8.199999999999999</v>
-      </c>
-      <c r="H18" t="inlineStr">
-        <is>
-          <t>От 600 ₽</t>
-        </is>
+      <c r="H18" t="n">
+        <v>6.2</v>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>Театр им. Ленсовета</t>
+          <t>https://www.afisha.ru/performance/101454/</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>Герои Гоголя растворяются в современном Петербурге</t>
+          <t>БДТ</t>
         </is>
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>https://www.afisha.ru/performance/103390/</t>
+          <t>16+</t>
+        </is>
+      </c>
+      <c r="L18" t="inlineStr">
+        <is>
+          <t>наб. реки Фонтанки, 65</t>
+        </is>
+      </c>
+      <c r="M18" t="inlineStr">
+        <is>
+          <t>1 час 35 минут, без антракта</t>
         </is>
       </c>
     </row>
@@ -1392,51 +1512,57 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Когда я снова стану маленьким</t>
+          <t>Двое в лифте не считая текилы</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>24 апреля</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>13:00</t>
-        </is>
+          <t>Антреприза с Петром Красиловым и Дмитрием Орловым</t>
+        </is>
+      </c>
+      <c r="D19" t="n">
+        <v>800</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Кукольный спектакль</t>
+          <t>19:00</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>6+</t>
-        </is>
-      </c>
-      <c r="G19" t="n">
-        <v>8.300000000000001</v>
-      </c>
-      <c r="H19" t="inlineStr">
-        <is>
-          <t>Билеты</t>
-        </is>
+          <t>26 марта</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>Комедия</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>6.9</v>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>БДТ</t>
+          <t>https://www.afisha.ru/performance/93421/</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>Энциклопедия подростковых грез и слез, упакованная в 15 чемоданов</t>
+          <t>ДК им. Ленсовета</t>
         </is>
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>https://www.afisha.ru/performance/97786/</t>
-        </is>
+          <t>16+</t>
+        </is>
+      </c>
+      <c r="L19" t="inlineStr">
+        <is>
+          <t>Каменноостровский просп., 42</t>
+        </is>
+      </c>
+      <c r="M19" t="n">
+        <v>-1</v>
       </c>
     </row>
     <row r="20">
@@ -1445,50 +1571,58 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Губернатор</t>
+          <t>Гроза</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>9 апреля</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
+          <t>Большое шаманство Андрея Могучего по Островскому</t>
+        </is>
+      </c>
+      <c r="D20" t="n">
+        <v>300</v>
+      </c>
+      <c r="E20" t="inlineStr">
         <is>
           <t>19:00</t>
         </is>
       </c>
-      <c r="E20" t="inlineStr">
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>28 апреля</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
         <is>
           <t>Драма</t>
         </is>
       </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>18+</t>
-        </is>
-      </c>
-      <c r="G20" t="n">
-        <v>8.6</v>
-      </c>
-      <c r="H20" t="inlineStr">
-        <is>
-          <t>От 500 ₽</t>
-        </is>
+      <c r="H20" t="n">
+        <v>8</v>
       </c>
       <c r="I20" t="inlineStr">
         <is>
+          <t>https://www.afisha.ru/performance/117877/</t>
+        </is>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
           <t>БДТ</t>
         </is>
       </c>
-      <c r="J20" t="inlineStr">
-        <is>
-          <t>Зрелищный спектакль Андрея Могучего про механику тоталитаризма</t>
-        </is>
-      </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>https://www.afisha.ru/performance/190192/</t>
+          <t>16+</t>
+        </is>
+      </c>
+      <c r="L20" t="inlineStr">
+        <is>
+          <t>наб. реки Фонтанки, 65</t>
+        </is>
+      </c>
+      <c r="M20" t="inlineStr">
+        <is>
+          <t>2 часа 15 минут, 1 антракт</t>
         </is>
       </c>
     </row>
@@ -1498,51 +1632,55 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Все мы прекрасные люди</t>
+          <t>Подыскиваю жену, недорого!</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>19 апреля</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
+          <t>Антрепризный спектакль о превратностях любви</t>
+        </is>
+      </c>
+      <c r="D21" t="n">
+        <v>300</v>
+      </c>
+      <c r="E21" t="inlineStr">
         <is>
           <t>19:00</t>
         </is>
       </c>
-      <c r="E21" t="inlineStr">
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>16 апреля</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
         <is>
           <t>Комедия</t>
         </is>
       </c>
-      <c r="F21" t="inlineStr">
+      <c r="H21" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>https://www.afisha.ru/performance/85589/</t>
+        </is>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>ДК им. Ленсовета</t>
+        </is>
+      </c>
+      <c r="K21" t="inlineStr">
         <is>
           <t>16+</t>
         </is>
       </c>
-      <c r="G21" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="H21" t="inlineStr">
-        <is>
-          <t>От 600 ₽</t>
-        </is>
-      </c>
-      <c r="I21" t="inlineStr">
-        <is>
-          <t>Театр им. Ленсовета</t>
-        </is>
-      </c>
-      <c r="J21" t="inlineStr">
-        <is>
-          <t>Внезапная страсть героини Анны Ковальчук сокрушает ее саму и все вокруг</t>
-        </is>
-      </c>
-      <c r="K21" t="inlineStr">
-        <is>
-          <t>https://www.afisha.ru/performance/96366/</t>
-        </is>
+      <c r="L21" t="n">
+        <v>-1</v>
+      </c>
+      <c r="M21" t="n">
+        <v>-1</v>
       </c>
     </row>
     <row r="22">
@@ -1551,50 +1689,58 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Билли Миллиган</t>
+          <t>Семья Сориано, или Итальянская комедия</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>18 апреля</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>19:00</t>
-        </is>
+          <t>Знаменитый «Брак по-итальянски» в исполнении Натальи Сурковой и Сергея Барковского</t>
+        </is>
+      </c>
+      <c r="D22" t="n">
+        <v>900</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
+          <t>18:00</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>16 апреля</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
           <t>Драма</t>
         </is>
       </c>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>18+</t>
-        </is>
-      </c>
-      <c r="G22" t="n">
-        <v>5.2</v>
-      </c>
-      <c r="H22" t="inlineStr">
-        <is>
-          <t>От 1200 ₽</t>
-        </is>
+      <c r="H22" t="n">
+        <v>8.300000000000001</v>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>Скороход</t>
+          <t>https://www.afisha.ru/performance/82959/</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>Триллер про самого известного психа в истории</t>
+          <t>Молодежный театр на Фонтанке</t>
         </is>
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>https://www.afisha.ru/performance/118241/</t>
+          <t>16+</t>
+        </is>
+      </c>
+      <c r="L22" t="inlineStr">
+        <is>
+          <t>наб. реки Фонтанки, 114</t>
+        </is>
+      </c>
+      <c r="M22" t="inlineStr">
+        <is>
+          <t>3 часа 30 минут, 2 антракта</t>
         </is>
       </c>
     </row>
@@ -1604,50 +1750,58 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Подыскиваю жену, недорого!</t>
+          <t>Преступление и наказание</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>16 апреля</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr">
+          <t>Витальное прочтение студентами Льва Эренбурга одного из самых идейных текстов Достоевского</t>
+        </is>
+      </c>
+      <c r="D23" t="n">
+        <v>1000</v>
+      </c>
+      <c r="E23" t="inlineStr">
         <is>
           <t>19:00</t>
         </is>
       </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>Комедия</t>
-        </is>
-      </c>
       <c r="F23" t="inlineStr">
         <is>
+          <t>29 апреля</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>Драма</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>8.699999999999999</v>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>https://www.afisha.ru/performance/90576/</t>
+        </is>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>Небольшой драматический театр</t>
+        </is>
+      </c>
+      <c r="K23" t="inlineStr">
+        <is>
           <t>16+</t>
         </is>
       </c>
-      <c r="G23" t="n">
-        <v>5.8</v>
-      </c>
-      <c r="H23" t="inlineStr">
-        <is>
-          <t>От 1200 ₽</t>
-        </is>
-      </c>
-      <c r="I23" t="inlineStr">
-        <is>
-          <t>ДК им. Ленсовета</t>
-        </is>
-      </c>
-      <c r="J23" t="inlineStr">
-        <is>
-          <t>Антрепризный спектакль о превратностях любви</t>
-        </is>
-      </c>
-      <c r="K23" t="inlineStr">
-        <is>
-          <t>https://www.afisha.ru/performance/85589/</t>
+      <c r="L23" t="inlineStr">
+        <is>
+          <t>просп. КИМа, 6</t>
+        </is>
+      </c>
+      <c r="M23" t="inlineStr">
+        <is>
+          <t>3 часа 15 минут</t>
         </is>
       </c>
     </row>

--- a/all_performance_dict.xlsx
+++ b/all_performance_dict.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M23"/>
+  <dimension ref="A1:M24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -501,12 +501,12 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Старший сын</t>
+          <t>Валентинов день</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Виктор Сухоруков в трогательной комедии Вампилова</t>
+          <t>Иван Вырыпаев в антрепризе</t>
         </is>
       </c>
       <c r="D2" t="n">
@@ -519,7 +519,7 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>1 апреля</t>
+          <t>03.04.2022</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
@@ -532,7 +532,7 @@
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>https://www.afisha.ru/performance/90900/</t>
+          <t>https://www.afisha.ru/performance/88299/</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
@@ -542,7 +542,7 @@
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>16+</t>
+          <t>12+</t>
         </is>
       </c>
       <c r="L2" t="n">
@@ -550,7 +550,7 @@
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>2 часа 40 минут, 1 антракт</t>
+          <t>2 часа 30 минут, 1 антракт</t>
         </is>
       </c>
     </row>
@@ -569,7 +569,7 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>900</v>
+        <v>1000</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
@@ -578,7 +578,7 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>10 апреля</t>
+          <t>10.0422</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
@@ -607,8 +607,10 @@
       <c r="L3" t="n">
         <v>-1</v>
       </c>
-      <c r="M3" t="n">
-        <v>-1</v>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>1 час</t>
+        </is>
       </c>
     </row>
     <row r="4">
@@ -617,16 +619,16 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Враки, или Завещание барона Мюнхгаузена</t>
+          <t>Все мы прекрасные люди</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Константин Хабенский в роли легендарного барона</t>
+          <t>Внезапная страсть героини Анны Ковальчук сокрушает ее саму и все вокруг</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>900</v>
+        <v>600</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
@@ -635,38 +637,40 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Завтра</t>
+          <t>19.0422</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Премьеры</t>
+          <t>Комедия</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>6.3</v>
+        <v>5.7</v>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>https://www.afisha.ru/performance/245895/</t>
+          <t>https://www.afisha.ru/performance/96366/</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>Александринский театр</t>
+          <t>Театр им. Ленсовета</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>18+</t>
-        </is>
-      </c>
-      <c r="L4" t="n">
-        <v>-1</v>
+          <t>16+</t>
+        </is>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>Владимирский просп., 12</t>
+        </is>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>3 часа 30 минут, 1 антракт</t>
+          <t>3 часа 20 минут, 1 антракт</t>
         </is>
       </c>
     </row>
@@ -676,16 +680,16 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Смешанные чувства</t>
+          <t>Подыскиваю жену, недорого!</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Михаил Боярский в геронтофильской комедии в компании супруги</t>
+          <t>Антрепризный спектакль о превратностях любви</t>
         </is>
       </c>
       <c r="D5" t="n">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
@@ -694,7 +698,7 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>21 апреля</t>
+          <t>16.0422</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
@@ -703,16 +707,16 @@
         </is>
       </c>
       <c r="H5" t="n">
-        <v>7.2</v>
+        <v>5.8</v>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>https://www.afisha.ru/performance/79983/</t>
+          <t>https://www.afisha.ru/performance/85589/</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>Театр им. Ленсовета</t>
+          <t>ДК им. Ленсовета</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
@@ -720,14 +724,12 @@
           <t>16+</t>
         </is>
       </c>
-      <c r="L5" t="inlineStr">
-        <is>
-          <t>Владимирский просп., 12</t>
-        </is>
+      <c r="L5" t="n">
+        <v>-1</v>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>2 часа 30 минут, 1 антракт</t>
+          <t>1 час 50 минут, без антракта</t>
         </is>
       </c>
     </row>
@@ -737,16 +739,16 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Дети солнца</t>
+          <t>Трамвай «Желание»</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Размышления об идеальном человеке</t>
+          <t>Жестокая мелодрама с хорошими актерами</t>
         </is>
       </c>
       <c r="D6" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
@@ -755,7 +757,7 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>23 апреля</t>
+          <t>7.0422</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
@@ -764,16 +766,16 @@
         </is>
       </c>
       <c r="H6" t="n">
-        <v>5</v>
+        <v>7.3</v>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>https://www.afisha.ru/performance/233405/</t>
+          <t>https://www.afisha.ru/performance/68360/</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>Александринский театр</t>
+          <t>Приют комедианта</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
@@ -781,12 +783,14 @@
           <t>16+</t>
         </is>
       </c>
-      <c r="L6" t="n">
-        <v>-1</v>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>Садовая, 27/9</t>
+        </is>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>2 часа, без антракта</t>
+          <t>3 часа 20 минут, 1 антракт</t>
         </is>
       </c>
     </row>
@@ -796,16 +800,16 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Валентинов день</t>
+          <t>Что делать</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Иван Вырыпаев в антрепризе</t>
+          <t>Разговорная антиутопия Андрея Могучего по Чернышевскому</t>
         </is>
       </c>
       <c r="D7" t="n">
-        <v>700</v>
+        <v>500</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
@@ -814,7 +818,7 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>3 апреля</t>
+          <t>02.04.2022</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
@@ -823,28 +827,32 @@
         </is>
       </c>
       <c r="H7" t="n">
-        <v>7.4</v>
+        <v>6.2</v>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>https://www.afisha.ru/performance/88299/</t>
+          <t>https://www.afisha.ru/performance/101454/</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>ДК им. Ленсовета</t>
+          <t>БДТ</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>12+</t>
-        </is>
-      </c>
-      <c r="L7" t="n">
-        <v>-1</v>
-      </c>
-      <c r="M7" t="n">
-        <v>-1</v>
+          <t>16+</t>
+        </is>
+      </c>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>наб. реки Фонтанки, 65</t>
+        </is>
+      </c>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>1 час 35 минут, без антракта</t>
+        </is>
       </c>
     </row>
     <row r="8">
@@ -853,16 +861,16 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Иисус Христос — суперзвезда</t>
+          <t>Смешанные чувства</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Постановка питерского театра «Рок-о</t>
+          <t>Михаил Боярский в геронтофильской комедии в компании супруги</t>
         </is>
       </c>
       <c r="D8" t="n">
-        <v>1000</v>
+        <v>600</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
@@ -871,39 +879,41 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>24 апреля</t>
+          <t>21.0422</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Музыкальный</t>
+          <t>Комедия</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>8.5</v>
+        <v>7.2</v>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>https://www.afisha.ru/performance/66149/</t>
+          <t>https://www.afisha.ru/performance/79983/</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>ДК им. Ленсовета</t>
+          <t>Театр им. Ленсовета</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>12+</t>
+          <t>16+</t>
         </is>
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>Каменноостровский просп., 42</t>
-        </is>
-      </c>
-      <c r="M8" t="n">
-        <v>-1</v>
+          <t>Владимирский просп., 12</t>
+        </is>
+      </c>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>2 часа 30 минут, 1 антракт</t>
+        </is>
       </c>
     </row>
     <row r="9">
@@ -912,25 +922,25 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Записки юного врача</t>
+          <t>Топливо</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Моноспектакль по ранним рассказам Булгакова</t>
+          <t>Увлекательный байопик про российского физика</t>
         </is>
       </c>
       <c r="D9" t="n">
-        <v>700</v>
+        <v>1000</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>19:00</t>
+          <t>20:00</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>2 апреля</t>
+          <t>21.0422</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
@@ -939,30 +949,30 @@
         </is>
       </c>
       <c r="H9" t="n">
-        <v>7.7</v>
+        <v>8.4</v>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>https://www.afisha.ru/performance/117716/</t>
+          <t>https://www.afisha.ru/performance/104731/</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>Мастерская</t>
+          <t>Скороход</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>16+</t>
-        </is>
-      </c>
-      <c r="L9" t="inlineStr">
-        <is>
-          <t>Народная, 1</t>
-        </is>
-      </c>
-      <c r="M9" t="n">
+          <t>12+</t>
+        </is>
+      </c>
+      <c r="L9" t="n">
         <v>-1</v>
+      </c>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>1 час, без антракта</t>
+        </is>
       </c>
     </row>
     <row r="10">
@@ -971,16 +981,16 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Лето одного года</t>
+          <t>С Чарльзом Буковски за барной стойкой</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Алиса Фрейндлих и Олег Басилашвили с блеском и мужеством играют трагикомедию о старости и об уходе вообще</t>
+          <t>Спектакль для одного зрителя в наушниках за барной стойкой</t>
         </is>
       </c>
       <c r="D10" t="n">
-        <v>4000</v>
+        <v>900</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
@@ -989,40 +999,40 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>8 апреля</t>
+          <t>02.04.2022</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Драма</t>
+          <t>Перформанс</t>
         </is>
       </c>
       <c r="H10" t="n">
-        <v>8.9</v>
+        <v>4.7</v>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>https://www.afisha.ru/performance/82546/</t>
+          <t>https://www.afisha.ru/performance/191308/</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>БДТ</t>
+          <t>Fiddler's Green</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>12+</t>
+          <t>18+</t>
         </is>
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>наб. реки Фонтанки, 65</t>
+          <t>Рубинштейна, 5</t>
         </is>
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>3 часа, 1 антракт</t>
+          <t>1 час, без антракта</t>
         </is>
       </c>
     </row>
@@ -1032,16 +1042,16 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Все мы прекрасные люди</t>
+          <t>Записки юного врача</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Внезапная страсть героини Анны Ковальчук сокрушает ее саму и все вокруг</t>
+          <t>Моноспектакль по ранним рассказам Булгакова</t>
         </is>
       </c>
       <c r="D11" t="n">
-        <v>600</v>
+        <v>1500</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
@@ -1050,25 +1060,25 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>19 апреля</t>
+          <t>02.04.2022</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Комедия</t>
+          <t>Драма</t>
         </is>
       </c>
       <c r="H11" t="n">
-        <v>4.5</v>
+        <v>8</v>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>https://www.afisha.ru/performance/96366/</t>
+          <t>https://www.afisha.ru/performance/117716/</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>Театр им. Ленсовета</t>
+          <t>Мастерская</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
@@ -1078,12 +1088,12 @@
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>Владимирский просп., 12</t>
+          <t>Народная, 1</t>
         </is>
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>3 часа 20 минут, 1 антракт</t>
+          <t>1 час 30 минут, без антракта</t>
         </is>
       </c>
     </row>
@@ -1093,30 +1103,30 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Ревизор</t>
+          <t>Хулиган. Исповедь</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Презабавный утренник по пьесе Гоголя, который отчего-то играют вечером</t>
+          <t>Сергей Безруков снова обращается к образу Есенина</t>
         </is>
       </c>
       <c r="D12" t="n">
-        <v>400</v>
+        <v>2500</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>12:00</t>
+          <t>19:00</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>26 июня</t>
+          <t>18.0522</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Комедия</t>
+          <t>Драма</t>
         </is>
       </c>
       <c r="H12" t="n">
@@ -1124,27 +1134,25 @@
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>https://www.afisha.ru/performance/78711/</t>
+          <t>https://www.afisha.ru/performance/78884/</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>Театр им. Ленсовета</t>
+          <t>ДК «Выборгский»</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>12+</t>
-        </is>
-      </c>
-      <c r="L12" t="inlineStr">
-        <is>
-          <t>Владимирский просп., 12</t>
-        </is>
+          <t>18+</t>
+        </is>
+      </c>
+      <c r="L12" t="n">
+        <v>-1</v>
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>3 часа 30 минут, 1 антракт</t>
+          <t>2 часа, без антракта</t>
         </is>
       </c>
     </row>
@@ -1154,16 +1162,16 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Трамвай «Желание»</t>
+          <t>Безымянная звезда</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Жестокая мелодрама с хорошими актерами</t>
+          <t>Первая любовь гения как неисчерпаемый источник поэзии</t>
         </is>
       </c>
       <c r="D13" t="n">
-        <v>1000</v>
+        <v>300</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
@@ -1172,7 +1180,7 @@
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>7 апреля</t>
+          <t>7.0422</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
@@ -1181,16 +1189,16 @@
         </is>
       </c>
       <c r="H13" t="n">
-        <v>7.3</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>https://www.afisha.ru/performance/68360/</t>
+          <t>https://www.afisha.ru/performance/67513/</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>Приют комедианта</t>
+          <t>Театр им. Комиссаржевской</t>
         </is>
       </c>
       <c r="K13" t="inlineStr">
@@ -1200,12 +1208,12 @@
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>Садовая, 27/9</t>
+          <t>Итальянская, 19</t>
         </is>
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>3 часа 20 минут, 1 антракт</t>
+          <t>3 часа, 1 антракт</t>
         </is>
       </c>
     </row>
@@ -1215,16 +1223,16 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Безымянная звезда</t>
+          <t>Мастер и Маргарита</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Первая любовь гения как неисчерпаемый источник поэзии</t>
+          <t>Screenlife-мюзикл по роману Булгакова</t>
         </is>
       </c>
       <c r="D14" t="n">
-        <v>300</v>
+        <v>1500</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
@@ -1233,25 +1241,25 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>7 апреля</t>
+          <t>8.0422</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Драма</t>
+          <t>Мюзикл</t>
         </is>
       </c>
       <c r="H14" t="n">
-        <v>8.199999999999999</v>
+        <v>7.1</v>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>https://www.afisha.ru/performance/67513/</t>
+          <t>https://www.afisha.ru/performance/99711/</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>Театр им. Комиссаржевской</t>
+          <t>Театр ЛДМ «Новая сцена»</t>
         </is>
       </c>
       <c r="K14" t="inlineStr">
@@ -1261,11 +1269,13 @@
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>Итальянская, 19</t>
-        </is>
-      </c>
-      <c r="M14" t="n">
-        <v>-1</v>
+          <t>Профессора Попова, 47</t>
+        </is>
+      </c>
+      <c r="M14" t="inlineStr">
+        <is>
+          <t>2 часа 30 минут, 1 антракт</t>
+        </is>
       </c>
     </row>
     <row r="15">
@@ -1274,12 +1284,12 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Топливо</t>
+          <t>Иисус Христос — суперзвезда</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Увлекательный байопик про российского физика</t>
+          <t>Постановка питерского театра «Рок-опера»</t>
         </is>
       </c>
       <c r="D15" t="n">
@@ -1287,30 +1297,30 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>20:00</t>
+          <t>19:00</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>31 марта</t>
+          <t>24.0422</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Драма</t>
+          <t>Музыкальный</t>
         </is>
       </c>
       <c r="H15" t="n">
-        <v>8.4</v>
+        <v>8.5</v>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>https://www.afisha.ru/performance/104731/</t>
+          <t>https://www.afisha.ru/performance/66149/</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>Скороход</t>
+          <t>ДК им. Ленсовета</t>
         </is>
       </c>
       <c r="K15" t="inlineStr">
@@ -1318,11 +1328,15 @@
           <t>12+</t>
         </is>
       </c>
-      <c r="L15" t="n">
-        <v>-1</v>
-      </c>
-      <c r="M15" t="n">
-        <v>-1</v>
+      <c r="L15" t="inlineStr">
+        <is>
+          <t>Каменноостровский просп., 42</t>
+        </is>
+      </c>
+      <c r="M15" t="inlineStr">
+        <is>
+          <t>2 часа, 1 антракт</t>
+        </is>
       </c>
     </row>
     <row r="16">
@@ -1331,16 +1345,16 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>С Чарльзом Буковски за барной стойкой</t>
+          <t>Губернатор</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Спектакль для одного зрителя в наушниках за барной стойкой</t>
+          <t>Зрелищный спектакль Андрея Могучего про механику тоталитаризма</t>
         </is>
       </c>
       <c r="D16" t="n">
-        <v>900</v>
+        <v>500</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
@@ -1349,25 +1363,25 @@
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Завтра</t>
+          <t>9.0422</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Перформанс</t>
+          <t>Драма</t>
         </is>
       </c>
       <c r="H16" t="n">
-        <v>5.2</v>
+        <v>8.6</v>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>https://www.afisha.ru/performance/191308/</t>
+          <t>https://www.afisha.ru/performance/190192/</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>Fiddler's Green</t>
+          <t>БДТ</t>
         </is>
       </c>
       <c r="K16" t="inlineStr">
@@ -1377,11 +1391,13 @@
       </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>Рубинштейна, 5</t>
-        </is>
-      </c>
-      <c r="M16" t="n">
-        <v>-1</v>
+          <t>наб. реки Фонтанки, 65</t>
+        </is>
+      </c>
+      <c r="M16" t="inlineStr">
+        <is>
+          <t>1 час 45 минут, без антракта</t>
+        </is>
       </c>
     </row>
     <row r="17">
@@ -1408,7 +1424,7 @@
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>29 апреля</t>
+          <t>29.0422</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
@@ -1417,7 +1433,7 @@
         </is>
       </c>
       <c r="H17" t="n">
-        <v>8.199999999999999</v>
+        <v>7.1</v>
       </c>
       <c r="I17" t="inlineStr">
         <is>
@@ -1451,58 +1467,58 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Что делать</t>
+          <t>Ревизор</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Разговорная антиутопия Андрея Могучего по Чернышевскому</t>
+          <t>Презабавный утренник по пьесе Гоголя, который отчего-то играют вечером</t>
         </is>
       </c>
       <c r="D18" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>19:00</t>
+          <t>12:00</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>29 марта</t>
+          <t>26.0622</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>Драма</t>
+          <t>Комедия</t>
         </is>
       </c>
       <c r="H18" t="n">
-        <v>6.2</v>
+        <v>8.1</v>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>https://www.afisha.ru/performance/101454/</t>
+          <t>https://www.afisha.ru/performance/78711/</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>БДТ</t>
+          <t>Театр им. Ленсовета</t>
         </is>
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>16+</t>
+          <t>12+</t>
         </is>
       </c>
       <c r="L18" t="inlineStr">
         <is>
-          <t>наб. реки Фонтанки, 65</t>
+          <t>Владимирский просп., 12</t>
         </is>
       </c>
       <c r="M18" t="inlineStr">
         <is>
-          <t>1 час 35 минут, без антракта</t>
+          <t>3 часа 30 минут, 1 антракт</t>
         </is>
       </c>
     </row>
@@ -1512,16 +1528,16 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Двое в лифте не считая текилы</t>
+          <t>Мертвые души</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Антреприза с Петром Красиловым и Дмитрием Орловым</t>
+          <t>Спектакль-расследование от ученика Юрия Бутусова</t>
         </is>
       </c>
       <c r="D19" t="n">
-        <v>800</v>
+        <v>600</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
@@ -1530,25 +1546,25 @@
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>26 марта</t>
+          <t>27.0422</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Комедия</t>
+          <t>Драма</t>
         </is>
       </c>
       <c r="H19" t="n">
-        <v>6.9</v>
+        <v>6.6</v>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>https://www.afisha.ru/performance/93421/</t>
+          <t>https://www.afisha.ru/performance/207450/</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>ДК им. Ленсовета</t>
+          <t>Театр им. Ленсовета</t>
         </is>
       </c>
       <c r="K19" t="inlineStr">
@@ -1558,11 +1574,13 @@
       </c>
       <c r="L19" t="inlineStr">
         <is>
-          <t>Каменноостровский просп., 42</t>
-        </is>
-      </c>
-      <c r="M19" t="n">
-        <v>-1</v>
+          <t>Владимирский просп., 12</t>
+        </is>
+      </c>
+      <c r="M19" t="inlineStr">
+        <is>
+          <t>2 часа 40 минут, 1 антракт</t>
+        </is>
       </c>
     </row>
     <row r="20">
@@ -1589,7 +1607,7 @@
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>28 апреля</t>
+          <t>28.0422</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
@@ -1632,16 +1650,16 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Подыскиваю жену, недорого!</t>
+          <t>Идиот. 2012</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Антрепризный спектакль о превратностях любви</t>
+          <t>Достоевский как повод порассуждать на тему «что такое хорошо и что такое плохо»</t>
         </is>
       </c>
       <c r="D21" t="n">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
@@ -1650,25 +1668,25 @@
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>16 апреля</t>
+          <t>5.0422</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>Комедия</t>
+          <t>Драма</t>
         </is>
       </c>
       <c r="H21" t="n">
-        <v>5.8</v>
+        <v>7.2</v>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>https://www.afisha.ru/performance/85589/</t>
+          <t>https://www.afisha.ru/performance/89931/</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>ДК им. Ленсовета</t>
+          <t>Молодежный театр на Фонтанке</t>
         </is>
       </c>
       <c r="K21" t="inlineStr">
@@ -1676,11 +1694,15 @@
           <t>16+</t>
         </is>
       </c>
-      <c r="L21" t="n">
-        <v>-1</v>
-      </c>
-      <c r="M21" t="n">
-        <v>-1</v>
+      <c r="L21" t="inlineStr">
+        <is>
+          <t>наб. реки Фонтанки, 114</t>
+        </is>
+      </c>
+      <c r="M21" t="inlineStr">
+        <is>
+          <t>2 часа 50 минут, 1 антракт</t>
+        </is>
       </c>
     </row>
     <row r="22">
@@ -1689,25 +1711,25 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Семья Сориано, или Итальянская комедия</t>
+          <t>Вий</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Знаменитый «Брак по-итальянски» в исполнении Натальи Сурковой и Сергея Барковского</t>
+          <t>Нешуточный хоррор для семейного просмотра</t>
         </is>
       </c>
       <c r="D22" t="n">
-        <v>900</v>
+        <v>500</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>18:00</t>
+          <t>19:00</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>16 апреля</t>
+          <t>6.0522</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
@@ -1716,16 +1738,16 @@
         </is>
       </c>
       <c r="H22" t="n">
-        <v>8.300000000000001</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>https://www.afisha.ru/performance/82959/</t>
+          <t>https://www.afisha.ru/performance/68503/</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>Молодежный театр на Фонтанке</t>
+          <t>Большой театр кукол</t>
         </is>
       </c>
       <c r="K22" t="inlineStr">
@@ -1735,12 +1757,12 @@
       </c>
       <c r="L22" t="inlineStr">
         <is>
-          <t>наб. реки Фонтанки, 114</t>
+          <t>Некрасова, 10</t>
         </is>
       </c>
       <c r="M22" t="inlineStr">
         <is>
-          <t>3 часа 30 минут, 2 антракта</t>
+          <t>1 час 40 минут, 1 антракт</t>
         </is>
       </c>
     </row>
@@ -1750,30 +1772,30 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Преступление и наказание</t>
+          <t>Звездная покатуха</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Витальное прочтение студентами Льва Эренбурга одного из самых идейных текстов Достоевского</t>
+          <t>Все классические номера «Лицедеев» в одном спектакле</t>
         </is>
       </c>
       <c r="D23" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>19:00</t>
+          <t>18:00</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>29 апреля</t>
+          <t>9.0422</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>Драма</t>
+          <t>Комедия</t>
         </is>
       </c>
       <c r="H23" t="n">
@@ -1781,27 +1803,88 @@
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>https://www.afisha.ru/performance/90576/</t>
+          <t>https://www.afisha.ru/performance/116779/</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>Небольшой драматический театр</t>
+          <t>Лицедеи</t>
         </is>
       </c>
       <c r="K23" t="inlineStr">
         <is>
+          <t>12+</t>
+        </is>
+      </c>
+      <c r="L23" t="inlineStr">
+        <is>
+          <t>Льва Толстого, 9, ТРЦ «Толстой-сквер», 4 этаж</t>
+        </is>
+      </c>
+      <c r="M23" t="inlineStr">
+        <is>
+          <t>2 часа, 1 антракт</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Пять вечеров</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>Пронзительная история о кризисе среднего возраста</t>
+        </is>
+      </c>
+      <c r="D24" t="n">
+        <v>300</v>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>18:00</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>03.04.2022</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>Драма</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>https://www.afisha.ru/performance/68085/</t>
+        </is>
+      </c>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>Молодежный театр на Фонтанке</t>
+        </is>
+      </c>
+      <c r="K24" t="inlineStr">
+        <is>
           <t>16+</t>
         </is>
       </c>
-      <c r="L23" t="inlineStr">
-        <is>
-          <t>просп. КИМа, 6</t>
-        </is>
-      </c>
-      <c r="M23" t="inlineStr">
-        <is>
-          <t>3 часа 15 минут</t>
+      <c r="L24" t="inlineStr">
+        <is>
+          <t>наб. реки Фонтанки, 114</t>
+        </is>
+      </c>
+      <c r="M24" t="inlineStr">
+        <is>
+          <t>2 часа 30 минут, 1 антракт</t>
         </is>
       </c>
     </row>

--- a/all_performance_dict.xlsx
+++ b/all_performance_dict.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M119"/>
+  <dimension ref="A1:M91"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -503,12 +503,12 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Екклесиаст</t>
+          <t>Zholdak Dreams: похитители чувств</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Изобретательные театрально-пластические аналогии библейским афоризмам</t>
+          <t>Мафиози и космические пираты перекраивают «Слугу двух господ»</t>
         </is>
       </c>
       <c r="C2" t="n">
@@ -521,7 +521,7 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>01.06.2022</t>
+          <t>31.05.2022</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
@@ -530,31 +530,31 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>8.5</v>
+        <v>5.8</v>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>Большой театр кукол</t>
+          <t>Каменноостровский театр</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>https://www.afisha.ru/performance/88347/</t>
+          <t>https://www.afisha.ru/performance/103720/</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>16+</t>
+          <t>18+</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>Некрасова, 10</t>
+          <t>пл. Старого театра, 13</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>1 час 20 минут, без антракта</t>
+          <t>3 часа, 1 антракт</t>
         </is>
       </c>
       <c r="M2" t="n">
@@ -564,25 +564,25 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Губернатор</t>
+          <t>Король умирает</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Зрелищный спектакль Андрея Могучего про механику тоталитаризма</t>
+          <t>Психологическая игра артиста Дмитрия Поднозова с текстом абсурдиста Ионеско и с публикой</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>500</v>
+        <v>1500</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>19:00</t>
+          <t>19:30</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>17.06.2022</t>
+          <t>22.05.2022</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
@@ -591,31 +591,31 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>8.6</v>
+        <v>6.2</v>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>БДТ</t>
+          <t>Особняк</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>https://www.afisha.ru/performance/190192/</t>
+          <t>https://www.afisha.ru/performance/76152/</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>18+</t>
+          <t>16+</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>наб. реки Фонтанки, 65</t>
+          <t>Каменноостровский просп., 55</t>
         </is>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>1 час 45 минут, без антракта</t>
+          <t>-1</t>
         </is>
       </c>
       <c r="M3" t="n">
@@ -625,12 +625,12 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Тихий Дон. Истоки. Берега</t>
+          <t>Конформист</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Восьмичасовой спектакль о казаках</t>
+          <t>Театральное переложение знаменитого романа про трагедию нормальности</t>
         </is>
       </c>
       <c r="C4" t="n">
@@ -638,12 +638,12 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>14:00</t>
+          <t>19:00</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>03.05.2022</t>
+          <t>22.05.2022</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
@@ -652,31 +652,31 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>8.5</v>
+        <v>5.6</v>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>Мастерская</t>
+          <t>Камерный театр Малыщицкого</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>https://www.afisha.ru/performance/94169/</t>
+          <t>https://www.afisha.ru/performance/100145/</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>16+</t>
+          <t>18+</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>Народная, 1</t>
+          <t>Восстания, 41</t>
         </is>
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>4 часа, 1 антракт</t>
+          <t>2 часа 40 минут, 1 антракт</t>
         </is>
       </c>
       <c r="M4" t="n">
@@ -686,16 +686,16 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Старосветские помещики</t>
+          <t>Однажды в Эльсиноре. Гамлет</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Пронзительное соло на двоих — безукоризненный дуэт Ирины Соколовой и Валерия Дьяченко</t>
+          <t>Секс, бокс, рок-н-ролл — в переводе Пастернака</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -704,7 +704,7 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>09.05.2022</t>
+          <t>28.05.2022</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
@@ -713,16 +713,16 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>7.5</v>
+        <v>5.2</v>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>ТЮЗ</t>
+          <t>Мастерская</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>https://www.afisha.ru/performance/66048/</t>
+          <t>https://www.afisha.ru/performance/98674/</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
@@ -732,7 +732,7 @@
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>Пионерская пл., 1</t>
+          <t>Народная, 1</t>
         </is>
       </c>
       <c r="L5" t="inlineStr">
@@ -747,16 +747,16 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Лето одного года</t>
+          <t>Старомодная комедия</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Алиса Фрейндлих и Олег Басилашвили с блеском и мужеством играют трагикомедию о старости и об уходе вообще</t>
+          <t>Советская лирическая комедия для двух почтенных артистов</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -765,7 +765,7 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>30.04.2022</t>
+          <t>18.06.2022</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
@@ -774,31 +774,31 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>8.9</v>
+        <v>4.6</v>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>БДТ</t>
+          <t>Приют комедианта</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>https://www.afisha.ru/performance/82546/</t>
+          <t>https://www.afisha.ru/performance/104925/</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>12+</t>
+          <t>16+</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>наб. реки Фонтанки, 65</t>
+          <t>Садовая, 27/9</t>
         </is>
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>3 часа, 1 антракт</t>
+          <t>2 часа 15 минут, 1 антракт</t>
         </is>
       </c>
       <c r="M6" t="n">
@@ -808,54 +808,52 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Дни Турбиных</t>
+          <t>Todd</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Камерная драма про глобальный политический перелом</t>
+          <t>Масштабная страшилка от группы «Король и Шут»</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>1100</v>
+        <v>2000</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>19:00</t>
+          <t>15:00</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>28.04.2022</t>
+          <t>04.06.2022</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Драма</t>
+          <t>Музыкальный</t>
         </is>
       </c>
       <c r="G7" t="n">
-        <v>7.9</v>
+        <v>6.6</v>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>Мастерская</t>
+          <t>Октябрьский</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>https://www.afisha.ru/performance/95984/</t>
+          <t>https://www.afisha.ru/performance/91509/</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>16+</t>
-        </is>
-      </c>
-      <c r="K7" t="inlineStr">
-        <is>
-          <t>Народная, 1</t>
-        </is>
+          <t>12+</t>
+        </is>
+      </c>
+      <c r="K7" t="n">
+        <v>-1</v>
       </c>
       <c r="L7" t="inlineStr">
         <is>
@@ -869,16 +867,16 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Пять вечеров</t>
+          <t>Слава</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Пронзительная история о кризисе среднего возраста</t>
+          <t>Константин Богомолов делает советский мюзикл с Ниной Усатовой</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -887,7 +885,7 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>20.05.2022</t>
+          <t>27.05.2022</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
@@ -896,31 +894,31 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>7.8</v>
+        <v>7</v>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>Молодежный театр на Фонтанке</t>
+          <t>БДТ</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>https://www.afisha.ru/performance/68085/</t>
+          <t>https://www.afisha.ru/performance/204845/</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>16+</t>
+          <t>12+</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>наб. реки Фонтанки, 114</t>
+          <t>наб. реки Фонтанки, 65</t>
         </is>
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>2 часа 30 минут, 1 антракт</t>
+          <t>2 часа 10 минут, 1 антракт</t>
         </is>
       </c>
       <c r="M8" t="n">
@@ -930,12 +928,12 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Идиот. 2012</t>
+          <t>Три толстяка. Эпизод 1. Восстание</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Достоевский как повод порассуждать на тему «что такое хорошо и что такое плохо»</t>
+          <t>Могучий строит коммунизм</t>
         </is>
       </c>
       <c r="C9" t="n">
@@ -948,7 +946,7 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>06.05.2022</t>
+          <t>25.06.2022</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
@@ -957,31 +955,31 @@
         </is>
       </c>
       <c r="G9" t="n">
-        <v>7.2</v>
+        <v>3.1</v>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>Молодежный театр на Фонтанке</t>
+          <t>БДТ</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>https://www.afisha.ru/performance/89931/</t>
+          <t>https://www.afisha.ru/performance/203746/</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>16+</t>
+          <t>12+</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>наб. реки Фонтанки, 114</t>
+          <t>наб. реки Фонтанки, 65</t>
         </is>
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>2 часа 50 минут, 1 антракт</t>
+          <t>2 часа, без антракта</t>
         </is>
       </c>
       <c r="M9" t="n">
@@ -991,16 +989,16 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Счастье мое...</t>
+          <t>Три толстяка. Эпизод 2. Железное сердце</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Маленькая трагедия о разбитом сердце пионервожатой</t>
+          <t>Мир после апокалипсиса во второй части сказки-антиутопии Андрея Могучего</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>900</v>
+        <v>500</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1009,7 +1007,7 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>09.05.2022</t>
+          <t>26.05.2022</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
@@ -1018,31 +1016,31 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>7.3</v>
+        <v>2.8</v>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>Театр на Литейном</t>
+          <t>БДТ</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>https://www.afisha.ru/performance/74477/</t>
+          <t>https://www.afisha.ru/performance/203747/</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>16+</t>
+          <t>12+</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>Литейный просп., 51</t>
+          <t>наб. реки Фонтанки, 65</t>
         </is>
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>1 час 30 минут, без антракта</t>
+          <t>2 часа, без антракта</t>
         </is>
       </c>
       <c r="M10" t="n">
@@ -1052,12 +1050,12 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Звездная покатуха</t>
+          <t>Калека с острова Инишмаан</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Все классические номера «Лицедеев» в одном спектакле</t>
+          <t>Артисты БДТ играют востребованную комедию МакДонаха</t>
         </is>
       </c>
       <c r="C11" t="n">
@@ -1070,40 +1068,40 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>29.05.2022</t>
+          <t>05.06.2022</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Комедия</t>
+          <t>Драма</t>
         </is>
       </c>
       <c r="G11" t="n">
-        <v>8.699999999999999</v>
+        <v>7.9</v>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>Лицедеи</t>
+          <t>Каменноостровский театр</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>https://www.afisha.ru/performance/116779/</t>
+          <t>https://www.afisha.ru/performance/94152/</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>12+</t>
+          <t>18+</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>Льва Толстого, 9, ТРЦ «Толстой-сквер», 4 этаж</t>
+          <t>пл. Старого театра, 13</t>
         </is>
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>2 часа, 1 антракт</t>
+          <t>3 часа, 1 антракт</t>
         </is>
       </c>
       <c r="M11" t="n">
@@ -1113,12 +1111,12 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Вий</t>
+          <t>Три сестры</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Нешуточный хоррор для семейного просмотра</t>
+          <t>«Три сестры» двадцать лет спустя</t>
         </is>
       </c>
       <c r="C12" t="n">
@@ -1131,7 +1129,7 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>06.05.2022</t>
+          <t>16.06.2022</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
@@ -1140,16 +1138,16 @@
         </is>
       </c>
       <c r="G12" t="n">
-        <v>8.199999999999999</v>
+        <v>7.1</v>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>Большой театр кукол</t>
+          <t>БДТ</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>https://www.afisha.ru/performance/68503/</t>
+          <t>https://www.afisha.ru/performance/190346/</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
@@ -1159,12 +1157,12 @@
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>Некрасова, 10</t>
+          <t>наб. реки Фонтанки, 65</t>
         </is>
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>1 час 40 минут, 1 антракт</t>
+          <t>3 часа 30 минут, 1 антракт</t>
         </is>
       </c>
       <c r="M12" t="n">
@@ -1174,25 +1172,25 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Билли Миллиган</t>
+          <t>Братья Карамазовы</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Триллер про самого известного психа в истории</t>
+          <t>Незатейливое разыгрывание диалогов из романа Достоевского</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>1600</v>
+        <v>700</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>19:00</t>
+          <t>17:00</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>16.05.2022</t>
+          <t>22.05.2022</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
@@ -1201,31 +1199,31 @@
         </is>
       </c>
       <c r="G13" t="n">
-        <v>5.2</v>
+        <v>7.2</v>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>Скороход</t>
+          <t>Мастерская</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>https://www.afisha.ru/performance/118241/</t>
+          <t>https://www.afisha.ru/performance/102359/</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>18+</t>
+          <t>16+</t>
         </is>
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>Московский просп., 107, корп. 5, 4 этаж</t>
+          <t>Народная, 1</t>
         </is>
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>4 часа, 2 антракта</t>
+          <t>-1</t>
         </is>
       </c>
       <c r="M13" t="n">
@@ -1235,16 +1233,16 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Малые супружеские преступления</t>
+          <t>Турандот</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Камерный семейный детектив с изящными афоризмами</t>
+          <t>Остроумная рэп-интерпретация пьесы Карла Гоцци</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>1500</v>
+        <v>500</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1253,7 +1251,7 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>04.05.2022</t>
+          <t>21.05.2022</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
@@ -1262,31 +1260,29 @@
         </is>
       </c>
       <c r="G14" t="n">
-        <v>7.3</v>
+        <v>5.5</v>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>Русская антреприза им. Андрея Миронова</t>
+          <t>КДЦ «Московский»</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>https://www.afisha.ru/performance/67762/</t>
+          <t>https://www.afisha.ru/performance/95850/</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>14+</t>
-        </is>
-      </c>
-      <c r="K14" t="inlineStr">
-        <is>
-          <t>Большой просп. П.С., 75/35</t>
-        </is>
+          <t>16+</t>
+        </is>
+      </c>
+      <c r="K14" t="n">
+        <v>-1</v>
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>1 час 30 минут, без антракта</t>
+          <t>3 часа 40 минут, 1 антракт</t>
         </is>
       </c>
       <c r="M14" t="n">
@@ -1296,43 +1292,43 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>БалБесы</t>
+          <t>Идиот. Возвращение. Четыре сцены из жизни Льва Николаевича Мышкина</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Гомерически смешной капустник для взрослых по сказкам Пушкина</t>
+          <t>Ученики Григория Козлова играют начало романа Достоевского</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>1200</v>
+        <v>500</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>19:00</t>
+          <t>18:00</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>27.04.2022</t>
+          <t>13.06.2022</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Комедия</t>
+          <t>Драма</t>
         </is>
       </c>
       <c r="G15" t="n">
-        <v>6.9</v>
+        <v>7.6</v>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>За Черной речкой</t>
+          <t>Мастерская</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>https://www.afisha.ru/performance/67655/</t>
+          <t>https://www.afisha.ru/performance/80617/</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
@@ -1342,12 +1338,12 @@
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>Богатырский просп., 4</t>
+          <t>Народная, 1</t>
         </is>
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>1 час, 40 минут, без антракта</t>
+          <t>-1</t>
         </is>
       </c>
       <c r="M15" t="n">
@@ -1357,16 +1353,16 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Башлачев. Человек поющий</t>
+          <t>Иранская конференция</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Молодые питерские актеры играют этюды по мотивам песен Башлачева</t>
+          <t>Десять взглядов на современную действительность</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>1300</v>
+        <v>1500</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1375,7 +1371,7 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>11.05.2022</t>
+          <t>19.06.2022</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
@@ -1384,31 +1380,31 @@
         </is>
       </c>
       <c r="G16" t="n">
-        <v>8.300000000000001</v>
+        <v>5.9</v>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>Большой театр кукол</t>
+          <t>Скороход</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>https://www.afisha.ru/performance/83295/</t>
+          <t>https://www.afisha.ru/performance/229847/</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>16+</t>
+          <t>18+</t>
         </is>
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>Некрасова, 10</t>
+          <t>Московский просп., 107, корп. 5, 4 этаж</t>
         </is>
       </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>-1</t>
+          <t>2 часа 15 минут, 1 антракт</t>
         </is>
       </c>
       <c r="M16" t="n">
@@ -1418,16 +1414,16 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Мадам Бовари</t>
+          <t>Преступление и наказание</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Мифологического масштаба театральная история об истине страстей</t>
+          <t>Внимательное прочтение романа на сцене</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>1500</v>
+        <v>3000</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1436,7 +1432,7 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>22.05.2022</t>
+          <t>09.06.2022</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
@@ -1445,31 +1441,31 @@
         </is>
       </c>
       <c r="G17" t="n">
-        <v>7.4</v>
+        <v>6.8</v>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>Русская антреприза им. Андрея Миронова</t>
+          <t>Приют комедианта</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>https://www.afisha.ru/performance/97009/</t>
+          <t>https://www.afisha.ru/performance/207448/</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>16+</t>
+          <t>18+</t>
         </is>
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>Большой просп. П.С., 75/35</t>
+          <t>Садовая, 27/9</t>
         </is>
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>3 часа 30 минут, 1 антракт</t>
+          <t>3 часа 30 минут, 2 антракта</t>
         </is>
       </c>
       <c r="M17" t="n">
@@ -1479,16 +1475,16 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>На дне</t>
+          <t>Человек из Подольска</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Олигофрены и параноики в актуальной интерпретации Горького</t>
+          <t>Михаил Бычков ставит самую модную пьесу последних лет</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>900</v>
+        <v>500</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1497,25 +1493,25 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>25.04.2022</t>
+          <t>14.06.2022</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Драма</t>
+          <t>Комедия</t>
         </is>
       </c>
       <c r="G18" t="n">
-        <v>7.1</v>
+        <v>6.1</v>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>Небольшой драматический театр</t>
+          <t>Приют комедианта</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>https://www.afisha.ru/performance/67782/</t>
+          <t>https://www.afisha.ru/performance/205524/</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
@@ -1525,12 +1521,12 @@
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>просп. КИМа, 6</t>
+          <t>Садовая, 27/9</t>
         </is>
       </c>
       <c r="L18" t="inlineStr">
         <is>
-          <t>-1</t>
+          <t>1 час 40 минут, без антракта</t>
         </is>
       </c>
       <c r="M18" t="n">
@@ -1540,58 +1536,58 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Бедные люди</t>
+          <t>Задержанный</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Достоевский, адаптированный для школьников с уникальным артистом Валерием Дьяченко</t>
+          <t>Бархоппинг по мотивам рассказов Довлатова</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>19:00</t>
+          <t>18:00</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>06.05.2022</t>
+          <t>22.05.2022</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Драма</t>
+          <t>Моноспектакль</t>
         </is>
       </c>
       <c r="G19" t="n">
-        <v>7.4</v>
+        <v>7.6</v>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>ТЮЗ</t>
+          <t>Сайгон</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>https://www.afisha.ru/performance/71206/</t>
+          <t>https://www.afisha.ru/performance/158572/</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>16+</t>
+          <t>18+</t>
         </is>
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>Пионерская пл., 1</t>
+          <t>Рубинштейна, 1</t>
         </is>
       </c>
       <c r="L19" t="inlineStr">
         <is>
-          <t>2 часа 15 минут, 1 антракт</t>
+          <t>-1</t>
         </is>
       </c>
       <c r="M19" t="n">
@@ -1601,16 +1597,16 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Мы</t>
+          <t>Золушка</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Молодежный спектакль по Замятину про то, как общество превращается в толпу</t>
+          <t>Лучший российский оперный спектакль по версии «Золотой маски» конца нулевых</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1619,25 +1615,25 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>27.05.2022</t>
+          <t>21.05.2022</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Драма</t>
+          <t>Опера</t>
         </is>
       </c>
       <c r="G20" t="n">
-        <v>6.1</v>
+        <v>6.5</v>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>Большой театр кукол</t>
+          <t>Зазеркалье</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>https://www.afisha.ru/performance/78575/</t>
+          <t>https://www.afisha.ru/performance/77506/</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
@@ -1647,12 +1643,12 @@
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>Некрасова, 10</t>
+          <t>Рубинштейна, 13</t>
         </is>
       </c>
       <c r="L20" t="inlineStr">
         <is>
-          <t>2 часа, 1 антракт</t>
+          <t>-1</t>
         </is>
       </c>
       <c r="M20" t="n">
@@ -1662,16 +1658,16 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Поминальная молитва</t>
+          <t>Пижама для шестерых</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Еще один «Тевье-молочник», зрелищный и предсказуемый</t>
+          <t>Тривиальная антреприза с хорошими актерами</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>800</v>
+        <v>500</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1680,25 +1676,25 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>01.05.2022</t>
+          <t>20.07.2022</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Драма</t>
+          <t>Комедия</t>
         </is>
       </c>
       <c r="G21" t="n">
-        <v>9</v>
+        <v>6.2</v>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>Театр на Литейном</t>
+          <t>ДК им. Ленсовета</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>https://www.afisha.ru/performance/98328/</t>
+          <t>https://www.afisha.ru/performance/68250/</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
@@ -1708,12 +1704,12 @@
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>Литейный просп., 51</t>
+          <t>Каменноостровский просп., 42</t>
         </is>
       </c>
       <c r="L21" t="inlineStr">
         <is>
-          <t>3 часа 30 минут, 1 антракт</t>
+          <t>-1</t>
         </is>
       </c>
       <c r="M21" t="n">
@@ -1723,25 +1719,25 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Школа</t>
+          <t>У ковчега в восемь</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Ироничное сочинение на тему, как я провел школьные годы</t>
+          <t>История великого потопа для тинэджеров: глазами пингвинов</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>19:30</t>
+          <t>19:00</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>20.05.2022</t>
+          <t>05.06.2022</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
@@ -1750,26 +1746,26 @@
         </is>
       </c>
       <c r="G22" t="n">
-        <v>7.9</v>
+        <v>5.2</v>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>Театр-фестиваль «Балтийский дом»</t>
+          <t>Мастерская</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>https://www.afisha.ru/performance/89678/</t>
+          <t>https://www.afisha.ru/performance/83123/</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>18+</t>
+          <t>12+</t>
         </is>
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>Александровский парк, 4</t>
+          <t>Народная, 1</t>
         </is>
       </c>
       <c r="L22" t="inlineStr">
@@ -1784,16 +1780,16 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Лерка</t>
+          <t>Смерть Тарелкина</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Смешная и жуткая история девчонки с нашего двора по текстам Василия Сигарева</t>
+          <t>Черная комедия Семена Серзина</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1802,35 +1798,35 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>04.05.2022</t>
+          <t>07.06.2022</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Драма</t>
+          <t>Комедия</t>
         </is>
       </c>
       <c r="G23" t="n">
-        <v>5.5</v>
+        <v>3.3</v>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>Театр-фестиваль «Балтийский дом»</t>
+          <t>Приют комедианта</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>https://www.afisha.ru/performance/78407/</t>
+          <t>https://www.afisha.ru/performance/179485/</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>18+</t>
+          <t>16+</t>
         </is>
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>Александровский парк, 4</t>
+          <t>Садовая, 27/9</t>
         </is>
       </c>
       <c r="L23" t="inlineStr">
@@ -1845,58 +1841,58 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Буря</t>
+          <t>Бременские музыканты</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Умный трагифарс от режиссера Морфова, фокусы с пространством от художника Капелюша</t>
+          <t>Всеми любимая музыкальная сказка с современными диалогами и аранжировками</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>19:00</t>
+          <t>13:00</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>16.05.2022</t>
+          <t>29.05.2022</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Драма</t>
+          <t>Детский</t>
         </is>
       </c>
       <c r="G24" t="n">
-        <v>7.2</v>
+        <v>7</v>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>Театр им. Комиссаржевской</t>
+          <t>Мастерская</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>https://www.afisha.ru/performance/65972/</t>
+          <t>https://www.afisha.ru/performance/88737/</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>16+</t>
+          <t>6+</t>
         </is>
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>Итальянская, 19</t>
+          <t>Народная, 1</t>
         </is>
       </c>
       <c r="L24" t="inlineStr">
         <is>
-          <t>-1</t>
+          <t>1 час 30 минут, без антракта</t>
         </is>
       </c>
       <c r="M24" t="n">
@@ -1906,16 +1902,16 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Графоман</t>
+          <t>Суп из канарейки</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Комплексы и лирика советских 70-х по стихам и прозе Александра Володина</t>
+          <t>Нехитрая комедия про гражданский брак</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -1924,7 +1920,7 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>29.05.2022</t>
+          <t>23.06.2022</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
@@ -1933,31 +1929,29 @@
         </is>
       </c>
       <c r="G25" t="n">
-        <v>7.9</v>
+        <v>4.5</v>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>Театр им. Комиссаржевской</t>
+          <t>ДК им. Ленсовета</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>https://www.afisha.ru/performance/99034/</t>
+          <t>https://www.afisha.ru/performance/96416/</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>18+</t>
-        </is>
-      </c>
-      <c r="K25" t="inlineStr">
-        <is>
-          <t>Итальянская, 19</t>
-        </is>
+          <t>12+</t>
+        </is>
+      </c>
+      <c r="K25" t="n">
+        <v>-1</v>
       </c>
       <c r="L25" t="inlineStr">
         <is>
-          <t>-1</t>
+          <t>1 час 30 минут, без антракта</t>
         </is>
       </c>
       <c r="M25" t="n">
@@ -1967,16 +1961,16 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Скамейка</t>
+          <t>Живой товар</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Не самая банальная советская мелодрама, сыгранная как французский шансон</t>
+          <t>Пошлый романчик перерастает в человеческую трагедию.</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -1985,7 +1979,7 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>17.05.2022</t>
+          <t>11.06.2022</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
@@ -1994,31 +1988,31 @@
         </is>
       </c>
       <c r="G26" t="n">
-        <v>7.4</v>
+        <v>2.3</v>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>Концертный зал в здании Екатерининского собрания</t>
+          <t>Театр им. Комиссаржевской</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>https://www.afisha.ru/performance/77005/</t>
+          <t>https://www.afisha.ru/performance/76119/</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>12+</t>
+          <t>14+</t>
         </is>
       </c>
       <c r="K26" t="inlineStr">
         <is>
-          <t>наб. канала Грибоедова, 88–90</t>
+          <t>Итальянская, 19</t>
         </is>
       </c>
       <c r="L26" t="inlineStr">
         <is>
-          <t>1 час 40 минут, без антракта</t>
+          <t>2 часа 45 минут, 1 антракт</t>
         </is>
       </c>
       <c r="M26" t="n">
@@ -2028,43 +2022,43 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Что делать</t>
+          <t>Все мы прекрасные люди</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Разговорная антиутопия Андрея Могучего по Чернышевскому</t>
+          <t>Внезапная страсть героини Анны Ковальчук сокрушает ее саму и все вокруг</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>19:00</t>
+          <t>18:00</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>04.10.2022</t>
+          <t>19.06.2022</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Драма</t>
+          <t>Комедия</t>
         </is>
       </c>
       <c r="G27" t="n">
-        <v>6.2</v>
+        <v>5.7</v>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>БДТ</t>
+          <t>Театр им. Ленсовета</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>https://www.afisha.ru/performance/101454/</t>
+          <t>https://www.afisha.ru/performance/96366/</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
@@ -2074,12 +2068,12 @@
       </c>
       <c r="K27" t="inlineStr">
         <is>
-          <t>наб. реки Фонтанки, 65</t>
+          <t>Владимирский просп., 12</t>
         </is>
       </c>
       <c r="L27" t="inlineStr">
         <is>
-          <t>1 час 35 минут, без антракта</t>
+          <t>3 часа 20 минут, 1 антракт</t>
         </is>
       </c>
       <c r="M27" t="n">
@@ -2089,16 +2083,16 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Двое на качелях</t>
+          <t>Парк</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Муки и радости сегодняшних Дидоны и Энея под музыку Перселла</t>
+          <t>Один из лучших балетов Анжелена Прельжокажа</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2107,40 +2101,40 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>24.04.2022</t>
+          <t>21.05.2022</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Драма</t>
+          <t>Балет</t>
         </is>
       </c>
       <c r="G28" t="n">
-        <v>5.2</v>
+        <v>4.3</v>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>Приют комедианта</t>
+          <t>Мариинский театр</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>https://www.afisha.ru/performance/67910/</t>
+          <t>https://www.afisha.ru/performance/84197/</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>16+</t>
+          <t>Театральная пл., 1</t>
         </is>
       </c>
       <c r="K28" t="inlineStr">
         <is>
-          <t>Садовая, 27/9</t>
+          <t>Театральная пл., 1</t>
         </is>
       </c>
       <c r="L28" t="inlineStr">
         <is>
-          <t>2 часа 40 минут, 1 антракт</t>
+          <t>-1</t>
         </is>
       </c>
       <c r="M28" t="n">
@@ -2150,16 +2144,16 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Zholdak Dreams: похитители чувств</t>
+          <t>Литургия Zero</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Мафиози и космические пираты перекраивают «Слугу двух господ»</t>
+          <t>Антон Шагин в спектакле Валерия Фокина о страсти к игре, уничтожающей все живое</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2168,7 +2162,7 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>31.05.2022</t>
+          <t>27.05.2022</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
@@ -2177,31 +2171,31 @@
         </is>
       </c>
       <c r="G29" t="n">
-        <v>5.8</v>
+        <v>5.7</v>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>Каменноостровский театр</t>
+          <t>Александринский театр</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>https://www.afisha.ru/performance/103720/</t>
+          <t>https://www.afisha.ru/performance/89677/</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>18+</t>
+          <t>16+</t>
         </is>
       </c>
       <c r="K29" t="inlineStr">
         <is>
-          <t>пл. Старого театра, 13</t>
+          <t>пл. Островского, 2</t>
         </is>
       </c>
       <c r="L29" t="inlineStr">
         <is>
-          <t>3 часа, 1 антракт</t>
+          <t>-1</t>
         </is>
       </c>
       <c r="M29" t="n">
@@ -2211,12 +2205,12 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Колобок</t>
+          <t>Смешанные чувства</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Выпускники Руслана Кудашова играют с детсадовским залом и с элементами собственной одежды</t>
+          <t>Михаил Боярский в геронтофильской комедии в компании супруги</t>
         </is>
       </c>
       <c r="C30" t="n">
@@ -2224,45 +2218,45 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>11:30</t>
+          <t>19:00</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>11.06.2022</t>
+          <t>27.06.2022</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Кукольный спектакль</t>
+          <t>Комедия</t>
         </is>
       </c>
       <c r="G30" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>Большой театр кукол</t>
+          <t>Театр им. Ленсовета</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>https://www.afisha.ru/performance/81557/</t>
+          <t>https://www.afisha.ru/performance/79983/</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>0+</t>
+          <t>16+</t>
         </is>
       </c>
       <c r="K30" t="inlineStr">
         <is>
-          <t>Некрасова, 10</t>
+          <t>Владимирский просп., 12</t>
         </is>
       </c>
       <c r="L30" t="inlineStr">
         <is>
-          <t>-1</t>
+          <t>2 часа 30 минут, 1 антракт</t>
         </is>
       </c>
       <c r="M30" t="n">
@@ -2272,16 +2266,16 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Голодранцы и аристократы</t>
+          <t>Город. Женитьба. Гоголь</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Неаполитанская комедия с переодеваниями</t>
+          <t>Герои Гоголя растворяются в современном Петербурге</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2290,25 +2284,25 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>21.06.2022</t>
+          <t>26.05.2022</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Комедия</t>
+          <t>Драма</t>
         </is>
       </c>
       <c r="G31" t="n">
-        <v>6.3</v>
+        <v>7.5</v>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>Театр комедии им. Акимова</t>
+          <t>Театр им. Ленсовета</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>https://www.afisha.ru/performance/76709/</t>
+          <t>https://www.afisha.ru/performance/103390/</t>
         </is>
       </c>
       <c r="J31" t="inlineStr">
@@ -2318,12 +2312,12 @@
       </c>
       <c r="K31" t="inlineStr">
         <is>
-          <t>Невский просп., 56</t>
+          <t>Владимирский просп., 12</t>
         </is>
       </c>
       <c r="L31" t="inlineStr">
         <is>
-          <t>-1</t>
+          <t>3 часа 30 минут, 1 антракт</t>
         </is>
       </c>
       <c r="M31" t="n">
@@ -2333,16 +2327,16 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Смерть Тарелкина</t>
+          <t>Вишневый сад</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Футуристическая кибертрагикомедия Оскараса Коршуноваса</t>
+          <t>Традиционный и в то же время стопроцентно авторский Чехов</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2351,7 +2345,7 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>13.05.2022</t>
+          <t>10.06.2022</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
@@ -2360,16 +2354,16 @@
         </is>
       </c>
       <c r="G32" t="n">
-        <v>6.4</v>
+        <v>4.8</v>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>Театр-фестиваль «Балтийский дом»</t>
+          <t>МДТ — Театр Европы</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>https://www.afisha.ru/performance/245157/</t>
+          <t>https://www.afisha.ru/performance/97656/</t>
         </is>
       </c>
       <c r="J32" t="inlineStr">
@@ -2379,7 +2373,7 @@
       </c>
       <c r="K32" t="inlineStr">
         <is>
-          <t>Александровский парк, 4</t>
+          <t>Рубинштейна, 18</t>
         </is>
       </c>
       <c r="L32" t="inlineStr">
@@ -2394,20 +2388,20 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Мыльные ангелы</t>
+          <t>Семья Сориано, или Итальянская комедия</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Темпераментный экзерсис режиссера Александра Морфова про то, что жизнь есть цирк</t>
+          <t>Знаменитый «Брак по-итальянски» в исполнении Натальи Сурковой и Сергея Барковского</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>300</v>
+        <v>600</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>19:00</t>
+          <t>18:00</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
@@ -2417,20 +2411,20 @@
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Драма</t>
+          <t>Комедия</t>
         </is>
       </c>
       <c r="G33" t="n">
-        <v>4.4</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>Театр им. Комиссаржевской</t>
+          <t>Молодежный театр на Фонтанке</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>https://www.afisha.ru/performance/79166/</t>
+          <t>https://www.afisha.ru/performance/82959/</t>
         </is>
       </c>
       <c r="J33" t="inlineStr">
@@ -2440,12 +2434,12 @@
       </c>
       <c r="K33" t="inlineStr">
         <is>
-          <t>Итальянская, 19</t>
+          <t>наб. реки Фонтанки, 114</t>
         </is>
       </c>
       <c r="L33" t="inlineStr">
         <is>
-          <t>-1</t>
+          <t>3 часа 30 минут, 2 антракта</t>
         </is>
       </c>
       <c r="M33" t="n">
@@ -2455,34 +2449,34 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Я боюсь любви</t>
+          <t>Ревизор</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Качественный вербатим серьезного драматурга в постановке молодого режиссера</t>
+          <t>Презабавный утренник по пьесе Гоголя, который отчего-то играют вечером</t>
         </is>
       </c>
       <c r="C34" t="n">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>19:00</t>
+          <t>12:00</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>20.06.2022</t>
+          <t>26.06.2022</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Драма</t>
+          <t>Комедия</t>
         </is>
       </c>
       <c r="G34" t="n">
-        <v>6</v>
+        <v>7.9</v>
       </c>
       <c r="H34" t="inlineStr">
         <is>
@@ -2491,12 +2485,12 @@
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>https://www.afisha.ru/performance/82222/</t>
+          <t>https://www.afisha.ru/performance/78711/</t>
         </is>
       </c>
       <c r="J34" t="inlineStr">
         <is>
-          <t>16+</t>
+          <t>12+</t>
         </is>
       </c>
       <c r="K34" t="inlineStr">
@@ -2506,7 +2500,7 @@
       </c>
       <c r="L34" t="inlineStr">
         <is>
-          <t>1 час 30 минут, без антракта</t>
+          <t>3 часа 30 минут, 1 антракт</t>
         </is>
       </c>
       <c r="M34" t="n">
@@ -2516,58 +2510,58 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Маленький принц</t>
+          <t>Оптимистическая трагедия. Прощальный бал</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Экзюпери для младших школьников — нарядный и сентиментальный</t>
+          <t>Впечатляющий мэшап о последствиях 1917 года с оглядкой на весь ХХ век</t>
         </is>
       </c>
       <c r="C35" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>11:30</t>
+          <t>19:00</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>01.05.2022</t>
+          <t>20.05.2022</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>Кукольный спектакль</t>
+          <t>Драма</t>
         </is>
       </c>
       <c r="G35" t="n">
-        <v>5.1</v>
+        <v>7.3</v>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>Большой театр кукол</t>
+          <t>Александринский театр</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>https://www.afisha.ru/performance/74266/</t>
+          <t>https://www.afisha.ru/performance/201811/</t>
         </is>
       </c>
       <c r="J35" t="inlineStr">
         <is>
-          <t>6+</t>
+          <t>16+</t>
         </is>
       </c>
       <c r="K35" t="inlineStr">
         <is>
-          <t>Некрасова, 10</t>
+          <t>пл. Островского, 2</t>
         </is>
       </c>
       <c r="L35" t="inlineStr">
         <is>
-          <t>1 час, без антракта</t>
+          <t>-1</t>
         </is>
       </c>
       <c r="M35" t="n">
@@ -2577,25 +2571,25 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Дама с собачкой</t>
+          <t>Преступление и наказание</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Чеховская история без ложной романтики: от пошлости до любви – один шаг, но его еще надо сделать</t>
+          <t>Витальное прочтение студентами Льва Эренбурга одного из самых идейных текстов Достоевского</t>
         </is>
       </c>
       <c r="C36" t="n">
-        <v>1000</v>
+        <v>600</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>18:00</t>
+          <t>19:00</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>05.06.2022</t>
+          <t>19.05.2022</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
@@ -2604,16 +2598,16 @@
         </is>
       </c>
       <c r="G36" t="n">
-        <v>4.9</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>БДТ</t>
+          <t>Небольшой драматический театр</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>https://www.afisha.ru/performance/74894/</t>
+          <t>https://www.afisha.ru/performance/90576/</t>
         </is>
       </c>
       <c r="J36" t="inlineStr">
@@ -2623,12 +2617,12 @@
       </c>
       <c r="K36" t="inlineStr">
         <is>
-          <t>наб. реки Фонтанки, 65</t>
+          <t>просп. КИМа, 6</t>
         </is>
       </c>
       <c r="L36" t="inlineStr">
         <is>
-          <t>2 часа 35 минут, 1 антракт</t>
+          <t>3 часа 15 минут</t>
         </is>
       </c>
       <c r="M36" t="n">
@@ -2638,58 +2632,58 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Бармалей</t>
+          <t>Варшавская мелодия</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Гимн заботливым и режиссерски одаренным бабушкам</t>
+          <t>Несентиментальный спектакль о любви и предательстве</t>
         </is>
       </c>
       <c r="C37" t="n">
-        <v>550</v>
+        <v>600</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>11:00</t>
+          <t>19:00</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>21.05.2022</t>
+          <t>22.06.2022</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>Кукольный спектакль</t>
+          <t>Драма</t>
         </is>
       </c>
       <c r="G37" t="n">
-        <v>6.3</v>
+        <v>8.6</v>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>Бродячая собачка</t>
+          <t>МДТ — Театр Европы</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>https://www.afisha.ru/performance/73038/</t>
+          <t>https://www.afisha.ru/performance/74051/</t>
         </is>
       </c>
       <c r="J37" t="inlineStr">
         <is>
-          <t>0+</t>
+          <t>16+</t>
         </is>
       </c>
       <c r="K37" t="inlineStr">
         <is>
-          <t>просп. Стачек, 59</t>
+          <t>Рубинштейна, 18</t>
         </is>
       </c>
       <c r="L37" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t>2 часа 15 минут, без антракта</t>
         </is>
       </c>
       <c r="M37" t="n">
@@ -2699,25 +2693,25 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Однажды в Эльсиноре. Гамлет</t>
+          <t>Братья и сестры. Версия 2015</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Секс, бокс, рок-н-ролл — в переводе Пастернака</t>
+          <t>Бессмертный спектакль Льва Додина</t>
         </is>
       </c>
       <c r="C38" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>19:00</t>
+          <t>14:30</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>28.05.2022</t>
+          <t>26.06.2022</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
@@ -2726,16 +2720,16 @@
         </is>
       </c>
       <c r="G38" t="n">
-        <v>5.2</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>Мастерская</t>
+          <t>МДТ — Театр Европы</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>https://www.afisha.ru/performance/98674/</t>
+          <t>https://www.afisha.ru/performance/66218/</t>
         </is>
       </c>
       <c r="J38" t="inlineStr">
@@ -2745,12 +2739,12 @@
       </c>
       <c r="K38" t="inlineStr">
         <is>
-          <t>Народная, 1</t>
+          <t>Рубинштейна, 18</t>
         </is>
       </c>
       <c r="L38" t="inlineStr">
         <is>
-          <t>-1</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="M38" t="n">
@@ -2760,58 +2754,58 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Старомодная комедия</t>
+          <t>Дон Кихот</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Советская лирическая комедия для двух почтенных артистов</t>
+          <t>Веселый балет на все случаи жизни</t>
         </is>
       </c>
       <c r="C39" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>19:00</t>
+          <t>18:00</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>09.05.2022</t>
+          <t>28.05.2022</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>Драма</t>
+          <t>Балет</t>
         </is>
       </c>
       <c r="G39" t="n">
-        <v>4.6</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>Приют комедианта</t>
+          <t>Михайловский театр</t>
         </is>
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>https://www.afisha.ru/performance/104925/</t>
+          <t>https://www.afisha.ru/performance/66506/</t>
         </is>
       </c>
       <c r="J39" t="inlineStr">
         <is>
-          <t>16+</t>
+          <t>12+</t>
         </is>
       </c>
       <c r="K39" t="inlineStr">
         <is>
-          <t>Садовая, 27/9</t>
+          <t>пл. Искусств, 1</t>
         </is>
       </c>
       <c r="L39" t="inlineStr">
         <is>
-          <t>2 часа 15 минут, 1 антракт</t>
+          <t>2 часа 45 минут, 2 антракта</t>
         </is>
       </c>
       <c r="M39" t="n">
@@ -2821,25 +2815,25 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Три толстяка. Эпизод 1. Восстание</t>
+          <t>Поздняя любовь</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Могучий строит коммунизм</t>
+          <t>Островский в жанре рождественской идиллии</t>
         </is>
       </c>
       <c r="C40" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>19:00</t>
+          <t>18:00</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>25.05.2022</t>
+          <t>28.05.2022</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
@@ -2848,31 +2842,31 @@
         </is>
       </c>
       <c r="G40" t="n">
-        <v>3.1</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>БДТ</t>
+          <t>Молодежный театр на Фонтанке</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>https://www.afisha.ru/performance/203746/</t>
+          <t>https://www.afisha.ru/performance/79925/</t>
         </is>
       </c>
       <c r="J40" t="inlineStr">
         <is>
-          <t>12+</t>
+          <t>16+</t>
         </is>
       </c>
       <c r="K40" t="inlineStr">
         <is>
-          <t>наб. реки Фонтанки, 65</t>
+          <t>наб. реки Фонтанки, 114</t>
         </is>
       </c>
       <c r="L40" t="inlineStr">
         <is>
-          <t>2 часа, без антракта</t>
+          <t>2 часа 55 минут, 1 антракт</t>
         </is>
       </c>
       <c r="M40" t="n">
@@ -2882,58 +2876,58 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Ай-яй ревю</t>
+          <t>Мадам Бовари</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Лучшие номера театра «Лицедеи», начиная с полунинских времен</t>
+          <t>Мифологического масштаба театральная история об истине страстей</t>
         </is>
       </c>
       <c r="C41" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>18:00</t>
+          <t>19:00</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>15.05.2022</t>
+          <t>03.06.2022</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>Комедия</t>
+          <t>Драма</t>
         </is>
       </c>
       <c r="G41" t="n">
-        <v>2.7</v>
+        <v>7.4</v>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>Лицедеи</t>
+          <t>Русская антреприза им. Андрея Миронова</t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>https://www.afisha.ru/performance/81583/</t>
+          <t>https://www.afisha.ru/performance/97009/</t>
         </is>
       </c>
       <c r="J41" t="inlineStr">
         <is>
-          <t>12+</t>
+          <t>16+</t>
         </is>
       </c>
       <c r="K41" t="inlineStr">
         <is>
-          <t>Льва Толстого, 9, ТРЦ «Толстой-сквер», 4 этаж</t>
+          <t>Большой просп. П.С., 75/35</t>
         </is>
       </c>
       <c r="L41" t="inlineStr">
         <is>
-          <t>1 час 40 минут, без антракта</t>
+          <t>3 часа 30 минут, 1 антракт</t>
         </is>
       </c>
       <c r="M41" t="n">
@@ -2943,12 +2937,12 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Мертвые души</t>
+          <t>Пять вечеров</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Спектакль-расследование от ученика Юрия Бутусова</t>
+          <t>Пронзительная история о кризисе среднего возраста</t>
         </is>
       </c>
       <c r="C42" t="n">
@@ -2961,7 +2955,7 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>27.04.2022</t>
+          <t>20.05.2022</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
@@ -2970,16 +2964,16 @@
         </is>
       </c>
       <c r="G42" t="n">
-        <v>6.6</v>
+        <v>7.8</v>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>Театр им. Ленсовета</t>
+          <t>Молодежный театр на Фонтанке</t>
         </is>
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>https://www.afisha.ru/performance/207450/</t>
+          <t>https://www.afisha.ru/performance/68085/</t>
         </is>
       </c>
       <c r="J42" t="inlineStr">
@@ -2989,12 +2983,12 @@
       </c>
       <c r="K42" t="inlineStr">
         <is>
-          <t>Владимирский просп., 12</t>
+          <t>наб. реки Фонтанки, 114</t>
         </is>
       </c>
       <c r="L42" t="inlineStr">
         <is>
-          <t>2 часа 40 минут, 1 антракт</t>
+          <t>2 часа 30 минут, 1 антракт</t>
         </is>
       </c>
       <c r="M42" t="n">
@@ -3004,43 +2998,43 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>Три толстяка. Эпизод 2. Железное сердце</t>
+          <t>Звездная покатуха</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Мир после апокалипсиса во второй части сказки-антиутопии Андрея Могучего</t>
+          <t>Все классические номера «Лицедеев» в одном спектакле</t>
         </is>
       </c>
       <c r="C43" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>19:00</t>
+          <t>18:00</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>26.05.2022</t>
+          <t>29.05.2022</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>Драма</t>
+          <t>Комедия</t>
         </is>
       </c>
       <c r="G43" t="n">
-        <v>2.8</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>БДТ</t>
+          <t>Лицедеи</t>
         </is>
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>https://www.afisha.ru/performance/203747/</t>
+          <t>https://www.afisha.ru/performance/116779/</t>
         </is>
       </c>
       <c r="J43" t="inlineStr">
@@ -3050,12 +3044,12 @@
       </c>
       <c r="K43" t="inlineStr">
         <is>
-          <t>наб. реки Фонтанки, 65</t>
+          <t>Льва Толстого, 9, ТРЦ «Толстой-сквер», 4 этаж</t>
         </is>
       </c>
       <c r="L43" t="inlineStr">
         <is>
-          <t>2 часа, без антракта</t>
+          <t>2 часа, 1 антракт</t>
         </is>
       </c>
       <c r="M43" t="n">
@@ -3065,16 +3059,16 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>Калека с острова Инишмаан</t>
+          <t>Враг народа</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Артисты БДТ играют востребованную комедию МакДонаха</t>
+          <t>Лев Додин выносит приговор обществу</t>
         </is>
       </c>
       <c r="C44" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3083,7 +3077,7 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>07.05.2022</t>
+          <t>28.06.2022</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
@@ -3092,31 +3086,31 @@
         </is>
       </c>
       <c r="G44" t="n">
-        <v>7.9</v>
+        <v>7.1</v>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>Каменноостровский театр</t>
+          <t>МДТ — Театр Европы</t>
         </is>
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>https://www.afisha.ru/performance/94152/</t>
+          <t>https://www.afisha.ru/performance/92729/</t>
         </is>
       </c>
       <c r="J44" t="inlineStr">
         <is>
-          <t>18+</t>
+          <t>16+</t>
         </is>
       </c>
       <c r="K44" t="inlineStr">
         <is>
-          <t>пл. Старого театра, 13</t>
+          <t>Рубинштейна, 18</t>
         </is>
       </c>
       <c r="L44" t="inlineStr">
         <is>
-          <t>3 часа, 1 антракт</t>
+          <t>2 часа 35 минут, 1 антракт</t>
         </is>
       </c>
       <c r="M44" t="n">
@@ -3126,52 +3120,54 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>Todd</t>
+          <t>Бабилей</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Масштабная страшилка от группы «Король и Шут»</t>
+          <t>Уникальная актриса Вера Быкова в моноспектакле по прозе Федора Абрамова</t>
         </is>
       </c>
       <c r="C45" t="n">
-        <v>2000</v>
+        <v>600</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>15:00</t>
+          <t>19:30</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>04.06.2022</t>
+          <t>12.06.2022</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>Музыкальный</t>
+          <t>Моноспектакль</t>
         </is>
       </c>
       <c r="G45" t="n">
-        <v>6.6</v>
+        <v>8.9</v>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>Октябрьский</t>
+          <t>МДТ — Театр Европы</t>
         </is>
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>https://www.afisha.ru/performance/91509/</t>
+          <t>https://www.afisha.ru/performance/86493/</t>
         </is>
       </c>
       <c r="J45" t="inlineStr">
         <is>
-          <t>12+</t>
-        </is>
-      </c>
-      <c r="K45" t="n">
-        <v>-1</v>
+          <t>16+</t>
+        </is>
+      </c>
+      <c r="K45" t="inlineStr">
+        <is>
+          <t>Рубинштейна, 18</t>
+        </is>
       </c>
       <c r="L45" t="inlineStr">
         <is>
@@ -3185,12 +3181,12 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>Три сестры</t>
+          <t>Лерка</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Экзальтированное зрелище по поводу пьесы Чехова</t>
+          <t>Смешная и жуткая история девчонки с нашего двора по текстам Василия Сигарева</t>
         </is>
       </c>
       <c r="C46" t="n">
@@ -3198,12 +3194,12 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>18:00</t>
+          <t>19:00</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>21.05.2022</t>
+          <t>07.06.2022</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
@@ -3212,31 +3208,31 @@
         </is>
       </c>
       <c r="G46" t="n">
-        <v>8.4</v>
+        <v>5.5</v>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>Театр им. Ленсовета</t>
+          <t>Театр-фестиваль «Балтийский дом»</t>
         </is>
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>https://www.afisha.ru/performance/96363/</t>
+          <t>https://www.afisha.ru/performance/78407/</t>
         </is>
       </c>
       <c r="J46" t="inlineStr">
         <is>
-          <t>16+</t>
+          <t>18+</t>
         </is>
       </c>
       <c r="K46" t="inlineStr">
         <is>
-          <t>Владимирский просп., 12</t>
+          <t>Александровский парк, 4</t>
         </is>
       </c>
       <c r="L46" t="inlineStr">
         <is>
-          <t>4 часа 40 минут, 2 антракта</t>
+          <t>-1</t>
         </is>
       </c>
       <c r="M46" t="n">
@@ -3246,58 +3242,58 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>Наш городок</t>
+          <t>Лауренсия</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Истории несуществовавших жителей несуществовавшего города</t>
+          <t>Единственный забытый балет советского наследия, который по-настоящему стоит того, чтобы его вспомнить</t>
         </is>
       </c>
       <c r="C47" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>19:00</t>
+          <t>13:00</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>05.05.2022</t>
+          <t>21.05.2022</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>Драма</t>
+          <t>Балет</t>
         </is>
       </c>
       <c r="G47" t="n">
-        <v>6.5</v>
+        <v>7.7</v>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>Молодежный театр на Фонтанке</t>
+          <t>Михайловский театр</t>
         </is>
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>https://www.afisha.ru/performance/100332/</t>
+          <t>https://www.afisha.ru/performance/81233/</t>
         </is>
       </c>
       <c r="J47" t="inlineStr">
         <is>
-          <t>16+</t>
+          <t>12+</t>
         </is>
       </c>
       <c r="K47" t="inlineStr">
         <is>
-          <t>наб. реки Фонтанки, 114</t>
+          <t>пл. Искусств, 1</t>
         </is>
       </c>
       <c r="L47" t="inlineStr">
         <is>
-          <t>2 часа 55 минут</t>
+          <t>1 час 50 минут, 1 антракт</t>
         </is>
       </c>
       <c r="M47" t="n">
@@ -3307,16 +3303,16 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>Слава</t>
+          <t>Башлачев. Человек поющий</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Константин Богомолов делает советский мюзикл с Ниной Усатовой</t>
+          <t>Молодые питерские актеры играют этюды по мотивам песен Башлачева</t>
         </is>
       </c>
       <c r="C48" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3325,7 +3321,7 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>27.05.2022</t>
+          <t>08.06.2022</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
@@ -3334,31 +3330,31 @@
         </is>
       </c>
       <c r="G48" t="n">
-        <v>7</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>БДТ</t>
+          <t>Большой театр кукол</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>https://www.afisha.ru/performance/204845/</t>
+          <t>https://www.afisha.ru/performance/83295/</t>
         </is>
       </c>
       <c r="J48" t="inlineStr">
         <is>
-          <t>12+</t>
+          <t>16+</t>
         </is>
       </c>
       <c r="K48" t="inlineStr">
         <is>
-          <t>наб. реки Фонтанки, 65</t>
+          <t>Некрасова, 10</t>
         </is>
       </c>
       <c r="L48" t="inlineStr">
         <is>
-          <t>2 часа 10 минут, 1 антракт</t>
+          <t>-1</t>
         </is>
       </c>
       <c r="M48" t="n">
@@ -3368,43 +3364,43 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>Школа налогоплательщиков</t>
+          <t>Екклесиаст</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Антикризисная комедия</t>
+          <t>Изобретательные театрально-пластические аналогии библейским афоризмам</t>
         </is>
       </c>
       <c r="C49" t="n">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>18:00</t>
+          <t>19:00</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>03.05.2022</t>
+          <t>01.06.2022</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>Комедия</t>
+          <t>Драма</t>
         </is>
       </c>
       <c r="G49" t="n">
-        <v>7.8</v>
+        <v>8.5</v>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>Молодежный театр на Фонтанке</t>
+          <t>Большой театр кукол</t>
         </is>
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>https://www.afisha.ru/performance/78906/</t>
+          <t>https://www.afisha.ru/performance/88347/</t>
         </is>
       </c>
       <c r="J49" t="inlineStr">
@@ -3414,12 +3410,12 @@
       </c>
       <c r="K49" t="inlineStr">
         <is>
-          <t>наб. реки Фонтанки, 114</t>
+          <t>Некрасова, 10</t>
         </is>
       </c>
       <c r="L49" t="inlineStr">
         <is>
-          <t>3 часа 30 минут, 2 антракта</t>
+          <t>1 час 20 минут, без антракта</t>
         </is>
       </c>
       <c r="M49" t="n">
@@ -3429,25 +3425,25 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>Идиот. Возвращение. Четыре сцены из жизни Льва Николаевича Мышкина</t>
+          <t>Счастье мое...</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Ученики Григория Козлова играют начало романа Достоевского</t>
+          <t>Маленькая трагедия о разбитом сердце пионервожатой</t>
         </is>
       </c>
       <c r="C50" t="n">
-        <v>900</v>
+        <v>600</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>18:00</t>
+          <t>19:00</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>02.05.2022</t>
+          <t>09.06.2022</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
@@ -3456,16 +3452,16 @@
         </is>
       </c>
       <c r="G50" t="n">
-        <v>7.6</v>
+        <v>7.3</v>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>Мастерская</t>
+          <t>Театр на Литейном</t>
         </is>
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>https://www.afisha.ru/performance/80617/</t>
+          <t>https://www.afisha.ru/performance/74477/</t>
         </is>
       </c>
       <c r="J50" t="inlineStr">
@@ -3475,12 +3471,12 @@
       </c>
       <c r="K50" t="inlineStr">
         <is>
-          <t>Народная, 1</t>
+          <t>Литейный просп., 51</t>
         </is>
       </c>
       <c r="L50" t="inlineStr">
         <is>
-          <t>-1</t>
+          <t>1 час 30 минут, без антракта</t>
         </is>
       </c>
       <c r="M50" t="n">
@@ -3490,16 +3486,16 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>Задержанный</t>
+          <t>Идиот. 2012</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Бархоппинг по мотивам рассказов Довлатова</t>
+          <t>Достоевский как повод порассуждать на тему «что такое хорошо и что такое плохо»</t>
         </is>
       </c>
       <c r="C51" t="n">
-        <v>2000</v>
+        <v>600</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3508,40 +3504,40 @@
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>24.04.2022</t>
+          <t>12.06.2022</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>Моноспектакль</t>
+          <t>Драма</t>
         </is>
       </c>
       <c r="G51" t="n">
-        <v>7.6</v>
+        <v>7.2</v>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>Сайгон</t>
+          <t>Молодежный театр на Фонтанке</t>
         </is>
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>https://www.afisha.ru/performance/158572/</t>
+          <t>https://www.afisha.ru/performance/89931/</t>
         </is>
       </c>
       <c r="J51" t="inlineStr">
         <is>
-          <t>18+</t>
+          <t>16+</t>
         </is>
       </c>
       <c r="K51" t="inlineStr">
         <is>
-          <t>Рубинштейна, 1</t>
+          <t>наб. реки Фонтанки, 114</t>
         </is>
       </c>
       <c r="L51" t="inlineStr">
         <is>
-          <t>-1</t>
+          <t>2 часа 50 минут, 1 антракт</t>
         </is>
       </c>
       <c r="M51" t="n">
@@ -3551,25 +3547,25 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>Стакан воды</t>
+          <t>Дом Бернарды Альбы</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Королевские интриги вокруг хорошенького капитана.</t>
+          <t>Адская драма неистовой материнской любви</t>
         </is>
       </c>
       <c r="C52" t="n">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>19:00</t>
+          <t>19:30</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>12.05.2022</t>
+          <t>27.05.2022</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
@@ -3578,31 +3574,31 @@
         </is>
       </c>
       <c r="G52" t="n">
-        <v>7.9</v>
+        <v>7.3</v>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>Молодежный театр на Фонтанке</t>
+          <t>МДТ — Театр Европы</t>
         </is>
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>https://www.afisha.ru/performance/66163/</t>
+          <t>https://www.afisha.ru/performance/68901/</t>
         </is>
       </c>
       <c r="J52" t="inlineStr">
         <is>
-          <t>16+</t>
+          <t>18+</t>
         </is>
       </c>
       <c r="K52" t="inlineStr">
         <is>
-          <t>наб. реки Фонтанки, 114</t>
+          <t>Рубинштейна, 18</t>
         </is>
       </c>
       <c r="L52" t="inlineStr">
         <is>
-          <t>3 часа 30 минут, 1 антракт</t>
+          <t>1 час 45 минут, без антракта</t>
         </is>
       </c>
       <c r="M52" t="n">
@@ -3612,25 +3608,25 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>Три сестры</t>
+          <t>Школа</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>«Три сестры» двадцать лет спустя</t>
+          <t>Ироничное сочинение на тему, как я провел школьные годы</t>
         </is>
       </c>
       <c r="C53" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>19:00</t>
+          <t>19:30</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>16.06.2022</t>
+          <t>20.05.2022</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
@@ -3639,31 +3635,31 @@
         </is>
       </c>
       <c r="G53" t="n">
-        <v>7.1</v>
+        <v>7.9</v>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>БДТ</t>
+          <t>Театр-фестиваль «Балтийский дом»</t>
         </is>
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>https://www.afisha.ru/performance/190346/</t>
+          <t>https://www.afisha.ru/performance/89678/</t>
         </is>
       </c>
       <c r="J53" t="inlineStr">
         <is>
-          <t>16+</t>
+          <t>18+</t>
         </is>
       </c>
       <c r="K53" t="inlineStr">
         <is>
-          <t>наб. реки Фонтанки, 65</t>
+          <t>Александровский парк, 4</t>
         </is>
       </c>
       <c r="L53" t="inlineStr">
         <is>
-          <t>3 часа 30 минут, 1 антракт</t>
+          <t>-1</t>
         </is>
       </c>
       <c r="M53" t="n">
@@ -3673,16 +3669,16 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>Турандот</t>
+          <t>Мы</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>Остроумная рэп-интерпретация пьесы Карла Гоцци</t>
+          <t>Молодежный спектакль по Замятину про то, как общество превращается в толпу</t>
         </is>
       </c>
       <c r="C54" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3691,7 +3687,7 @@
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>12.05.2022</t>
+          <t>27.05.2022</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
@@ -3700,16 +3696,16 @@
         </is>
       </c>
       <c r="G54" t="n">
-        <v>5.5</v>
+        <v>6.1</v>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>Мастерская</t>
+          <t>Большой театр кукол</t>
         </is>
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>https://www.afisha.ru/performance/95850/</t>
+          <t>https://www.afisha.ru/performance/78575/</t>
         </is>
       </c>
       <c r="J54" t="inlineStr">
@@ -3717,12 +3713,14 @@
           <t>16+</t>
         </is>
       </c>
-      <c r="K54" t="n">
-        <v>-1</v>
+      <c r="K54" t="inlineStr">
+        <is>
+          <t>Некрасова, 10</t>
+        </is>
       </c>
       <c r="L54" t="inlineStr">
         <is>
-          <t>3 часа 40 минут, 1 антракт</t>
+          <t>2 часа, 1 антракт</t>
         </is>
       </c>
       <c r="M54" t="n">
@@ -3732,16 +3730,16 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>Семейный портрет</t>
+          <t>Бедные люди</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>Горький, упрощенный до сериальной истории</t>
+          <t>Достоевский, адаптированный для школьников с уникальным артистом Валерием Дьяченко</t>
         </is>
       </c>
       <c r="C55" t="n">
-        <v>900</v>
+        <v>600</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3750,7 +3748,7 @@
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>25.05.2022</t>
+          <t>14.06.2022</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
@@ -3759,16 +3757,16 @@
         </is>
       </c>
       <c r="G55" t="n">
-        <v>7.9</v>
+        <v>7.4</v>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>Театр на Литейном</t>
+          <t>ТЮЗ</t>
         </is>
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>https://www.afisha.ru/performance/87640/</t>
+          <t>https://www.afisha.ru/performance/71206/</t>
         </is>
       </c>
       <c r="J55" t="inlineStr">
@@ -3778,12 +3776,12 @@
       </c>
       <c r="K55" t="inlineStr">
         <is>
-          <t>Литейный просп., 51</t>
+          <t>Пионерская пл., 1</t>
         </is>
       </c>
       <c r="L55" t="inlineStr">
         <is>
-          <t>2 часа 40 минут, 1 антракт</t>
+          <t>2 часа 15 минут, 1 антракт</t>
         </is>
       </c>
       <c r="M55" t="n">
@@ -3793,25 +3791,25 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>Братья Карамазовы</t>
+          <t>На дне</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>Незатейливое разыгрывание диалогов из романа Достоевского</t>
+          <t>Олигофрены и параноики в актуальной интерпретации Горького</t>
         </is>
       </c>
       <c r="C56" t="n">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>17:00</t>
+          <t>19:00</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>22.05.2022</t>
+          <t>28.05.2022</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
@@ -3820,26 +3818,26 @@
         </is>
       </c>
       <c r="G56" t="n">
-        <v>7.2</v>
+        <v>7.1</v>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>Мастерская</t>
+          <t>Небольшой драматический театр</t>
         </is>
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>https://www.afisha.ru/performance/102359/</t>
+          <t>https://www.afisha.ru/performance/67782/</t>
         </is>
       </c>
       <c r="J56" t="inlineStr">
         <is>
-          <t>16+</t>
+          <t>18+</t>
         </is>
       </c>
       <c r="K56" t="inlineStr">
         <is>
-          <t>Народная, 1</t>
+          <t>просп. КИМа, 6</t>
         </is>
       </c>
       <c r="L56" t="inlineStr">
@@ -3854,16 +3852,16 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>Иранская конференция</t>
+          <t>Старосветские помещики</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>Десять взглядов на современную действительность</t>
+          <t>Пронзительное соло на двоих — безукоризненный дуэт Ирины Соколовой и Валерия Дьяченко</t>
         </is>
       </c>
       <c r="C57" t="n">
-        <v>1500</v>
+        <v>600</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -3872,7 +3870,7 @@
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>01.05.2022</t>
+          <t>02.06.2022</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
@@ -3881,31 +3879,31 @@
         </is>
       </c>
       <c r="G57" t="n">
-        <v>6.2</v>
+        <v>7.5</v>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>Скороход</t>
+          <t>ТЮЗ</t>
         </is>
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t>https://www.afisha.ru/performance/229847/</t>
+          <t>https://www.afisha.ru/performance/66048/</t>
         </is>
       </c>
       <c r="J57" t="inlineStr">
         <is>
-          <t>18+</t>
+          <t>16+</t>
         </is>
       </c>
       <c r="K57" t="inlineStr">
         <is>
-          <t>Московский просп., 107, корп. 5, 4 этаж</t>
+          <t>Пионерская пл., 1</t>
         </is>
       </c>
       <c r="L57" t="inlineStr">
         <is>
-          <t>2 часа 15 минут, 1 антракт</t>
+          <t>-1</t>
         </is>
       </c>
       <c r="M57" t="n">
@@ -3915,16 +3913,16 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>Преступление и наказание</t>
+          <t>Я боюсь любви</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>Внимательное прочтение романа на сцене</t>
+          <t>Качественный вербатим серьезного драматурга в постановке молодого режиссера</t>
         </is>
       </c>
       <c r="C58" t="n">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -3933,7 +3931,7 @@
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>09.06.2022</t>
+          <t>20.06.2022</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
@@ -3942,31 +3940,31 @@
         </is>
       </c>
       <c r="G58" t="n">
-        <v>6.7</v>
+        <v>6</v>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>Приют комедианта</t>
+          <t>Театр им. Ленсовета</t>
         </is>
       </c>
       <c r="I58" t="inlineStr">
         <is>
-          <t>https://www.afisha.ru/performance/207448/</t>
+          <t>https://www.afisha.ru/performance/82222/</t>
         </is>
       </c>
       <c r="J58" t="inlineStr">
         <is>
-          <t>18+</t>
+          <t>16+</t>
         </is>
       </c>
       <c r="K58" t="inlineStr">
         <is>
-          <t>Садовая, 27/9</t>
+          <t>Владимирский просп., 12</t>
         </is>
       </c>
       <c r="L58" t="inlineStr">
         <is>
-          <t>3 часа 30 минут, 2 антракта</t>
+          <t>1 час 30 минут, без антракта</t>
         </is>
       </c>
       <c r="M58" t="n">
@@ -3976,58 +3974,58 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>Детектор лжи</t>
+          <t>Колобок</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>Провинциальный анекдот с участием гипнотизера</t>
+          <t>Выпускники Руслана Кудашова играют с детсадовским залом и с элементами собственной одежды</t>
         </is>
       </c>
       <c r="C59" t="n">
-        <v>1000</v>
+        <v>600</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>19:00</t>
+          <t>11:30</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>28.05.2022</t>
+          <t>11.06.2022</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>Драма</t>
+          <t>Кукольный спектакль</t>
         </is>
       </c>
       <c r="G59" t="n">
-        <v>5.9</v>
+        <v>7</v>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>Русская антреприза им. Андрея Миронова</t>
+          <t>Большой театр кукол</t>
         </is>
       </c>
       <c r="I59" t="inlineStr">
         <is>
-          <t>https://www.afisha.ru/performance/74887/</t>
+          <t>https://www.afisha.ru/performance/81557/</t>
         </is>
       </c>
       <c r="J59" t="inlineStr">
         <is>
-          <t>16+</t>
+          <t>0+</t>
         </is>
       </c>
       <c r="K59" t="inlineStr">
         <is>
-          <t>Большой просп. П.С., 75/35</t>
+          <t>Некрасова, 10</t>
         </is>
       </c>
       <c r="L59" t="inlineStr">
         <is>
-          <t>2 часа, 1 антракт</t>
+          <t>-1</t>
         </is>
       </c>
       <c r="M59" t="n">
@@ -4037,25 +4035,25 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>Любовь после жизни</t>
+          <t>Блаженная Ксения. История любви</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>Трагикомедия о любви в театре, в Испании, в 1938 году</t>
+          <t>Смелая и виртуозная трактовка мифа о любимой петербургской святой</t>
         </is>
       </c>
       <c r="C60" t="n">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>18:00</t>
+          <t>19:00</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>30.04.2022</t>
+          <t>22.05.2022</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
@@ -4064,31 +4062,31 @@
         </is>
       </c>
       <c r="G60" t="n">
-        <v>5.8</v>
+        <v>4.6</v>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>Молодежный театр на Фонтанке</t>
+          <t>Александринский театр</t>
         </is>
       </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t>https://www.afisha.ru/performance/90451/</t>
+          <t>https://www.afisha.ru/performance/78499/</t>
         </is>
       </c>
       <c r="J60" t="inlineStr">
         <is>
-          <t>18+</t>
+          <t>16+</t>
         </is>
       </c>
       <c r="K60" t="inlineStr">
         <is>
-          <t>наб. реки Фонтанки, 114</t>
+          <t>пл. Островского, 2</t>
         </is>
       </c>
       <c r="L60" t="inlineStr">
         <is>
-          <t>2 часа 30 минут, 1 антракт</t>
+          <t>-1</t>
         </is>
       </c>
       <c r="M60" t="n">
@@ -4098,58 +4096,58 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>Человек из Подольска</t>
+          <t>Плыл кораблик белопарусный</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>Михаил Бычков ставит самую модную пьесу последних лет</t>
+          <t>Адекватный театральный язык для уникальных поморских сказаний Шергина</t>
         </is>
       </c>
       <c r="C61" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>19:00</t>
+          <t>12:00</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>14.06.2022</t>
+          <t>25.06.2022</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>Комедия</t>
+          <t>Детский</t>
         </is>
       </c>
       <c r="G61" t="n">
-        <v>6.1</v>
+        <v>6.3</v>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>Приют комедианта</t>
+          <t>ТЮЗ</t>
         </is>
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>https://www.afisha.ru/performance/205524/</t>
+          <t>https://www.afisha.ru/performance/98125/</t>
         </is>
       </c>
       <c r="J61" t="inlineStr">
         <is>
-          <t>18+</t>
+          <t>6+</t>
         </is>
       </c>
       <c r="K61" t="inlineStr">
         <is>
-          <t>Садовая, 27/9</t>
+          <t>Пионерская пл., 1</t>
         </is>
       </c>
       <c r="L61" t="inlineStr">
         <is>
-          <t>1 час 40 минут, без антракта</t>
+          <t>1 час 20 минут, без антракта</t>
         </is>
       </c>
       <c r="M61" t="n">
@@ -4159,16 +4157,16 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>Золушка</t>
+          <t>Мнимый больной</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>Лучший российский оперный спектакль по версии «Золотой маски» конца нулевых</t>
+          <t>Лихой фарс по Мольеру с Юрием Гальцевым и Вячеславом Манучаровым</t>
         </is>
       </c>
       <c r="C62" t="n">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4177,25 +4175,25 @@
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>21.05.2022</t>
+          <t>01.06.2022</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>Опера</t>
+          <t>Драма</t>
         </is>
       </c>
       <c r="G62" t="n">
-        <v>6.5</v>
+        <v>4</v>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>Зазеркалье</t>
+          <t>Театр эстрады им. Аркадия Райкина</t>
         </is>
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t>https://www.afisha.ru/performance/77506/</t>
+          <t>https://www.afisha.ru/performance/90764/</t>
         </is>
       </c>
       <c r="J62" t="inlineStr">
@@ -4205,7 +4203,7 @@
       </c>
       <c r="K62" t="inlineStr">
         <is>
-          <t>Рубинштейна, 13</t>
+          <t>Б.Конюшенная, 27</t>
         </is>
       </c>
       <c r="L62" t="inlineStr">
@@ -4220,58 +4218,58 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>Иов</t>
+          <t>Ай-яй ревю</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>Еврейская сага</t>
+          <t>Лучшие номера театра «Лицедеи», начиная с полунинских времен</t>
         </is>
       </c>
       <c r="C63" t="n">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>19:00</t>
+          <t>18:00</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>19.05.2022</t>
+          <t>11.06.2022</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>Драма</t>
+          <t>Комедия</t>
         </is>
       </c>
       <c r="G63" t="n">
-        <v>6.3</v>
+        <v>2.7</v>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>Молодежный театр на Фонтанке</t>
+          <t>Лицедеи</t>
         </is>
       </c>
       <c r="I63" t="inlineStr">
         <is>
-          <t>https://www.afisha.ru/performance/77813/</t>
+          <t>https://www.afisha.ru/performance/81583/</t>
         </is>
       </c>
       <c r="J63" t="inlineStr">
         <is>
-          <t>16+</t>
+          <t>12+</t>
         </is>
       </c>
       <c r="K63" t="inlineStr">
         <is>
-          <t>наб. реки Фонтанки, 114</t>
+          <t>Льва Толстого, 9, ТРЦ «Толстой-сквер», 4 этаж</t>
         </is>
       </c>
       <c r="L63" t="inlineStr">
         <is>
-          <t>3 часа 30 минут, 1 антракт</t>
+          <t>1 час 40 минут, без антракта</t>
         </is>
       </c>
       <c r="M63" t="n">
@@ -4281,53 +4279,53 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>Детский альбом</t>
+          <t>Царь Pjotr</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>Гастроли петербургского театра «Зазеркалье» в Большом театре</t>
+          <t>Сказ в духе Хармса про большого мечтателя в большой политике</t>
         </is>
       </c>
       <c r="C64" t="n">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>19:00</t>
+          <t>19:30</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>14.05.2022</t>
+          <t>10.06.2022</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>Опера</t>
+          <t>Драма</t>
         </is>
       </c>
       <c r="G64" t="n">
-        <v>6.9</v>
+        <v>3.4</v>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>Зазеркалье</t>
+          <t>Театр-фестиваль «Балтийский дом»</t>
         </is>
       </c>
       <c r="I64" t="inlineStr">
         <is>
-          <t>https://www.afisha.ru/performance/66336/</t>
+          <t>https://www.afisha.ru/performance/67055/</t>
         </is>
       </c>
       <c r="J64" t="inlineStr">
         <is>
-          <t>6+</t>
+          <t>16+</t>
         </is>
       </c>
       <c r="K64" t="inlineStr">
         <is>
-          <t>Рубинштейна, 13</t>
+          <t>Александровский парк, 4</t>
         </is>
       </c>
       <c r="L64" t="inlineStr">
@@ -4342,25 +4340,25 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>У ковчега в восемь</t>
+          <t>Сирано де Бержерак</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>История великого потопа для тинэджеров: глазами пингвинов</t>
+          <t>Постмодерн-боевик на материале классического текста</t>
         </is>
       </c>
       <c r="C65" t="n">
-        <v>990</v>
+        <v>600</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>15:00</t>
+          <t>19:00</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>15.05.2022</t>
+          <t>19.05.2022</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
@@ -4369,26 +4367,26 @@
         </is>
       </c>
       <c r="G65" t="n">
-        <v>5.2</v>
+        <v>8.6</v>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>КДЦ «Московский»</t>
+          <t>Александринский театр</t>
         </is>
       </c>
       <c r="I65" t="inlineStr">
         <is>
-          <t>https://www.afisha.ru/performance/83123/</t>
+          <t>https://www.afisha.ru/performance/204940/</t>
         </is>
       </c>
       <c r="J65" t="inlineStr">
         <is>
-          <t>12+</t>
+          <t>16+</t>
         </is>
       </c>
       <c r="K65" t="inlineStr">
         <is>
-          <t>Московский просп., 152</t>
+          <t>пл. Островского, 2</t>
         </is>
       </c>
       <c r="L65" t="inlineStr">
@@ -4403,16 +4401,16 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>Книга Иова</t>
+          <t>Поминальная молитва</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>Актеры кукольного театра играют трагедию по мотивам библейского сюжета</t>
+          <t>Еще один «Тевье-молочник», зрелищный и предсказуемый</t>
         </is>
       </c>
       <c r="C66" t="n">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4421,7 +4419,7 @@
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>26.05.2022</t>
+          <t>27.05.2022</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
@@ -4430,16 +4428,16 @@
         </is>
       </c>
       <c r="G66" t="n">
-        <v>4.9</v>
+        <v>9</v>
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>Большой театр кукол</t>
+          <t>Театр на Литейном</t>
         </is>
       </c>
       <c r="I66" t="inlineStr">
         <is>
-          <t>https://www.afisha.ru/performance/100462/</t>
+          <t>https://www.afisha.ru/performance/98328/</t>
         </is>
       </c>
       <c r="J66" t="inlineStr">
@@ -4449,12 +4447,12 @@
       </c>
       <c r="K66" t="inlineStr">
         <is>
-          <t>Некрасова, 10</t>
+          <t>Литейный просп., 51</t>
         </is>
       </c>
       <c r="L66" t="inlineStr">
         <is>
-          <t>1 час 5 минут</t>
+          <t>3 часа 30 минут, 1 антракт</t>
         </is>
       </c>
       <c r="M66" t="n">
@@ -4464,16 +4462,16 @@
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>Высоцкий. Requiem</t>
+          <t>Дети солнца</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>Весь Высоцкий — в хитроумном и энергичном изложении двух хоров</t>
+          <t>Размышления об идеальном человеке</t>
         </is>
       </c>
       <c r="C67" t="n">
-        <v>1500</v>
+        <v>600</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4482,25 +4480,25 @@
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>24.04.2022</t>
+          <t>26.05.2022</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>Музыкальный</t>
+          <t>Драма</t>
         </is>
       </c>
       <c r="G67" t="n">
-        <v>2.2</v>
+        <v>3.2</v>
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>Большой театр кукол</t>
+          <t>Александринский театр</t>
         </is>
       </c>
       <c r="I67" t="inlineStr">
         <is>
-          <t>https://www.afisha.ru/performance/102509/</t>
+          <t>https://www.afisha.ru/performance/233405/</t>
         </is>
       </c>
       <c r="J67" t="inlineStr">
@@ -4510,7 +4508,7 @@
       </c>
       <c r="K67" t="inlineStr">
         <is>
-          <t>Некрасова, 10</t>
+          <t>пл. Островского, 2</t>
         </is>
       </c>
       <c r="L67" t="inlineStr">
@@ -4525,58 +4523,58 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>Свадьба Кречинского</t>
+          <t>Три сестры</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>Отличный актерский дуэт Евгения Александрова и Михаила Трясорукова.</t>
+          <t>Экзальтированное зрелище по поводу пьесы Чехова</t>
         </is>
       </c>
       <c r="C68" t="n">
-        <v>1000</v>
+        <v>600</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>19:00</t>
+          <t>18:00</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>24.04.2022</t>
+          <t>21.05.2022</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>Комедия</t>
+          <t>Драма</t>
         </is>
       </c>
       <c r="G68" t="n">
-        <v>7.2</v>
+        <v>8.4</v>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>Буфф</t>
+          <t>Театр им. Ленсовета</t>
         </is>
       </c>
       <c r="I68" t="inlineStr">
         <is>
-          <t>https://www.afisha.ru/performance/76411/</t>
+          <t>https://www.afisha.ru/performance/96363/</t>
         </is>
       </c>
       <c r="J68" t="inlineStr">
         <is>
-          <t>12+</t>
+          <t>16+</t>
         </is>
       </c>
       <c r="K68" t="inlineStr">
         <is>
-          <t>Заневский просп., 26</t>
+          <t>Владимирский просп., 12</t>
         </is>
       </c>
       <c r="L68" t="inlineStr">
         <is>
-          <t>3 часа 30 минут, 1 антракт</t>
+          <t>4 часа 40 минут, 2 антракта</t>
         </is>
       </c>
       <c r="M68" t="n">
@@ -4586,12 +4584,12 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>Отцы и дети</t>
+          <t>Шоу под дождем II «Дышу тобой»</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>Лирическая драма о конфликте поколений по мотивам Тургенева.</t>
+          <t>Танцевальный спектакль со сценами под дождем</t>
         </is>
       </c>
       <c r="C69" t="n">
@@ -4604,40 +4602,40 @@
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>18.06.2022</t>
+          <t>29.05.2022</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>Драма</t>
+          <t>Танцевальный</t>
         </is>
       </c>
       <c r="G69" t="n">
-        <v>3.8</v>
+        <v>8</v>
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>ТЮЗ</t>
+          <t>ДК им. Ленсовета</t>
         </is>
       </c>
       <c r="I69" t="inlineStr">
         <is>
-          <t>https://www.afisha.ru/performance/78058/</t>
+          <t>https://www.afisha.ru/performance/95791/</t>
         </is>
       </c>
       <c r="J69" t="inlineStr">
         <is>
-          <t>12+</t>
+          <t>16+</t>
         </is>
       </c>
       <c r="K69" t="inlineStr">
         <is>
-          <t>Пионерская пл., 1</t>
+          <t>Каменноостровский просп., 42</t>
         </is>
       </c>
       <c r="L69" t="inlineStr">
         <is>
-          <t>2 часа 40 минут, 1 антракт</t>
+          <t>-1</t>
         </is>
       </c>
       <c r="M69" t="n">
@@ -4647,12 +4645,12 @@
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>Женитьба Белугина</t>
+          <t>Лебединое озеро</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>Брак по расчету оборачивается любовной идиллией</t>
+          <t>Нетленная балетная классика</t>
         </is>
       </c>
       <c r="C70" t="n">
@@ -4660,40 +4658,40 @@
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>19:00</t>
+          <t>11:30</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>24.05.2022</t>
+          <t>28.05.2022</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>Драма</t>
+          <t>Балет</t>
         </is>
       </c>
       <c r="G70" t="n">
-        <v>8.1</v>
+        <v>8</v>
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>Театр-фестиваль «Балтийский дом»</t>
+          <t>Мариинский театр</t>
         </is>
       </c>
       <c r="I70" t="inlineStr">
         <is>
-          <t>https://www.afisha.ru/performance/83293/</t>
+          <t>https://www.afisha.ru/performance/67136/</t>
         </is>
       </c>
       <c r="J70" t="inlineStr">
         <is>
-          <t>12+</t>
+          <t>6+</t>
         </is>
       </c>
       <c r="K70" t="inlineStr">
         <is>
-          <t>Александровский парк, 4</t>
+          <t>Театральная пл., 1</t>
         </is>
       </c>
       <c r="L70" t="inlineStr">
@@ -4708,16 +4706,16 @@
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>Шутники</t>
+          <t>Школа налогоплательщиков</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>Бытовой, жизнеподобный психологический театр</t>
+          <t>Антикризисная комедия</t>
         </is>
       </c>
       <c r="C71" t="n">
-        <v>1000</v>
+        <v>600</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4726,40 +4724,40 @@
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>11.05.2022</t>
+          <t>20.05.2022</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>Драма</t>
+          <t>Комедия</t>
         </is>
       </c>
       <c r="G71" t="n">
-        <v>8.1</v>
+        <v>7.8</v>
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>Русская антреприза им. Андрея Миронова</t>
+          <t>Молодежный театр на Фонтанке</t>
         </is>
       </c>
       <c r="I71" t="inlineStr">
         <is>
-          <t>https://www.afisha.ru/performance/69518/</t>
+          <t>https://www.afisha.ru/performance/78906/</t>
         </is>
       </c>
       <c r="J71" t="inlineStr">
         <is>
-          <t>12+</t>
+          <t>16+</t>
         </is>
       </c>
       <c r="K71" t="inlineStr">
         <is>
-          <t>Большой просп. П.С., 75/35</t>
+          <t>наб. реки Фонтанки, 114</t>
         </is>
       </c>
       <c r="L71" t="inlineStr">
         <is>
-          <t>3 часа 15 минут, 1 антракт</t>
+          <t>3 часа 30 минут, 2 антракта</t>
         </is>
       </c>
       <c r="M71" t="n">
@@ -4769,58 +4767,58 @@
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>Бременские музыканты</t>
+          <t>Стакан воды</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>Всеми любимая музыкальная сказка с современными диалогами и аранжировками</t>
+          <t>Королевские интриги вокруг хорошенького капитана.</t>
         </is>
       </c>
       <c r="C72" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>13:00</t>
+          <t>19:00</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>29.05.2022</t>
+          <t>01.06.2022</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>Детский</t>
+          <t>Драма</t>
         </is>
       </c>
       <c r="G72" t="n">
-        <v>7</v>
+        <v>7.9</v>
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>Мастерская</t>
+          <t>Молодежный театр на Фонтанке</t>
         </is>
       </c>
       <c r="I72" t="inlineStr">
         <is>
-          <t>https://www.afisha.ru/performance/88737/</t>
+          <t>https://www.afisha.ru/performance/66163/</t>
         </is>
       </c>
       <c r="J72" t="inlineStr">
         <is>
-          <t>6+</t>
+          <t>16+</t>
         </is>
       </c>
       <c r="K72" t="inlineStr">
         <is>
-          <t>Народная, 1</t>
+          <t>наб. реки Фонтанки, 114</t>
         </is>
       </c>
       <c r="L72" t="inlineStr">
         <is>
-          <t>1 час 30 минут, без антракта</t>
+          <t>3 часа 30 минут, 1 антракт</t>
         </is>
       </c>
       <c r="M72" t="n">
@@ -4830,53 +4828,53 @@
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>Лейтенант с острова Инишмор</t>
+          <t>Привидения</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>Запредельно черная комедия: из трех котов выживет только один</t>
+          <t>Семейная драма про то, как ложь отцов убивает детей</t>
         </is>
       </c>
       <c r="C73" t="n">
-        <v>1200</v>
+        <v>600</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>19:00</t>
+          <t>19:30</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>19.05.2022</t>
+          <t>28.05.2022</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>Комедия</t>
+          <t>Драма</t>
         </is>
       </c>
       <c r="G73" t="n">
-        <v>7.2</v>
+        <v>7.7</v>
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>За Черной речкой</t>
+          <t>МДТ — Театр Европы</t>
         </is>
       </c>
       <c r="I73" t="inlineStr">
         <is>
-          <t>https://www.afisha.ru/performance/78792/</t>
+          <t>https://www.afisha.ru/performance/83904/</t>
         </is>
       </c>
       <c r="J73" t="inlineStr">
         <is>
-          <t>18+</t>
+          <t>16+</t>
         </is>
       </c>
       <c r="K73" t="inlineStr">
         <is>
-          <t>Богатырский просп., 4</t>
+          <t>Рубинштейна, 18</t>
         </is>
       </c>
       <c r="L73" t="inlineStr">
@@ -4891,16 +4889,16 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>Живой товар</t>
+          <t>Семейный портрет</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>Пошлый романчик перерастает в человеческую трагедию.</t>
+          <t>Горький, упрощенный до сериальной истории</t>
         </is>
       </c>
       <c r="C74" t="n">
-        <v>300</v>
+        <v>600</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -4909,7 +4907,7 @@
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>05.05.2022</t>
+          <t>25.05.2022</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
@@ -4918,31 +4916,31 @@
         </is>
       </c>
       <c r="G74" t="n">
-        <v>2.3</v>
+        <v>7.9</v>
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>Театр им. Комиссаржевской</t>
+          <t>Театр на Литейном</t>
         </is>
       </c>
       <c r="I74" t="inlineStr">
         <is>
-          <t>https://www.afisha.ru/performance/76119/</t>
+          <t>https://www.afisha.ru/performance/87640/</t>
         </is>
       </c>
       <c r="J74" t="inlineStr">
         <is>
-          <t>14+</t>
+          <t>16+</t>
         </is>
       </c>
       <c r="K74" t="inlineStr">
         <is>
-          <t>Итальянская, 19</t>
+          <t>Литейный просп., 51</t>
         </is>
       </c>
       <c r="L74" t="inlineStr">
         <is>
-          <t>2 часа 45 минут, 1 антракт</t>
+          <t>2 часа 40 минут, 1 антракт</t>
         </is>
       </c>
       <c r="M74" t="n">
@@ -4952,58 +4950,58 @@
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>Сказка для непослушных медвежат</t>
+          <t>Мертвые души</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>Нравоучительная сказка для дошкольников</t>
+          <t>Спектакль-расследование от ученика Юрия Бутусова</t>
         </is>
       </c>
       <c r="C75" t="n">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>11:30</t>
+          <t>19:00</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>03.05.2022</t>
+          <t>06.06.2022</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>Кукольный спектакль</t>
+          <t>Драма</t>
         </is>
       </c>
       <c r="G75" t="n">
-        <v>6.5</v>
+        <v>6.6</v>
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>Большой театр кукол</t>
+          <t>Театр им. Ленсовета</t>
         </is>
       </c>
       <c r="I75" t="inlineStr">
         <is>
-          <t>https://www.afisha.ru/performance/76633/</t>
+          <t>https://www.afisha.ru/performance/207450/</t>
         </is>
       </c>
       <c r="J75" t="inlineStr">
         <is>
-          <t>0+</t>
+          <t>16+</t>
         </is>
       </c>
       <c r="K75" t="inlineStr">
         <is>
-          <t>Некрасова, 10</t>
+          <t>Владимирский просп., 12</t>
         </is>
       </c>
       <c r="L75" t="inlineStr">
         <is>
-          <t>1 час 30 минут, 1 антракт</t>
+          <t>2 часа 40 минут, 1 антракт</t>
         </is>
       </c>
       <c r="M75" t="n">
@@ -5013,16 +5011,16 @@
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>Дон Жуан</t>
+          <t>Братья Карамазовы</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>Классическая опера в постановке радикала Юрия Александрова</t>
+          <t>Постдраматический Достоевский</t>
         </is>
       </c>
       <c r="C76" t="n">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5031,25 +5029,25 @@
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>29.04.2022</t>
+          <t>24.05.2022</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>Опера</t>
+          <t>Драма</t>
         </is>
       </c>
       <c r="G76" t="n">
-        <v>5.3</v>
+        <v>6.1</v>
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>Санкт-Петербург Опера</t>
+          <t>МДТ — Театр Европы</t>
         </is>
       </c>
       <c r="I76" t="inlineStr">
         <is>
-          <t>https://www.afisha.ru/performance/78313/</t>
+          <t>https://www.afisha.ru/performance/232171/</t>
         </is>
       </c>
       <c r="J76" t="inlineStr">
@@ -5059,12 +5057,12 @@
       </c>
       <c r="K76" t="inlineStr">
         <is>
-          <t>Галерная, 33</t>
+          <t>Рубинштейна, 18</t>
         </is>
       </c>
       <c r="L76" t="inlineStr">
         <is>
-          <t>3 часа 10 минут</t>
+          <t>3 часа 20 минут, 1 антракт</t>
         </is>
       </c>
       <c r="M76" t="n">
@@ -5074,16 +5072,16 @@
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>Ворон</t>
+          <t>Белый. Петербург</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>Страшная сказка для взрослых с конструктивистскими аттракционами</t>
+          <t>Фантасмагорический мюзикл по роману Андрея Белого</t>
         </is>
       </c>
       <c r="C77" t="n">
-        <v>900</v>
+        <v>600</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5092,25 +5090,25 @@
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>15.05.2022</t>
+          <t>28.06.2022</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>Драма</t>
+          <t>Музыкальный</t>
         </is>
       </c>
       <c r="G77" t="n">
-        <v>7.7</v>
+        <v>7.3</v>
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>Александринский театр</t>
+          <t>Театр музыкальной комедии</t>
         </is>
       </c>
       <c r="I77" t="inlineStr">
         <is>
-          <t>https://www.afisha.ru/performance/87654/</t>
+          <t>https://www.afisha.ru/performance/102989/</t>
         </is>
       </c>
       <c r="J77" t="inlineStr">
@@ -5120,12 +5118,12 @@
       </c>
       <c r="K77" t="inlineStr">
         <is>
-          <t>пл. Островского, 2</t>
+          <t>Итальянская, 13</t>
         </is>
       </c>
       <c r="L77" t="inlineStr">
         <is>
-          <t>-1</t>
+          <t>3 часа 15 минут, 1 антракт</t>
         </is>
       </c>
       <c r="M77" t="n">
@@ -5135,16 +5133,16 @@
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>Иисус Христос — суперзвезда</t>
+          <t>Севильский цирюльник</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>Постановка питерского театра «Рок-опера»</t>
+          <t>Легкая культурная программа для всей семьи</t>
         </is>
       </c>
       <c r="C78" t="n">
-        <v>900</v>
+        <v>600</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5153,40 +5151,40 @@
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>24.04.2022</t>
+          <t>20.05.2022</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>Музыкальный</t>
+          <t>Опера</t>
         </is>
       </c>
       <c r="G78" t="n">
-        <v>8.5</v>
+        <v>6.8</v>
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>ДК им. Ленсовета</t>
+          <t>Мариинский-2</t>
         </is>
       </c>
       <c r="I78" t="inlineStr">
         <is>
-          <t>https://www.afisha.ru/performance/66149/</t>
+          <t>https://www.afisha.ru/performance/100065/</t>
         </is>
       </c>
       <c r="J78" t="inlineStr">
         <is>
-          <t>12+</t>
+          <t>16+</t>
         </is>
       </c>
       <c r="K78" t="inlineStr">
         <is>
-          <t>Каменноостровский просп., 42</t>
+          <t>Декабристов, 34а</t>
         </is>
       </c>
       <c r="L78" t="inlineStr">
         <is>
-          <t>-1</t>
+          <t>3 часа 10 минут, 1 антракт</t>
         </is>
       </c>
       <c r="M78" t="n">
@@ -5196,58 +5194,58 @@
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>Когда я снова стану маленьким</t>
+          <t>Ромео и Джульетта</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>Энциклопедия подростковых грез и слез, упакованная в 15 чемоданов</t>
+          <t>Битва хрупкого хореографа Дуато с балетом-монстром</t>
         </is>
       </c>
       <c r="C79" t="n">
-        <v>900</v>
+        <v>600</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>18:00</t>
+          <t>19:00</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>24.04.2022</t>
+          <t>10.06.2022</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>Кукольный спектакль</t>
+          <t>Балет</t>
         </is>
       </c>
       <c r="G79" t="n">
-        <v>8.300000000000001</v>
+        <v>6.9</v>
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>БДТ</t>
+          <t>Михайловский театр</t>
         </is>
       </c>
       <c r="I79" t="inlineStr">
         <is>
-          <t>https://www.afisha.ru/performance/97786/</t>
+          <t>https://www.afisha.ru/performance/91766/</t>
         </is>
       </c>
       <c r="J79" t="inlineStr">
         <is>
-          <t>6+</t>
+          <t>12+</t>
         </is>
       </c>
       <c r="K79" t="inlineStr">
         <is>
-          <t>наб. реки Фонтанки, 65</t>
+          <t>пл. Искусств, 1</t>
         </is>
       </c>
       <c r="L79" t="inlineStr">
         <is>
-          <t>1 час 30 минут, без антракта</t>
+          <t>2 часа 30 минут, 1 антракт</t>
         </is>
       </c>
       <c r="M79" t="n">
@@ -5257,16 +5255,16 @@
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>Коварство и любовь</t>
+          <t>Иов</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>Выдающаийся спектакль Льва Додина по знаменитой трагедии Шиллера</t>
+          <t>Еврейская сага</t>
         </is>
       </c>
       <c r="C80" t="n">
-        <v>900</v>
+        <v>600</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5275,7 +5273,7 @@
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>14.05.2022</t>
+          <t>19.05.2022</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
@@ -5284,16 +5282,16 @@
         </is>
       </c>
       <c r="G80" t="n">
-        <v>7.4</v>
+        <v>6.3</v>
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>МДТ — Театр Европы</t>
+          <t>Молодежный театр на Фонтанке</t>
         </is>
       </c>
       <c r="I80" t="inlineStr">
         <is>
-          <t>https://www.afisha.ru/performance/91030/</t>
+          <t>https://www.afisha.ru/performance/77813/</t>
         </is>
       </c>
       <c r="J80" t="inlineStr">
@@ -5303,12 +5301,12 @@
       </c>
       <c r="K80" t="inlineStr">
         <is>
-          <t>Рубинштейна, 18</t>
+          <t>наб. реки Фонтанки, 114</t>
         </is>
       </c>
       <c r="L80" t="inlineStr">
         <is>
-          <t>2 часа 15 минут, без антракта</t>
+          <t>3 часа 30 минут, 1 антракт</t>
         </is>
       </c>
       <c r="M80" t="n">
@@ -5318,58 +5316,58 @@
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>Братья и сестры. Версия 2015</t>
+          <t>Щелкунчик</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>Бессмертный спектакль Льва Додина</t>
+          <t>Дуато и пустота: самый грустный «Щелкунчик» Петербурга</t>
         </is>
       </c>
       <c r="C81" t="n">
-        <v>900</v>
+        <v>600</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>14:30</t>
+          <t>13:00</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>09.05.2022</t>
+          <t>04.06.2022</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>Драма</t>
+          <t>Балет</t>
         </is>
       </c>
       <c r="G81" t="n">
-        <v>8.800000000000001</v>
+        <v>5.4</v>
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>МДТ — Театр Европы</t>
+          <t>Михайловский театр</t>
         </is>
       </c>
       <c r="I81" t="inlineStr">
         <is>
-          <t>https://www.afisha.ru/performance/66218/</t>
+          <t>https://www.afisha.ru/performance/66632/</t>
         </is>
       </c>
       <c r="J81" t="inlineStr">
         <is>
-          <t>16+</t>
+          <t>6+</t>
         </is>
       </c>
       <c r="K81" t="inlineStr">
         <is>
-          <t>Рубинштейна, 18</t>
+          <t>пл. Искусств, 1</t>
         </is>
       </c>
       <c r="L81" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t>2 часа, 1 антракт</t>
         </is>
       </c>
       <c r="M81" t="n">
@@ -5379,16 +5377,16 @@
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>Дон Кихот</t>
+          <t>Сильва</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>Веселый балет на все случаи жизни</t>
+          <t>Спектакль Санкт-Петербургского государственного театра музыкальной комедии</t>
         </is>
       </c>
       <c r="C82" t="n">
-        <v>900</v>
+        <v>600</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5397,25 +5395,25 @@
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>27.04.2022</t>
+          <t>04.06.2022</t>
         </is>
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>Балет</t>
+          <t>Оперетта</t>
         </is>
       </c>
       <c r="G82" t="n">
-        <v>8.199999999999999</v>
+        <v>5.6</v>
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>Михайловский театр</t>
+          <t>Театр музыкальной комедии</t>
         </is>
       </c>
       <c r="I82" t="inlineStr">
         <is>
-          <t>https://www.afisha.ru/performance/66506/</t>
+          <t>https://www.afisha.ru/performance/72819/</t>
         </is>
       </c>
       <c r="J82" t="inlineStr">
@@ -5425,12 +5423,12 @@
       </c>
       <c r="K82" t="inlineStr">
         <is>
-          <t>пл. Искусств, 1</t>
+          <t>Итальянская, 13</t>
         </is>
       </c>
       <c r="L82" t="inlineStr">
         <is>
-          <t>2 часа 45 минут, 2 антракта</t>
+          <t>3 часа 15 минут, 2 антракта</t>
         </is>
       </c>
       <c r="M82" t="n">
@@ -5440,16 +5438,16 @@
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>Бесплодные усилия любви</t>
+          <t>Наш городок</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>Парадоксальный трагифарс Льва Додина о том, что юность и любовь — две вещи несовместные</t>
+          <t>Истории несуществовавших жителей несуществовавшего города</t>
         </is>
       </c>
       <c r="C83" t="n">
-        <v>900</v>
+        <v>600</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5458,7 +5456,7 @@
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>26.04.2022</t>
+          <t>03.06.2022</t>
         </is>
       </c>
       <c r="F83" t="inlineStr">
@@ -5467,16 +5465,16 @@
         </is>
       </c>
       <c r="G83" t="n">
-        <v>8.300000000000001</v>
+        <v>6.5</v>
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>МДТ — Театр Европы</t>
+          <t>Молодежный театр на Фонтанке</t>
         </is>
       </c>
       <c r="I83" t="inlineStr">
         <is>
-          <t>https://www.afisha.ru/performance/76364/</t>
+          <t>https://www.afisha.ru/performance/100332/</t>
         </is>
       </c>
       <c r="J83" t="inlineStr">
@@ -5486,12 +5484,12 @@
       </c>
       <c r="K83" t="inlineStr">
         <is>
-          <t>Рубинштейна, 18</t>
+          <t>наб. реки Фонтанки, 114</t>
         </is>
       </c>
       <c r="L83" t="inlineStr">
         <is>
-          <t>2 часа 15 минут, без антракта</t>
+          <t>2 часа 55 минут</t>
         </is>
       </c>
       <c r="M83" t="n">
@@ -5501,25 +5499,25 @@
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>Жизнь за царя</t>
+          <t>Любовь после жизни</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>Театральная актуализация «дела народовольцев»</t>
+          <t>Трагикомедия о любви в театре, в Испании, в 1938 году</t>
         </is>
       </c>
       <c r="C84" t="n">
-        <v>900</v>
+        <v>600</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>17:00</t>
+          <t>18:00</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>30.04.2022</t>
+          <t>29.05.2022</t>
         </is>
       </c>
       <c r="F84" t="inlineStr">
@@ -5528,31 +5526,31 @@
         </is>
       </c>
       <c r="G84" t="n">
-        <v>9.300000000000001</v>
+        <v>5.8</v>
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>Karlsson Haus на Фурштатской</t>
+          <t>Молодежный театр на Фонтанке</t>
         </is>
       </c>
       <c r="I84" t="inlineStr">
         <is>
-          <t>https://www.afisha.ru/performance/98390/</t>
+          <t>https://www.afisha.ru/performance/90451/</t>
         </is>
       </c>
       <c r="J84" t="inlineStr">
         <is>
-          <t>16+</t>
+          <t>18+</t>
         </is>
       </c>
       <c r="K84" t="inlineStr">
         <is>
-          <t>Фурштатская, 30</t>
+          <t>наб. реки Фонтанки, 114</t>
         </is>
       </c>
       <c r="L84" t="inlineStr">
         <is>
-          <t>-1</t>
+          <t>2 часа 30 минут, 1 антракт</t>
         </is>
       </c>
       <c r="M84" t="n">
@@ -5562,16 +5560,16 @@
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>Гамлет</t>
+          <t>Трое на качелях</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>Детективная драма о безуспешной борьбе с системой</t>
+          <t>Мистическая комедия с внешними признаками стимпанка</t>
         </is>
       </c>
       <c r="C85" t="n">
-        <v>900</v>
+        <v>600</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5580,7 +5578,7 @@
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>05.05.2022</t>
+          <t>21.05.2022</t>
         </is>
       </c>
       <c r="F85" t="inlineStr">
@@ -5589,16 +5587,16 @@
         </is>
       </c>
       <c r="G85" t="n">
-        <v>8.1</v>
+        <v>3.1</v>
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>Александринский театр</t>
+          <t>Театр на Васильевском</t>
         </is>
       </c>
       <c r="I85" t="inlineStr">
         <is>
-          <t>https://www.afisha.ru/performance/80861/</t>
+          <t>https://www.afisha.ru/performance/103544/</t>
         </is>
       </c>
       <c r="J85" t="inlineStr">
@@ -5608,12 +5606,12 @@
       </c>
       <c r="K85" t="inlineStr">
         <is>
-          <t>пл. Островского, 2</t>
+          <t>Средний просп. В.О., 48</t>
         </is>
       </c>
       <c r="L85" t="inlineStr">
         <is>
-          <t>-1</t>
+          <t>2 часа 40 минут, 1 антракт</t>
         </is>
       </c>
       <c r="M85" t="n">
@@ -5623,16 +5621,16 @@
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>Оптимистическая трагедия. Прощальный бал</t>
+          <t>Книга Иова</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>Впечатляющий мэшап о последствиях 1917 года с оглядкой на весь ХХ век</t>
+          <t>Актеры кукольного театра играют трагедию по мотивам библейского сюжета</t>
         </is>
       </c>
       <c r="C86" t="n">
-        <v>900</v>
+        <v>600</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5641,7 +5639,7 @@
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>28.04.2022</t>
+          <t>26.05.2022</t>
         </is>
       </c>
       <c r="F86" t="inlineStr">
@@ -5650,16 +5648,16 @@
         </is>
       </c>
       <c r="G86" t="n">
-        <v>7.3</v>
+        <v>4.9</v>
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>Александринский театр</t>
+          <t>Большой театр кукол</t>
         </is>
       </c>
       <c r="I86" t="inlineStr">
         <is>
-          <t>https://www.afisha.ru/performance/201811/</t>
+          <t>https://www.afisha.ru/performance/100462/</t>
         </is>
       </c>
       <c r="J86" t="inlineStr">
@@ -5669,12 +5667,12 @@
       </c>
       <c r="K86" t="inlineStr">
         <is>
-          <t>пл. Островского, 2</t>
+          <t>Некрасова, 10</t>
         </is>
       </c>
       <c r="L86" t="inlineStr">
         <is>
-          <t>-1</t>
+          <t>1 час 5 минут</t>
         </is>
       </c>
       <c r="M86" t="n">
@@ -5684,16 +5682,16 @@
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>Женитьба</t>
+          <t>Отцы и дети</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>Частная жизнь на бойком месте</t>
+          <t>Лирическая драма о конфликте поколений по мотивам Тургенева.</t>
         </is>
       </c>
       <c r="C87" t="n">
-        <v>900</v>
+        <v>600</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5702,7 +5700,7 @@
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>29.04.2022</t>
+          <t>18.06.2022</t>
         </is>
       </c>
       <c r="F87" t="inlineStr">
@@ -5711,16 +5709,16 @@
         </is>
       </c>
       <c r="G87" t="n">
-        <v>6.9</v>
+        <v>3.8</v>
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>Александринский театр</t>
+          <t>ТЮЗ</t>
         </is>
       </c>
       <c r="I87" t="inlineStr">
         <is>
-          <t>https://www.afisha.ru/performance/75714/</t>
+          <t>https://www.afisha.ru/performance/78058/</t>
         </is>
       </c>
       <c r="J87" t="inlineStr">
@@ -5730,12 +5728,12 @@
       </c>
       <c r="K87" t="inlineStr">
         <is>
-          <t>пл. Островского, 2</t>
+          <t>Пионерская пл., 1</t>
         </is>
       </c>
       <c r="L87" t="inlineStr">
         <is>
-          <t>-1</t>
+          <t>2 часа 40 минут, 1 антракт</t>
         </is>
       </c>
       <c r="M87" t="n">
@@ -5745,16 +5743,16 @@
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>Маскарад. Воспоминания будущего</t>
+          <t>Высоцкий. Requiem</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>Сцена Александринки как пятое измерение</t>
+          <t>Весь Высоцкий — в хитроумном и энергичном изложении двух хоров</t>
         </is>
       </c>
       <c r="C88" t="n">
-        <v>900</v>
+        <v>600</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5763,25 +5761,25 @@
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>12.05.2022</t>
+          <t>25.05.2022</t>
         </is>
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>Драма</t>
+          <t>Музыкальный</t>
         </is>
       </c>
       <c r="G88" t="n">
-        <v>7.9</v>
+        <v>2.2</v>
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>Александринский театр</t>
+          <t>Большой театр кукол</t>
         </is>
       </c>
       <c r="I88" t="inlineStr">
         <is>
-          <t>https://www.afisha.ru/performance/99846/</t>
+          <t>https://www.afisha.ru/performance/102509/</t>
         </is>
       </c>
       <c r="J88" t="inlineStr">
@@ -5791,12 +5789,12 @@
       </c>
       <c r="K88" t="inlineStr">
         <is>
-          <t>пл. Островского, 2</t>
+          <t>Некрасова, 10</t>
         </is>
       </c>
       <c r="L88" t="inlineStr">
         <is>
-          <t>2 часа 30 минут, 1 антракт</t>
+          <t>2 часа, без антракта</t>
         </is>
       </c>
       <c r="M88" t="n">
@@ -5806,53 +5804,53 @@
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>Бабилей</t>
+          <t>Женитьба Белугина</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>Уникальная актриса Вера Быкова в моноспектакле по прозе Федора Абрамова</t>
+          <t>Брак по расчету оборачивается любовной идиллией</t>
         </is>
       </c>
       <c r="C89" t="n">
-        <v>900</v>
+        <v>600</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>19:30</t>
+          <t>19:00</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>07.05.2022</t>
+          <t>24.05.2022</t>
         </is>
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>Моноспектакль</t>
+          <t>Драма</t>
         </is>
       </c>
       <c r="G89" t="n">
-        <v>8.9</v>
+        <v>8.1</v>
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>МДТ — Театр Европы</t>
+          <t>Театр-фестиваль «Балтийский дом»</t>
         </is>
       </c>
       <c r="I89" t="inlineStr">
         <is>
-          <t>https://www.afisha.ru/performance/86493/</t>
+          <t>https://www.afisha.ru/performance/83293/</t>
         </is>
       </c>
       <c r="J89" t="inlineStr">
         <is>
-          <t>16+</t>
+          <t>12+</t>
         </is>
       </c>
       <c r="K89" t="inlineStr">
         <is>
-          <t>Рубинштейна, 18</t>
+          <t>Александровский парк, 4</t>
         </is>
       </c>
       <c r="L89" t="inlineStr">
@@ -5867,58 +5865,58 @@
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>Евгений Онегин</t>
+          <t>Русское варенье</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>Борис Эйфман достает из сундука спектакль про лихие 90-е</t>
+          <t>Комедия Людмилы Улицкой на чеховские темы</t>
         </is>
       </c>
       <c r="C90" t="n">
-        <v>900</v>
+        <v>600</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>20:00</t>
+          <t>19:00</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>30.04.2022</t>
+          <t>03.06.2022</t>
         </is>
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>Балет</t>
+          <t>Драма</t>
         </is>
       </c>
       <c r="G90" t="n">
-        <v>6.9</v>
+        <v>7.2</v>
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>Александринский театр</t>
+          <t>Театр на Васильевском</t>
         </is>
       </c>
       <c r="I90" t="inlineStr">
         <is>
-          <t>https://www.afisha.ru/performance/78694/</t>
+          <t>https://www.afisha.ru/performance/74889/</t>
         </is>
       </c>
       <c r="J90" t="inlineStr">
         <is>
-          <t>пл. Островского, 2</t>
+          <t>16+</t>
         </is>
       </c>
       <c r="K90" t="inlineStr">
         <is>
-          <t>пл. Островского, 2</t>
+          <t>Средний просп. В.О., 48</t>
         </is>
       </c>
       <c r="L90" t="inlineStr">
         <is>
-          <t>-1</t>
+          <t>2 часа 15 минут, без антракта</t>
         </is>
       </c>
       <c r="M90" t="n">
@@ -5928,16 +5926,16 @@
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>Нана</t>
+          <t>Лейтенант с острова Инишмор</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>Андрий Жолдак фантазирует по мотивам романа Эмиля Золя</t>
+          <t>Запредельно черная комедия: из трех котов выживет только один</t>
         </is>
       </c>
       <c r="C91" t="n">
-        <v>900</v>
+        <v>600</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -5946,25 +5944,25 @@
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>11.05.2022</t>
+          <t>19.05.2022</t>
         </is>
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>Драма</t>
+          <t>Комедия</t>
         </is>
       </c>
       <c r="G91" t="n">
-        <v>7</v>
+        <v>7.2</v>
       </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>Александринский театр. Новая сцена</t>
+          <t>За Черной речкой</t>
         </is>
       </c>
       <c r="I91" t="inlineStr">
         <is>
-          <t>https://www.afisha.ru/performance/231175/</t>
+          <t>https://www.afisha.ru/performance/78792/</t>
         </is>
       </c>
       <c r="J91" t="inlineStr">
@@ -5974,1723 +5972,15 @@
       </c>
       <c r="K91" t="inlineStr">
         <is>
-          <t>наб. реки Фонтанки, 49а</t>
+          <t>Богатырский просп., 4</t>
         </is>
       </c>
       <c r="L91" t="inlineStr">
         <is>
-          <t>3 часа, 1 антракт</t>
+          <t>-1</t>
         </is>
       </c>
       <c r="M91" t="n">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="92">
-      <c r="A92" t="inlineStr">
-        <is>
-          <t>Дом Бернарды Альбы</t>
-        </is>
-      </c>
-      <c r="B92" t="inlineStr">
-        <is>
-          <t>Адская драма неистовой материнской любви</t>
-        </is>
-      </c>
-      <c r="C92" t="n">
-        <v>900</v>
-      </c>
-      <c r="D92" t="inlineStr">
-        <is>
-          <t>19:30</t>
-        </is>
-      </c>
-      <c r="E92" t="inlineStr">
-        <is>
-          <t>27.05.2022</t>
-        </is>
-      </c>
-      <c r="F92" t="inlineStr">
-        <is>
-          <t>Драма</t>
-        </is>
-      </c>
-      <c r="G92" t="n">
-        <v>7.3</v>
-      </c>
-      <c r="H92" t="inlineStr">
-        <is>
-          <t>МДТ — Театр Европы</t>
-        </is>
-      </c>
-      <c r="I92" t="inlineStr">
-        <is>
-          <t>https://www.afisha.ru/performance/68901/</t>
-        </is>
-      </c>
-      <c r="J92" t="inlineStr">
-        <is>
-          <t>18+</t>
-        </is>
-      </c>
-      <c r="K92" t="inlineStr">
-        <is>
-          <t>Рубинштейна, 18</t>
-        </is>
-      </c>
-      <c r="L92" t="inlineStr">
-        <is>
-          <t>1 час 45 минут, без антракта</t>
-        </is>
-      </c>
-      <c r="M92" t="n">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="93">
-      <c r="A93" t="inlineStr">
-        <is>
-          <t>Лауренсия</t>
-        </is>
-      </c>
-      <c r="B93" t="inlineStr">
-        <is>
-          <t>Единственный забытый балет советского наследия, который по-настоящему стоит того, чтобы его вспомнить</t>
-        </is>
-      </c>
-      <c r="C93" t="n">
-        <v>900</v>
-      </c>
-      <c r="D93" t="inlineStr">
-        <is>
-          <t>13:00</t>
-        </is>
-      </c>
-      <c r="E93" t="inlineStr">
-        <is>
-          <t>21.05.2022</t>
-        </is>
-      </c>
-      <c r="F93" t="inlineStr">
-        <is>
-          <t>Балет</t>
-        </is>
-      </c>
-      <c r="G93" t="n">
-        <v>7.7</v>
-      </c>
-      <c r="H93" t="inlineStr">
-        <is>
-          <t>Михайловский театр</t>
-        </is>
-      </c>
-      <c r="I93" t="inlineStr">
-        <is>
-          <t>https://www.afisha.ru/performance/81233/</t>
-        </is>
-      </c>
-      <c r="J93" t="inlineStr">
-        <is>
-          <t>12+</t>
-        </is>
-      </c>
-      <c r="K93" t="inlineStr">
-        <is>
-          <t>пл. Искусств, 1</t>
-        </is>
-      </c>
-      <c r="L93" t="inlineStr">
-        <is>
-          <t>1 час 50 минут, 1 антракт</t>
-        </is>
-      </c>
-      <c r="M93" t="n">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="94">
-      <c r="A94" t="inlineStr">
-        <is>
-          <t>Преступление и наказание</t>
-        </is>
-      </c>
-      <c r="B94" t="inlineStr">
-        <is>
-          <t>Пятичасовой аккуратно осовремененный Достоевский</t>
-        </is>
-      </c>
-      <c r="C94" t="n">
-        <v>900</v>
-      </c>
-      <c r="D94" t="inlineStr">
-        <is>
-          <t>17:00</t>
-        </is>
-      </c>
-      <c r="E94" t="inlineStr">
-        <is>
-          <t>14.05.2022</t>
-        </is>
-      </c>
-      <c r="F94" t="inlineStr">
-        <is>
-          <t>Драма</t>
-        </is>
-      </c>
-      <c r="G94" t="n">
-        <v>6.6</v>
-      </c>
-      <c r="H94" t="inlineStr">
-        <is>
-          <t>Александринский театр</t>
-        </is>
-      </c>
-      <c r="I94" t="inlineStr">
-        <is>
-          <t>https://www.afisha.ru/performance/158543/</t>
-        </is>
-      </c>
-      <c r="J94" t="inlineStr">
-        <is>
-          <t>12+</t>
-        </is>
-      </c>
-      <c r="K94" t="inlineStr">
-        <is>
-          <t>пл. Островского, 2</t>
-        </is>
-      </c>
-      <c r="L94" t="inlineStr">
-        <is>
-          <t>-1</t>
-        </is>
-      </c>
-      <c r="M94" t="n">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="95">
-      <c r="A95" t="inlineStr">
-        <is>
-          <t>Литургия Zero</t>
-        </is>
-      </c>
-      <c r="B95" t="inlineStr">
-        <is>
-          <t>Антон Шагин в спектакле Валерия Фокина о страсти к игре, уничтожающей все живое</t>
-        </is>
-      </c>
-      <c r="C95" t="n">
-        <v>900</v>
-      </c>
-      <c r="D95" t="inlineStr">
-        <is>
-          <t>19:00</t>
-        </is>
-      </c>
-      <c r="E95" t="inlineStr">
-        <is>
-          <t>13.05.2022</t>
-        </is>
-      </c>
-      <c r="F95" t="inlineStr">
-        <is>
-          <t>Драма</t>
-        </is>
-      </c>
-      <c r="G95" t="n">
-        <v>5.7</v>
-      </c>
-      <c r="H95" t="inlineStr">
-        <is>
-          <t>Александринский театр</t>
-        </is>
-      </c>
-      <c r="I95" t="inlineStr">
-        <is>
-          <t>https://www.afisha.ru/performance/89677/</t>
-        </is>
-      </c>
-      <c r="J95" t="inlineStr">
-        <is>
-          <t>16+</t>
-        </is>
-      </c>
-      <c r="K95" t="inlineStr">
-        <is>
-          <t>пл. Островского, 2</t>
-        </is>
-      </c>
-      <c r="L95" t="inlineStr">
-        <is>
-          <t>-1</t>
-        </is>
-      </c>
-      <c r="M95" t="n">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="96">
-      <c r="A96" t="inlineStr">
-        <is>
-          <t>Вишневый сад</t>
-        </is>
-      </c>
-      <c r="B96" t="inlineStr">
-        <is>
-          <t>Традиционный и в то же время стопроцентно авторский Чехов</t>
-        </is>
-      </c>
-      <c r="C96" t="n">
-        <v>900</v>
-      </c>
-      <c r="D96" t="inlineStr">
-        <is>
-          <t>19:00</t>
-        </is>
-      </c>
-      <c r="E96" t="inlineStr">
-        <is>
-          <t>13.05.2022</t>
-        </is>
-      </c>
-      <c r="F96" t="inlineStr">
-        <is>
-          <t>Драма</t>
-        </is>
-      </c>
-      <c r="G96" t="n">
-        <v>4.8</v>
-      </c>
-      <c r="H96" t="inlineStr">
-        <is>
-          <t>МДТ — Театр Европы</t>
-        </is>
-      </c>
-      <c r="I96" t="inlineStr">
-        <is>
-          <t>https://www.afisha.ru/performance/97656/</t>
-        </is>
-      </c>
-      <c r="J96" t="inlineStr">
-        <is>
-          <t>16+</t>
-        </is>
-      </c>
-      <c r="K96" t="inlineStr">
-        <is>
-          <t>Рубинштейна, 18</t>
-        </is>
-      </c>
-      <c r="L96" t="inlineStr">
-        <is>
-          <t>3 часа, 1 антракт</t>
-        </is>
-      </c>
-      <c r="M96" t="n">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="97">
-      <c r="A97" t="inlineStr">
-        <is>
-          <t>Покаяние и прощение</t>
-        </is>
-      </c>
-      <c r="B97" t="inlineStr">
-        <is>
-          <t>Марионеточная фантасмагория по Пушкину — о судьбе и вере</t>
-        </is>
-      </c>
-      <c r="C97" t="n">
-        <v>900</v>
-      </c>
-      <c r="D97" t="inlineStr">
-        <is>
-          <t>19:00</t>
-        </is>
-      </c>
-      <c r="E97" t="inlineStr">
-        <is>
-          <t>26.04.2022</t>
-        </is>
-      </c>
-      <c r="F97" t="inlineStr">
-        <is>
-          <t>Кукольный спектакль</t>
-        </is>
-      </c>
-      <c r="G97" t="n">
-        <v>8</v>
-      </c>
-      <c r="H97" t="inlineStr">
-        <is>
-          <t>Большой театр кукол</t>
-        </is>
-      </c>
-      <c r="I97" t="inlineStr">
-        <is>
-          <t>https://www.afisha.ru/performance/85805/</t>
-        </is>
-      </c>
-      <c r="J97" t="inlineStr">
-        <is>
-          <t>12+</t>
-        </is>
-      </c>
-      <c r="K97" t="inlineStr">
-        <is>
-          <t>Некрасова, 10</t>
-        </is>
-      </c>
-      <c r="L97" t="inlineStr">
-        <is>
-          <t>1 час 50 минут</t>
-        </is>
-      </c>
-      <c r="M97" t="n">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="98">
-      <c r="A98" t="inlineStr">
-        <is>
-          <t>Тщетная предосторожность</t>
-        </is>
-      </c>
-      <c r="B98" t="inlineStr">
-        <is>
-          <t>Изящная сельская комедия</t>
-        </is>
-      </c>
-      <c r="C98" t="n">
-        <v>900</v>
-      </c>
-      <c r="D98" t="inlineStr">
-        <is>
-          <t>19:00</t>
-        </is>
-      </c>
-      <c r="E98" t="inlineStr">
-        <is>
-          <t>13.05.2022</t>
-        </is>
-      </c>
-      <c r="F98" t="inlineStr">
-        <is>
-          <t>Балет</t>
-        </is>
-      </c>
-      <c r="G98" t="n">
-        <v>7.7</v>
-      </c>
-      <c r="H98" t="inlineStr">
-        <is>
-          <t>Михайловский театр</t>
-        </is>
-      </c>
-      <c r="I98" t="inlineStr">
-        <is>
-          <t>https://www.afisha.ru/performance/68311/</t>
-        </is>
-      </c>
-      <c r="J98" t="inlineStr">
-        <is>
-          <t>6+</t>
-        </is>
-      </c>
-      <c r="K98" t="inlineStr">
-        <is>
-          <t>пл. Искусств, 1</t>
-        </is>
-      </c>
-      <c r="L98" t="inlineStr">
-        <is>
-          <t>2 часа 45 минут, 2 антракта</t>
-        </is>
-      </c>
-      <c r="M98" t="n">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="99">
-      <c r="A99" t="inlineStr">
-        <is>
-          <t>Блаженная Ксения. История любви</t>
-        </is>
-      </c>
-      <c r="B99" t="inlineStr">
-        <is>
-          <t>Смелая и виртуозная трактовка мифа о любимой петербургской святой</t>
-        </is>
-      </c>
-      <c r="C99" t="n">
-        <v>900</v>
-      </c>
-      <c r="D99" t="inlineStr">
-        <is>
-          <t>19:00</t>
-        </is>
-      </c>
-      <c r="E99" t="inlineStr">
-        <is>
-          <t>27.04.2022</t>
-        </is>
-      </c>
-      <c r="F99" t="inlineStr">
-        <is>
-          <t>Драма</t>
-        </is>
-      </c>
-      <c r="G99" t="n">
-        <v>4.6</v>
-      </c>
-      <c r="H99" t="inlineStr">
-        <is>
-          <t>Александринский театр</t>
-        </is>
-      </c>
-      <c r="I99" t="inlineStr">
-        <is>
-          <t>https://www.afisha.ru/performance/78499/</t>
-        </is>
-      </c>
-      <c r="J99" t="inlineStr">
-        <is>
-          <t>16+</t>
-        </is>
-      </c>
-      <c r="K99" t="inlineStr">
-        <is>
-          <t>пл. Островского, 2</t>
-        </is>
-      </c>
-      <c r="L99" t="inlineStr">
-        <is>
-          <t>-1</t>
-        </is>
-      </c>
-      <c r="M99" t="n">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="100">
-      <c r="A100" t="inlineStr">
-        <is>
-          <t>Евгений Онегин</t>
-        </is>
-      </c>
-      <c r="B100" t="inlineStr">
-        <is>
-          <t>Спектакль Андрия Жолдака: любителям милой старины просьба не беспокоиться</t>
-        </is>
-      </c>
-      <c r="C100" t="n">
-        <v>900</v>
-      </c>
-      <c r="D100" t="inlineStr">
-        <is>
-          <t>19:00</t>
-        </is>
-      </c>
-      <c r="E100" t="inlineStr">
-        <is>
-          <t>18.05.2022</t>
-        </is>
-      </c>
-      <c r="F100" t="inlineStr">
-        <is>
-          <t>Опера</t>
-        </is>
-      </c>
-      <c r="G100" t="n">
-        <v>6.4</v>
-      </c>
-      <c r="H100" t="inlineStr">
-        <is>
-          <t>Михайловский театр</t>
-        </is>
-      </c>
-      <c r="I100" t="inlineStr">
-        <is>
-          <t>https://www.afisha.ru/performance/91504/</t>
-        </is>
-      </c>
-      <c r="J100" t="inlineStr">
-        <is>
-          <t>16+</t>
-        </is>
-      </c>
-      <c r="K100" t="inlineStr">
-        <is>
-          <t>пл. Искусств, 1</t>
-        </is>
-      </c>
-      <c r="L100" t="inlineStr">
-        <is>
-          <t>3 часа 25 минут, 2 антракта</t>
-        </is>
-      </c>
-      <c r="M100" t="n">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="101">
-      <c r="A101" t="inlineStr">
-        <is>
-          <t>Мнимый больной</t>
-        </is>
-      </c>
-      <c r="B101" t="inlineStr">
-        <is>
-          <t>Лихой фарс по Мольеру с Юрием Гальцевым и Вячеславом Манучаровым</t>
-        </is>
-      </c>
-      <c r="C101" t="n">
-        <v>900</v>
-      </c>
-      <c r="D101" t="inlineStr">
-        <is>
-          <t>19:00</t>
-        </is>
-      </c>
-      <c r="E101" t="inlineStr">
-        <is>
-          <t>04.05.2022</t>
-        </is>
-      </c>
-      <c r="F101" t="inlineStr">
-        <is>
-          <t>Драма</t>
-        </is>
-      </c>
-      <c r="G101" t="n">
-        <v>4</v>
-      </c>
-      <c r="H101" t="inlineStr">
-        <is>
-          <t>Театр эстрады им. Аркадия Райкина</t>
-        </is>
-      </c>
-      <c r="I101" t="inlineStr">
-        <is>
-          <t>https://www.afisha.ru/performance/90764/</t>
-        </is>
-      </c>
-      <c r="J101" t="inlineStr">
-        <is>
-          <t>16+</t>
-        </is>
-      </c>
-      <c r="K101" t="inlineStr">
-        <is>
-          <t>Б.Конюшенная, 27</t>
-        </is>
-      </c>
-      <c r="L101" t="inlineStr">
-        <is>
-          <t>-1</t>
-        </is>
-      </c>
-      <c r="M101" t="n">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="102">
-      <c r="A102" t="inlineStr">
-        <is>
-          <t>Блаженная Ксения. История любви</t>
-        </is>
-      </c>
-      <c r="B102" t="inlineStr">
-        <is>
-          <t>Смелая и виртуозная трактовка мифа о любимой петербургской святой</t>
-        </is>
-      </c>
-      <c r="C102" t="n">
-        <v>900</v>
-      </c>
-      <c r="D102" t="inlineStr">
-        <is>
-          <t>19:00</t>
-        </is>
-      </c>
-      <c r="E102" t="inlineStr">
-        <is>
-          <t>27.04.2022</t>
-        </is>
-      </c>
-      <c r="F102" t="inlineStr">
-        <is>
-          <t>Драма</t>
-        </is>
-      </c>
-      <c r="G102" t="n">
-        <v>4.6</v>
-      </c>
-      <c r="H102" t="inlineStr">
-        <is>
-          <t>Александринский театр</t>
-        </is>
-      </c>
-      <c r="I102" t="inlineStr">
-        <is>
-          <t>https://www.afisha.ru/performance/78499/</t>
-        </is>
-      </c>
-      <c r="J102" t="inlineStr">
-        <is>
-          <t>16+</t>
-        </is>
-      </c>
-      <c r="K102" t="inlineStr">
-        <is>
-          <t>пл. Островского, 2</t>
-        </is>
-      </c>
-      <c r="L102" t="inlineStr">
-        <is>
-          <t>-1</t>
-        </is>
-      </c>
-      <c r="M102" t="n">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="103">
-      <c r="A103" t="inlineStr">
-        <is>
-          <t>Евгений Онегин</t>
-        </is>
-      </c>
-      <c r="B103" t="inlineStr">
-        <is>
-          <t>Спектакль Андрия Жолдака: любителям милой старины просьба не беспокоиться</t>
-        </is>
-      </c>
-      <c r="C103" t="n">
-        <v>900</v>
-      </c>
-      <c r="D103" t="inlineStr">
-        <is>
-          <t>19:00</t>
-        </is>
-      </c>
-      <c r="E103" t="inlineStr">
-        <is>
-          <t>18.05.2022</t>
-        </is>
-      </c>
-      <c r="F103" t="inlineStr">
-        <is>
-          <t>Опера</t>
-        </is>
-      </c>
-      <c r="G103" t="n">
-        <v>6.4</v>
-      </c>
-      <c r="H103" t="inlineStr">
-        <is>
-          <t>Михайловский театр</t>
-        </is>
-      </c>
-      <c r="I103" t="inlineStr">
-        <is>
-          <t>https://www.afisha.ru/performance/91504/</t>
-        </is>
-      </c>
-      <c r="J103" t="inlineStr">
-        <is>
-          <t>16+</t>
-        </is>
-      </c>
-      <c r="K103" t="inlineStr">
-        <is>
-          <t>пл. Искусств, 1</t>
-        </is>
-      </c>
-      <c r="L103" t="inlineStr">
-        <is>
-          <t>3 часа 25 минут, 2 антракта</t>
-        </is>
-      </c>
-      <c r="M103" t="n">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="104">
-      <c r="A104" t="inlineStr">
-        <is>
-          <t>Мнимый больной</t>
-        </is>
-      </c>
-      <c r="B104" t="inlineStr">
-        <is>
-          <t>Лихой фарс по Мольеру с Юрием Гальцевым и Вячеславом Манучаровым</t>
-        </is>
-      </c>
-      <c r="C104" t="n">
-        <v>900</v>
-      </c>
-      <c r="D104" t="inlineStr">
-        <is>
-          <t>19:00</t>
-        </is>
-      </c>
-      <c r="E104" t="inlineStr">
-        <is>
-          <t>04.05.2022</t>
-        </is>
-      </c>
-      <c r="F104" t="inlineStr">
-        <is>
-          <t>Драма</t>
-        </is>
-      </c>
-      <c r="G104" t="n">
-        <v>4</v>
-      </c>
-      <c r="H104" t="inlineStr">
-        <is>
-          <t>Театр эстрады им. Аркадия Райкина</t>
-        </is>
-      </c>
-      <c r="I104" t="inlineStr">
-        <is>
-          <t>https://www.afisha.ru/performance/90764/</t>
-        </is>
-      </c>
-      <c r="J104" t="inlineStr">
-        <is>
-          <t>16+</t>
-        </is>
-      </c>
-      <c r="K104" t="inlineStr">
-        <is>
-          <t>Б.Конюшенная, 27</t>
-        </is>
-      </c>
-      <c r="L104" t="inlineStr">
-        <is>
-          <t>-1</t>
-        </is>
-      </c>
-      <c r="M104" t="n">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="105">
-      <c r="A105" t="inlineStr">
-        <is>
-          <t>Три сестры</t>
-        </is>
-      </c>
-      <c r="B105" t="inlineStr">
-        <is>
-          <t>Пять пудов любви и повседневный трагизм в выдающемся спектакле Льва Додина по Чехову</t>
-        </is>
-      </c>
-      <c r="C105" t="n">
-        <v>900</v>
-      </c>
-      <c r="D105" t="inlineStr">
-        <is>
-          <t>19:00</t>
-        </is>
-      </c>
-      <c r="E105" t="inlineStr">
-        <is>
-          <t>16.05.2022</t>
-        </is>
-      </c>
-      <c r="F105" t="inlineStr">
-        <is>
-          <t>Драма</t>
-        </is>
-      </c>
-      <c r="G105" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="H105" t="inlineStr">
-        <is>
-          <t>МДТ — Театр Европы</t>
-        </is>
-      </c>
-      <c r="I105" t="inlineStr">
-        <is>
-          <t>https://www.afisha.ru/performance/82203/</t>
-        </is>
-      </c>
-      <c r="J105" t="inlineStr">
-        <is>
-          <t>16+</t>
-        </is>
-      </c>
-      <c r="K105" t="inlineStr">
-        <is>
-          <t>Рубинштейна, 18</t>
-        </is>
-      </c>
-      <c r="L105" t="inlineStr">
-        <is>
-          <t>3 часа, 1 антракт</t>
-        </is>
-      </c>
-      <c r="M105" t="n">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="106">
-      <c r="A106" t="inlineStr">
-        <is>
-          <t>Русский и литература</t>
-        </is>
-      </c>
-      <c r="B106" t="inlineStr">
-        <is>
-          <t>Трагическая история о русском провинциальном учителе-идеалисте</t>
-        </is>
-      </c>
-      <c r="C106" t="n">
-        <v>900</v>
-      </c>
-      <c r="D106" t="inlineStr">
-        <is>
-          <t>19:30</t>
-        </is>
-      </c>
-      <c r="E106" t="inlineStr">
-        <is>
-          <t>14.05.2022</t>
-        </is>
-      </c>
-      <c r="F106" t="inlineStr">
-        <is>
-          <t>Драма</t>
-        </is>
-      </c>
-      <c r="G106" t="n">
-        <v>5</v>
-      </c>
-      <c r="H106" t="inlineStr">
-        <is>
-          <t>МДТ — Театр Европы</t>
-        </is>
-      </c>
-      <c r="I106" t="inlineStr">
-        <is>
-          <t>https://www.afisha.ru/performance/94990/</t>
-        </is>
-      </c>
-      <c r="J106" t="inlineStr">
-        <is>
-          <t>18+</t>
-        </is>
-      </c>
-      <c r="K106" t="inlineStr">
-        <is>
-          <t>Рубинштейна, 18</t>
-        </is>
-      </c>
-      <c r="L106" t="inlineStr">
-        <is>
-          <t>-1</t>
-        </is>
-      </c>
-      <c r="M106" t="n">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="107">
-      <c r="A107" t="inlineStr">
-        <is>
-          <t>Сирано де Бержерак</t>
-        </is>
-      </c>
-      <c r="B107" t="inlineStr">
-        <is>
-          <t>Постмодерн-боевик на материале классического текста</t>
-        </is>
-      </c>
-      <c r="C107" t="n">
-        <v>900</v>
-      </c>
-      <c r="D107" t="inlineStr">
-        <is>
-          <t>19:00</t>
-        </is>
-      </c>
-      <c r="E107" t="inlineStr">
-        <is>
-          <t>24.04.2022</t>
-        </is>
-      </c>
-      <c r="F107" t="inlineStr">
-        <is>
-          <t>Драма</t>
-        </is>
-      </c>
-      <c r="G107" t="n">
-        <v>8.6</v>
-      </c>
-      <c r="H107" t="inlineStr">
-        <is>
-          <t>Александринский театр</t>
-        </is>
-      </c>
-      <c r="I107" t="inlineStr">
-        <is>
-          <t>https://www.afisha.ru/performance/204940/</t>
-        </is>
-      </c>
-      <c r="J107" t="inlineStr">
-        <is>
-          <t>16+</t>
-        </is>
-      </c>
-      <c r="K107" t="inlineStr">
-        <is>
-          <t>пл. Островского, 2</t>
-        </is>
-      </c>
-      <c r="L107" t="inlineStr">
-        <is>
-          <t>-1</t>
-        </is>
-      </c>
-      <c r="M107" t="n">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="108">
-      <c r="A108" t="inlineStr">
-        <is>
-          <t>Белый. Петербург</t>
-        </is>
-      </c>
-      <c r="B108" t="inlineStr">
-        <is>
-          <t>Фантасмагорический мюзикл по роману Андрея Белого</t>
-        </is>
-      </c>
-      <c r="C108" t="n">
-        <v>900</v>
-      </c>
-      <c r="D108" t="inlineStr">
-        <is>
-          <t>19:00</t>
-        </is>
-      </c>
-      <c r="E108" t="inlineStr">
-        <is>
-          <t>11.05.2022</t>
-        </is>
-      </c>
-      <c r="F108" t="inlineStr">
-        <is>
-          <t>Музыкальный</t>
-        </is>
-      </c>
-      <c r="G108" t="n">
-        <v>7.3</v>
-      </c>
-      <c r="H108" t="inlineStr">
-        <is>
-          <t>Театр музыкальной комедии</t>
-        </is>
-      </c>
-      <c r="I108" t="inlineStr">
-        <is>
-          <t>https://www.afisha.ru/performance/102989/</t>
-        </is>
-      </c>
-      <c r="J108" t="inlineStr">
-        <is>
-          <t>16+</t>
-        </is>
-      </c>
-      <c r="K108" t="inlineStr">
-        <is>
-          <t>Итальянская, 13</t>
-        </is>
-      </c>
-      <c r="L108" t="inlineStr">
-        <is>
-          <t>3 часа 15 минут, 1 антракт</t>
-        </is>
-      </c>
-      <c r="M108" t="n">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="109">
-      <c r="A109" t="inlineStr">
-        <is>
-          <t>Дети солнца</t>
-        </is>
-      </c>
-      <c r="B109" t="inlineStr">
-        <is>
-          <t>Размышления об идеальном человеке</t>
-        </is>
-      </c>
-      <c r="C109" t="n">
-        <v>900</v>
-      </c>
-      <c r="D109" t="inlineStr">
-        <is>
-          <t>19:00</t>
-        </is>
-      </c>
-      <c r="E109" t="inlineStr">
-        <is>
-          <t>18.05.2022</t>
-        </is>
-      </c>
-      <c r="F109" t="inlineStr">
-        <is>
-          <t>Драма</t>
-        </is>
-      </c>
-      <c r="G109" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="H109" t="inlineStr">
-        <is>
-          <t>Александринский театр</t>
-        </is>
-      </c>
-      <c r="I109" t="inlineStr">
-        <is>
-          <t>https://www.afisha.ru/performance/233405/</t>
-        </is>
-      </c>
-      <c r="J109" t="inlineStr">
-        <is>
-          <t>16+</t>
-        </is>
-      </c>
-      <c r="K109" t="inlineStr">
-        <is>
-          <t>пл. Островского, 2</t>
-        </is>
-      </c>
-      <c r="L109" t="inlineStr">
-        <is>
-          <t>2 часа, без антракта</t>
-        </is>
-      </c>
-      <c r="M109" t="n">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="110">
-      <c r="A110" t="inlineStr">
-        <is>
-          <t>Повелитель мух</t>
-        </is>
-      </c>
-      <c r="B110" t="inlineStr">
-        <is>
-          <t>Вторая редакция великого спектакля</t>
-        </is>
-      </c>
-      <c r="C110" t="n">
-        <v>900</v>
-      </c>
-      <c r="D110" t="inlineStr">
-        <is>
-          <t>19:00</t>
-        </is>
-      </c>
-      <c r="E110" t="inlineStr">
-        <is>
-          <t>18.05.2022</t>
-        </is>
-      </c>
-      <c r="F110" t="inlineStr">
-        <is>
-          <t>Драма</t>
-        </is>
-      </c>
-      <c r="G110" t="n">
-        <v>7.2</v>
-      </c>
-      <c r="H110" t="inlineStr">
-        <is>
-          <t>МДТ — Театр Европы</t>
-        </is>
-      </c>
-      <c r="I110" t="inlineStr">
-        <is>
-          <t>https://www.afisha.ru/performance/79164/</t>
-        </is>
-      </c>
-      <c r="J110" t="inlineStr">
-        <is>
-          <t>12+</t>
-        </is>
-      </c>
-      <c r="K110" t="inlineStr">
-        <is>
-          <t>Рубинштейна, 18</t>
-        </is>
-      </c>
-      <c r="L110" t="inlineStr">
-        <is>
-          <t>2 часа 10 минут, без антракта</t>
-        </is>
-      </c>
-      <c r="M110" t="n">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="111">
-      <c r="A111" t="inlineStr">
-        <is>
-          <t>Сильва</t>
-        </is>
-      </c>
-      <c r="B111" t="inlineStr">
-        <is>
-          <t>Спектакль Санкт-Петербургского государственного театра музыкальной комедии</t>
-        </is>
-      </c>
-      <c r="C111" t="n">
-        <v>900</v>
-      </c>
-      <c r="D111" t="inlineStr">
-        <is>
-          <t>19:00</t>
-        </is>
-      </c>
-      <c r="E111" t="inlineStr">
-        <is>
-          <t>03.05.2022</t>
-        </is>
-      </c>
-      <c r="F111" t="inlineStr">
-        <is>
-          <t>Оперетта</t>
-        </is>
-      </c>
-      <c r="G111" t="n">
-        <v>5.6</v>
-      </c>
-      <c r="H111" t="inlineStr">
-        <is>
-          <t>Театр музыкальной комедии</t>
-        </is>
-      </c>
-      <c r="I111" t="inlineStr">
-        <is>
-          <t>https://www.afisha.ru/performance/72819/</t>
-        </is>
-      </c>
-      <c r="J111" t="inlineStr">
-        <is>
-          <t>12+</t>
-        </is>
-      </c>
-      <c r="K111" t="inlineStr">
-        <is>
-          <t>Итальянская, 13</t>
-        </is>
-      </c>
-      <c r="L111" t="inlineStr">
-        <is>
-          <t>3 часа 15 минут, 2 антракта</t>
-        </is>
-      </c>
-      <c r="M111" t="n">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="112">
-      <c r="A112" t="inlineStr">
-        <is>
-          <t>Ромео и Джульетта</t>
-        </is>
-      </c>
-      <c r="B112" t="inlineStr">
-        <is>
-          <t>Битва хрупкого хореографа Дуато с балетом-монстром</t>
-        </is>
-      </c>
-      <c r="C112" t="n">
-        <v>900</v>
-      </c>
-      <c r="D112" t="inlineStr">
-        <is>
-          <t>19:00</t>
-        </is>
-      </c>
-      <c r="E112" t="inlineStr">
-        <is>
-          <t>04.05.2022</t>
-        </is>
-      </c>
-      <c r="F112" t="inlineStr">
-        <is>
-          <t>Балет</t>
-        </is>
-      </c>
-      <c r="G112" t="n">
-        <v>6.9</v>
-      </c>
-      <c r="H112" t="inlineStr">
-        <is>
-          <t>Михайловский театр</t>
-        </is>
-      </c>
-      <c r="I112" t="inlineStr">
-        <is>
-          <t>https://www.afisha.ru/performance/91766/</t>
-        </is>
-      </c>
-      <c r="J112" t="inlineStr">
-        <is>
-          <t>12+</t>
-        </is>
-      </c>
-      <c r="K112" t="inlineStr">
-        <is>
-          <t>пл. Искусств, 1</t>
-        </is>
-      </c>
-      <c r="L112" t="inlineStr">
-        <is>
-          <t>2 часа 30 минут, 1 антракт</t>
-        </is>
-      </c>
-      <c r="M112" t="n">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="113">
-      <c r="A113" t="inlineStr">
-        <is>
-          <t>Привидения</t>
-        </is>
-      </c>
-      <c r="B113" t="inlineStr">
-        <is>
-          <t>Семейная драма про то, как ложь отцов убивает детей</t>
-        </is>
-      </c>
-      <c r="C113" t="n">
-        <v>900</v>
-      </c>
-      <c r="D113" t="inlineStr">
-        <is>
-          <t>19:30</t>
-        </is>
-      </c>
-      <c r="E113" t="inlineStr">
-        <is>
-          <t>06.05.2022</t>
-        </is>
-      </c>
-      <c r="F113" t="inlineStr">
-        <is>
-          <t>Драма</t>
-        </is>
-      </c>
-      <c r="G113" t="n">
-        <v>7.7</v>
-      </c>
-      <c r="H113" t="inlineStr">
-        <is>
-          <t>МДТ — Театр Европы</t>
-        </is>
-      </c>
-      <c r="I113" t="inlineStr">
-        <is>
-          <t>https://www.afisha.ru/performance/83904/</t>
-        </is>
-      </c>
-      <c r="J113" t="inlineStr">
-        <is>
-          <t>16+</t>
-        </is>
-      </c>
-      <c r="K113" t="inlineStr">
-        <is>
-          <t>Рубинштейна, 18</t>
-        </is>
-      </c>
-      <c r="L113" t="inlineStr">
-        <is>
-          <t>-1</t>
-        </is>
-      </c>
-      <c r="M113" t="n">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="114">
-      <c r="A114" t="inlineStr">
-        <is>
-          <t>Братья Карамазовы</t>
-        </is>
-      </c>
-      <c r="B114" t="inlineStr">
-        <is>
-          <t>Постдраматический Достоевский</t>
-        </is>
-      </c>
-      <c r="C114" t="n">
-        <v>900</v>
-      </c>
-      <c r="D114" t="inlineStr">
-        <is>
-          <t>19:00</t>
-        </is>
-      </c>
-      <c r="E114" t="inlineStr">
-        <is>
-          <t>24.05.2022</t>
-        </is>
-      </c>
-      <c r="F114" t="inlineStr">
-        <is>
-          <t>Драма</t>
-        </is>
-      </c>
-      <c r="G114" t="n">
-        <v>6.1</v>
-      </c>
-      <c r="H114" t="inlineStr">
-        <is>
-          <t>МДТ — Театр Европы</t>
-        </is>
-      </c>
-      <c r="I114" t="inlineStr">
-        <is>
-          <t>https://www.afisha.ru/performance/232171/</t>
-        </is>
-      </c>
-      <c r="J114" t="inlineStr">
-        <is>
-          <t>16+</t>
-        </is>
-      </c>
-      <c r="K114" t="inlineStr">
-        <is>
-          <t>Рубинштейна, 18</t>
-        </is>
-      </c>
-      <c r="L114" t="inlineStr">
-        <is>
-          <t>3 часа 20 минут, 1 антракт</t>
-        </is>
-      </c>
-      <c r="M114" t="n">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="115">
-      <c r="A115" t="inlineStr">
-        <is>
-          <t>Мамаша Кураж и ее дети</t>
-        </is>
-      </c>
-      <c r="B115" t="inlineStr">
-        <is>
-          <t>Экзальтированная трагедия с хором в камуфляже</t>
-        </is>
-      </c>
-      <c r="C115" t="n">
-        <v>900</v>
-      </c>
-      <c r="D115" t="inlineStr">
-        <is>
-          <t>19:00</t>
-        </is>
-      </c>
-      <c r="E115" t="inlineStr">
-        <is>
-          <t>08.05.2022</t>
-        </is>
-      </c>
-      <c r="F115" t="inlineStr">
-        <is>
-          <t>Драма</t>
-        </is>
-      </c>
-      <c r="G115" t="n">
-        <v>4.1</v>
-      </c>
-      <c r="H115" t="inlineStr">
-        <is>
-          <t>Александринский театр</t>
-        </is>
-      </c>
-      <c r="I115" t="inlineStr">
-        <is>
-          <t>https://www.afisha.ru/performance/190189/</t>
-        </is>
-      </c>
-      <c r="J115" t="inlineStr">
-        <is>
-          <t>16+</t>
-        </is>
-      </c>
-      <c r="K115" t="inlineStr">
-        <is>
-          <t>пл. Островского, 2</t>
-        </is>
-      </c>
-      <c r="L115" t="inlineStr">
-        <is>
-          <t>-1</t>
-        </is>
-      </c>
-      <c r="M115" t="n">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="116">
-      <c r="A116" t="inlineStr">
-        <is>
-          <t>Трое на качелях</t>
-        </is>
-      </c>
-      <c r="B116" t="inlineStr">
-        <is>
-          <t>Мистическая комедия с внешними признаками стимпанка</t>
-        </is>
-      </c>
-      <c r="C116" t="n">
-        <v>900</v>
-      </c>
-      <c r="D116" t="inlineStr">
-        <is>
-          <t>19:00</t>
-        </is>
-      </c>
-      <c r="E116" t="inlineStr">
-        <is>
-          <t>21.05.2022</t>
-        </is>
-      </c>
-      <c r="F116" t="inlineStr">
-        <is>
-          <t>Драма</t>
-        </is>
-      </c>
-      <c r="G116" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="H116" t="inlineStr">
-        <is>
-          <t>Театр на Васильевском</t>
-        </is>
-      </c>
-      <c r="I116" t="inlineStr">
-        <is>
-          <t>https://www.afisha.ru/performance/103544/</t>
-        </is>
-      </c>
-      <c r="J116" t="inlineStr">
-        <is>
-          <t>16+</t>
-        </is>
-      </c>
-      <c r="K116" t="inlineStr">
-        <is>
-          <t>Средний просп. В.О., 48</t>
-        </is>
-      </c>
-      <c r="L116" t="inlineStr">
-        <is>
-          <t>2 часа 40 минут, 1 антракт</t>
-        </is>
-      </c>
-      <c r="M116" t="n">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="117">
-      <c r="A117" t="inlineStr">
-        <is>
-          <t>Сельская честь</t>
-        </is>
-      </c>
-      <c r="B117" t="inlineStr">
-        <is>
-          <t>Постановка итальянского мастера на петербургской сцене.</t>
-        </is>
-      </c>
-      <c r="C117" t="n">
-        <v>900</v>
-      </c>
-      <c r="D117" t="inlineStr">
-        <is>
-          <t>19:00</t>
-        </is>
-      </c>
-      <c r="E117" t="inlineStr">
-        <is>
-          <t>26.04.2022</t>
-        </is>
-      </c>
-      <c r="F117" t="inlineStr">
-        <is>
-          <t>Опера</t>
-        </is>
-      </c>
-      <c r="G117" t="n">
-        <v>7.8</v>
-      </c>
-      <c r="H117" t="inlineStr">
-        <is>
-          <t>Михайловский театр</t>
-        </is>
-      </c>
-      <c r="I117" t="inlineStr">
-        <is>
-          <t>https://www.afisha.ru/performance/75718/</t>
-        </is>
-      </c>
-      <c r="J117" t="inlineStr">
-        <is>
-          <t>12+</t>
-        </is>
-      </c>
-      <c r="K117" t="inlineStr">
-        <is>
-          <t>пл. Искусств, 1</t>
-        </is>
-      </c>
-      <c r="L117" t="inlineStr">
-        <is>
-          <t>1 час 45 минут, 1 антракт</t>
-        </is>
-      </c>
-      <c r="M117" t="n">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="118">
-      <c r="A118" t="inlineStr">
-        <is>
-          <t>Русское варенье</t>
-        </is>
-      </c>
-      <c r="B118" t="inlineStr">
-        <is>
-          <t>Комедия Людмилы Улицкой на чеховские темы</t>
-        </is>
-      </c>
-      <c r="C118" t="n">
-        <v>900</v>
-      </c>
-      <c r="D118" t="inlineStr">
-        <is>
-          <t>19:00</t>
-        </is>
-      </c>
-      <c r="E118" t="inlineStr">
-        <is>
-          <t>10.05.2022</t>
-        </is>
-      </c>
-      <c r="F118" t="inlineStr">
-        <is>
-          <t>Драма</t>
-        </is>
-      </c>
-      <c r="G118" t="n">
-        <v>7.2</v>
-      </c>
-      <c r="H118" t="inlineStr">
-        <is>
-          <t>Театр на Васильевском</t>
-        </is>
-      </c>
-      <c r="I118" t="inlineStr">
-        <is>
-          <t>https://www.afisha.ru/performance/74889/</t>
-        </is>
-      </c>
-      <c r="J118" t="inlineStr">
-        <is>
-          <t>16+</t>
-        </is>
-      </c>
-      <c r="K118" t="inlineStr">
-        <is>
-          <t>Средний просп. В.О., 48</t>
-        </is>
-      </c>
-      <c r="L118" t="inlineStr">
-        <is>
-          <t>2 часа 15 минут, без антракта</t>
-        </is>
-      </c>
-      <c r="M118" t="n">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="119">
-      <c r="A119" t="inlineStr">
-        <is>
-          <t>Сказка о царе Салтане</t>
-        </is>
-      </c>
-      <c r="B119" t="inlineStr">
-        <is>
-          <t>Полет шмеля и другие музыкальные радости</t>
-        </is>
-      </c>
-      <c r="C119" t="n">
-        <v>900</v>
-      </c>
-      <c r="D119" t="inlineStr">
-        <is>
-          <t>19:00</t>
-        </is>
-      </c>
-      <c r="E119" t="inlineStr">
-        <is>
-          <t>24.04.2022</t>
-        </is>
-      </c>
-      <c r="F119" t="inlineStr">
-        <is>
-          <t>Опера</t>
-        </is>
-      </c>
-      <c r="G119" t="n">
-        <v>5</v>
-      </c>
-      <c r="H119" t="inlineStr">
-        <is>
-          <t>Мариинский театр</t>
-        </is>
-      </c>
-      <c r="I119" t="inlineStr">
-        <is>
-          <t>https://www.afisha.ru/performance/68091/</t>
-        </is>
-      </c>
-      <c r="J119" t="inlineStr">
-        <is>
-          <t>6+</t>
-        </is>
-      </c>
-      <c r="K119" t="inlineStr">
-        <is>
-          <t>Театральная пл., 1</t>
-        </is>
-      </c>
-      <c r="L119" t="inlineStr">
-        <is>
-          <t>-1</t>
-        </is>
-      </c>
-      <c r="M119" t="n">
         <v>-1</v>
       </c>
     </row>
